--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1639"/>
+  <dimension ref="A1:H1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -13770,7 +13770,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H351" t="inlineStr"/>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H353" t="inlineStr"/>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H354" t="inlineStr"/>
@@ -15518,7 +15518,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H397" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18102,7 +18102,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H465" t="inlineStr"/>
@@ -18216,7 +18216,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H468" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H470" t="inlineStr"/>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H472" t="inlineStr"/>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H477" t="inlineStr"/>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H478" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H479" t="inlineStr"/>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H480" t="inlineStr"/>
@@ -23156,7 +23156,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H598" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -36608,7 +36608,7 @@
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H952" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>64,45</t>
+          <t>118,318</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>200,97</t>
+          <t>105,5</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>481,76</t>
+          <t>132,56</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>132,2</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>25,72</t>
+          <t>795,04</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>170,08</t>
+          <t>765,74</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>64,45</t>
+          <t>118,318</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>200,97</t>
+          <t>105,5</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>481,76</t>
+          <t>132,56</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>132,2</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>25,72</t>
+          <t>795,04</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>170,08</t>
+          <t>765,74</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>25,737</t>
+          <t>38,518</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>117,644</t>
+          <t>140,421</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>121,264</t>
+          <t>1,328</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>2,115</t>
+          <t>19,008000000000003</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>7,0200000000000005</t>
+          <t>93,468</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>5,354</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>20,94</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>20,94</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>20,94</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>20,94</t>
+          <t>26,78</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>19</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>393,6</t>
+          <t>922,8</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>72,9</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>195,825</t>
+          <t>219,7125</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -55418,7 +55418,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>36,93</t>
+          <t>71,15</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1/2 "</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,7 +61348,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, DIAM 2"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, DIAM 3"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,7 +61474,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 1"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
@@ -61484,7 +61484,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 1/2"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,17 +61558,17 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2 ", S-40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,17 +61600,17 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,17 +61642,17 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 2"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 3 "</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X100MMLG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X70MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X75MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 3"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 1"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,17 +61978,17 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8, DIAM 1/2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2 ", S-40</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,17 +62020,17 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 3"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,17 +62062,17 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1/2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4 ", S-40</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,12 +62104,12 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
+          <t>SUMINISTRO DE PIPE, SCH 40, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 2"</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
@@ -62146,17 +62146,17 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, DIAM 3/4"</t>
+          <t>SUMINISTRO DE PIPE, SCH 40, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 6"</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,7 +62188,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X185MMLG</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
@@ -62198,7 +62198,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 1 "</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X135MMLG</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GLOBE VALVE FL, API 623, A216 GR.WCB, CL 1500, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-80</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X115MMLG</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62366,7 +62366,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,17 +62398,17 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 ", S-80</t>
+          <t>SUMINISTRO DE CAP, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,17 +62440,17 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2 ", S-80</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 1 "</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1/2 "</t>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, DIAM 2"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 3/4 "</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X5"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -62608,7 +62608,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8 " X 1 "</t>
+          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 5 " </t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
@@ -62618,7 +62618,7 @@
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -62650,17 +62650,17 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8 " X 3/4 "</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 ", S-80</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -62692,17 +62692,17 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 1 1/2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 1/2 ", S-160</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1635" t="inlineStr">
@@ -62734,17 +62734,17 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 40 X SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 3"X1 1/2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 1/2 ", S-80</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1636" t="inlineStr">
@@ -62776,7 +62776,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 1500#, SCH 80, RF, ASTM A-105, ASME B16.5 2"</t>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1 1/2"X1"</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr">
@@ -62786,7 +62786,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1637" t="inlineStr">
@@ -62818,7 +62818,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 3"</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 40, RF, ASTM A-105, ASME B16.5 5"</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr">
@@ -62828,7 +62828,7 @@
       </c>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
@@ -62860,20 +62860,230 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 6"</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
           <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2 ", S-20 X S-40</t>
         </is>
       </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 4 ", S-20 X S-40</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 5" </t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>17,84</t>
+        </is>
+      </c>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 5”</t>
+        </is>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>17,84</t>
+        </is>
+      </c>
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 5"</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>2,712</t>
+        </is>
+      </c>
+      <c r="H1644" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1644"/>
+  <dimension ref="A1:H1661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -13770,7 +13770,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H351" t="inlineStr"/>
@@ -13846,7 +13846,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H353" t="inlineStr"/>
@@ -13884,7 +13884,7 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H354" t="inlineStr"/>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H373" t="inlineStr"/>
@@ -15518,7 +15518,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H397" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18102,7 +18102,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H465" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H472" t="inlineStr"/>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H477" t="inlineStr"/>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H478" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H479" t="inlineStr"/>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H480" t="inlineStr"/>
@@ -19812,7 +19812,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H510" t="inlineStr"/>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H566" t="inlineStr"/>
@@ -23156,7 +23156,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H598" t="inlineStr"/>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H922" t="inlineStr"/>
@@ -35506,7 +35506,7 @@
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="H923" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -36608,7 +36608,7 @@
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H952" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>118,318</t>
+          <t>172,919</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>105,5</t>
+          <t>188,35</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>132,56</t>
+          <t>94,96</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>132,2</t>
+          <t>40,16</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>795,04</t>
+          <t>1697,27</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>765,74</t>
+          <t>85,12</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>118,318</t>
+          <t>172,919</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>105,5</t>
+          <t>188,35</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>132,56</t>
+          <t>94,96</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>132,2</t>
+          <t>40,16</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>795,04</t>
+          <t>1697,27</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>765,74</t>
+          <t>85,12</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>38,518</t>
+          <t>147,969</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>140,421</t>
+          <t>157,424</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>1,328</t>
+          <t>47,5</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>19,008000000000003</t>
+          <t>12,002</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>93,468</t>
+          <t>241,996</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>3,714</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>26,78</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>26,78</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>26,78</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>26,78</t>
+          <t>34,98</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>922,8</t>
+          <t>636</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>147,3</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>219,7125</t>
+          <t>244,65</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -55418,7 +55418,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr"/>
@@ -56216,7 +56216,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>71,15</t>
+          <t>86,73</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 2"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61484,7 +61484,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, DIAM 2"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 1"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 1"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 3/4"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,17 +61978,17 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2 ", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,17 +62020,17 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, TRUNNION BALL, API 6D, A216 GR.WCB, CL 1500, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS SS316, SEAT INSERTS NYLON, API 607, LO</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2 ", S-40</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,7 +62104,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 40, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
@@ -62146,7 +62146,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 40, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 6"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6 ", S-40</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
@@ -62156,7 +62156,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,17 +62188,17 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X185MMLG</t>
+          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 2"</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,17 +62230,17 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 6"</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X135MMLG</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 1500 LB RAISED FACE FORGED ASTM A105, 1 1/2 "</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 1500 LB RAISED FACE FORGED ASTM A105, 3/4 "</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X115MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62366,7 +62366,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CAP, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X70MMLG</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X75MMLG</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, DIAM 2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X5"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X140MMLG</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -62608,7 +62608,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 5 " </t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 900, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
@@ -62650,17 +62650,17 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 ", S-80</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -62692,17 +62692,17 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 1/2 ", S-160</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1635" t="inlineStr">
@@ -62734,17 +62734,17 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 1/2 ", S-80</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1636" t="inlineStr">
@@ -62776,7 +62776,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1 1/2"X1"</t>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, DIAM 3/4"</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr">
@@ -62786,7 +62786,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H1637" t="inlineStr">
@@ -62818,7 +62818,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 40, RF, ASTM A-105, ASME B16.5 5"</t>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 1500, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS04/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr">
@@ -62828,7 +62828,7 @@
       </c>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
@@ -62860,7 +62860,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 6"</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 1 "</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
@@ -62902,7 +62902,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2 ", S-20 X S-40</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3/4 "</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr">
@@ -62912,7 +62912,7 @@
       </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -62944,7 +62944,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 4 ", S-20 X S-40</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 "</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr">
@@ -62986,17 +62986,17 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 5" </t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2"</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -63028,17 +63028,17 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 5”</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -63070,20 +63070,734 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 5"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3 "</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr">
         <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>2,712</t>
-        </is>
-      </c>
-      <c r="H1644" t="inlineStr">
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 6 </t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 900, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GLOBE VALVE SW, API 602, API 598, A105, CL 1500, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1 ", S-80</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-80</t>
+        </is>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 ", S-80</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4 ", S-80</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, PE, ASTM A333 GR. 6, ASME B36.10, DIAM. 1 1/2"</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, PE, ASTM A333 GR. 6, ASME B36.10, DIAM. 3/4"</t>
+        </is>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 1 "</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 3/4 "</t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 1 "</t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 3/4 "</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8 " X 3/4 "</t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 40 X SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 2"X1 1/2"</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE FLANGE WN, 1500#, SCH 80, RF, ASTM A-105, ASME B16.5 2"</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1661" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1661"/>
+  <dimension ref="A1:H1613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
@@ -14606,7 +14606,7 @@
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H373" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18102,7 +18102,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H465" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -19812,7 +19812,7 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H510" t="inlineStr"/>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H566" t="inlineStr"/>
@@ -23156,7 +23156,7 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H598" t="inlineStr"/>
@@ -35468,7 +35468,7 @@
       </c>
       <c r="G922" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H922" t="inlineStr"/>
@@ -35506,7 +35506,7 @@
       </c>
       <c r="G923" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H923" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -36608,7 +36608,7 @@
       </c>
       <c r="G952" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H952" t="inlineStr"/>
@@ -37862,7 +37862,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>13,96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H985" t="inlineStr"/>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>12,493</t>
+          <t>49,509</t>
         </is>
       </c>
       <c r="H986" t="inlineStr"/>
@@ -37938,7 +37938,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>30,786</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>85,823</t>
+          <t>41,52</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>369,418</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H1017" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>172,919</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>188,35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>94,96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>40,16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>1697,27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>85,12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>172,919</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>188,35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>94,96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>40,16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>1697,27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>85,12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>147,969</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>157,424</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>47,5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>12,002</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>241,996</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>3,714</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>34,98</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>34,98</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>34,98</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>34,98</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>66,72</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>147,3</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>244,65</t>
+          <t>71,4</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -55418,7 +55418,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr"/>
@@ -56216,7 +56216,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>86,73</t>
+          <t>46,53</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,17 +61222,17 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 2"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,2026 +61778,10 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1614">
-      <c r="A1614" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1614" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1614" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1614" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1614" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
-        </is>
-      </c>
-      <c r="F1614" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1614" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1614" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1615">
-      <c r="A1615" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1615" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1615" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1615" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1615" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, DIAM 2"</t>
-        </is>
-      </c>
-      <c r="F1615" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1615" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1615" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1616">
-      <c r="A1616" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1616" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1616" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1616" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1616" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 1"</t>
-        </is>
-      </c>
-      <c r="F1616" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1616" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, DIAM 3/4"</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1617" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H1618" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, TRUNNION BALL, API 6D, A216 GR.WCB, CL 1500, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS SS316, SEAT INSERTS NYLON, API 607, LO</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1619" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2 ", S-40</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H1620" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1621" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6 ", S-40</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1622" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1623" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 2"</t>
-        </is>
-      </c>
-      <c r="F1623" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1623" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 6"</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H1624" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 1500 LB RAISED FACE FORGED ASTM A105, 1 1/2 "</t>
-        </is>
-      </c>
-      <c r="F1625" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1625" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 1500 LB RAISED FACE FORGED ASTM A105, 3/4 "</t>
-        </is>
-      </c>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
-        </is>
-      </c>
-      <c r="F1627" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H1627" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
-        </is>
-      </c>
-      <c r="F1628" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X70MMLG</t>
-        </is>
-      </c>
-      <c r="F1629" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H1629" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X75MMLG</t>
-        </is>
-      </c>
-      <c r="F1630" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1630" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
-        </is>
-      </c>
-      <c r="F1631" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H1631" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X140MMLG</t>
-        </is>
-      </c>
-      <c r="F1632" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 900, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="F1633" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1633" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, DIAM 3/4"</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 1500, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS04/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 1 "</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3/4 "</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 "</t>
-        </is>
-      </c>
-      <c r="F1641" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1641" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2"</t>
-        </is>
-      </c>
-      <c r="F1642" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1642" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
-        </is>
-      </c>
-      <c r="F1643" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1643" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3 "</t>
-        </is>
-      </c>
-      <c r="F1644" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1644" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 6 </t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 900, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1646" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GLOBE VALVE SW, API 602, API 598, A105, CL 1500, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1 ", S-80</t>
-        </is>
-      </c>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-80</t>
-        </is>
-      </c>
-      <c r="F1649" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1 ", S-80</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4 ", S-80</t>
-        </is>
-      </c>
-      <c r="F1651" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1651" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, PE, ASTM A333 GR. 6, ASME B36.10, DIAM. 1 1/2"</t>
-        </is>
-      </c>
-      <c r="F1652" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE, SCH 80, SMLS, PE, ASTM A333 GR. 6, ASME B36.10, DIAM. 3/4"</t>
-        </is>
-      </c>
-      <c r="F1653" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 1 "</t>
-        </is>
-      </c>
-      <c r="F1654" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 3/4 "</t>
-        </is>
-      </c>
-      <c r="F1655" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 1 "</t>
-        </is>
-      </c>
-      <c r="F1656" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1656" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 3/4 "</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8 " X 3/4 "</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 40 X SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 2"X1 1/2"</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 1500#, SCH 80, RF, ASTM A-105, ASME B16.5 2"</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
-        </is>
-      </c>
-      <c r="F1661" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1661" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1613"/>
+  <dimension ref="A1:H1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H310" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -20610,7 +20610,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H531" t="inlineStr"/>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H684" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>327</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>49,509</t>
+          <t>61,293</t>
         </is>
       </c>
       <c r="H986" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>41,52</t>
+          <t>45,28</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>273,11</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>241,55</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>469,84</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>615,84</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2097,65</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>565,98</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>273,11</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>241,55</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>469,84</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>615,84</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2097,65</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>565,98</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25,668</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62,388</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>144,13</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80,67</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1243,647</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>224,85</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>123,53</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>123,53</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>123,53</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>123,53</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>66,72</t>
+          <t>197,28</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>131,4</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>71,4</t>
+          <t>805,35</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57356,7 +57356,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>46,53</t>
+          <t>184,17</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2 ", S-80</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,17 +61264,17 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 3 ", S-30</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,17 +61306,17 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4 ", S-30</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6 ", S-40</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,17 +61390,17 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8 ", S-20</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 3"</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,7 +61474,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 4"</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
@@ -61484,7 +61484,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X85MMLG</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>268</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 6"</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 2"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,20 +61768,1952 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 6"</t>
+        </is>
+      </c>
+      <c r="F1613" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1613" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1613" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F1613" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1613" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H1613" t="inlineStr">
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 30 X SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 3"X2"</t>
+        </is>
+      </c>
+      <c r="F1614" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1614" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1615" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1615" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
+        </is>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1615" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1615" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1616" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1616" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 1-1/2"</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1616" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2"</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1618" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 3"</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H1621" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1622" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 2"</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1623" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 3"</t>
+        </is>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1624" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 4"</t>
+        </is>
+      </c>
+      <c r="F1625" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
+        </is>
+      </c>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1"</t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1-1/2"</t>
+        </is>
+      </c>
+      <c r="F1629" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1629" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1/2"</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H1630" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1631" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1632" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
+        </is>
+      </c>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1½ ", S-160</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1 ", S-80</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H1635" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1-1/2 ", S-80</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, CLASS 3000, SW, ASTM A105, ASME B.16.11, DIAM. 1-1/2"X3/4"</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 3"</t>
+        </is>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 1½ "</t>
+        </is>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1 "</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1½ "</t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 3 " X 1/2 "</t>
+        </is>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5, 1 1/2"</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1"X1/2"</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 2"X1-1/2"</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 2 " X 1/2 "</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6 " X 1/2 "</t>
+        </is>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 3 ", S-30</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-30</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-20</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2 ", S-40 X S-80</t>
+        </is>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2 ", S-40 X S-30</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 2-1/2" </t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2”</t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1659"/>
+  <dimension ref="A1:H1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -12212,7 +12212,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H310" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -20610,7 +20610,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H531" t="inlineStr"/>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H684" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>273,11</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>241,55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>469,84</t>
+          <t>135,57</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>615,84</t>
+          <t>1492,55</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>2097,65</t>
+          <t>254,46</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>565,98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -39724,7 +39724,7 @@
       </c>
       <c r="G1034" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>729,84</t>
         </is>
       </c>
       <c r="H1034" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>273,11</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>241,55</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>469,84</t>
+          <t>135,57</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>615,84</t>
+          <t>1492,55</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>2097,65</t>
+          <t>254,46</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>565,98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -40788,7 +40788,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>729,84</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>25,668</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>62,388</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>144,13</t>
+          <t>1,628</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>80,67</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1243,647</t>
+          <t>0,604</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>224,85</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43144,7 +43144,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,715</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>123,53</t>
+          <t>62,57</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>123,53</t>
+          <t>62,57</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>123,53</t>
+          <t>62,57</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>123,53</t>
+          <t>62,57</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>197,28</t>
+          <t>555,6</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>131,4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>805,35</t>
+          <t>468,3</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57356,7 +57356,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>184,17</t>
+          <t>78,76</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,17 +61222,17 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2 ", S-80</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,17 +61264,17 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 3 ", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 12", S-30</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,17 +61306,17 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4 ", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6 ", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8 ", S-20</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 12 ", S-30</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 3"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4 ", S-40</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,12 +61516,12 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6 ", S-40</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X85MMLG</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 12 "</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 3 "</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 12 "</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 6"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12 " X 1 "</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12 " X 1/2 "</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 6"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12 " X 3/4 "</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 30 X SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 3"X2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4 " X 3/4 "</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 3/4 "</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 1-1/2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 12"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2"</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 3 ", S-30 X S-40</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,1774 +61946,10 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2-1/2"</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1618" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 3"</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H1619" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="H1620" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="H1621" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1622" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1623" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 2"</t>
-        </is>
-      </c>
-      <c r="F1623" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1623" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 3"</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1624" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 4"</t>
-        </is>
-      </c>
-      <c r="F1625" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1625" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
-        </is>
-      </c>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
-        </is>
-      </c>
-      <c r="F1627" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1627" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1"</t>
-        </is>
-      </c>
-      <c r="F1628" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1-1/2"</t>
-        </is>
-      </c>
-      <c r="F1629" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1629" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1/2"</t>
-        </is>
-      </c>
-      <c r="F1630" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="H1630" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
-        </is>
-      </c>
-      <c r="F1631" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1631" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
-        </is>
-      </c>
-      <c r="F1632" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
-        </is>
-      </c>
-      <c r="F1633" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1633" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1½ ", S-160</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1 ", S-80</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1-1/2 ", S-80</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, CLASS 3000, SW, ASTM A105, ASME B.16.11, DIAM. 1-1/2"X3/4"</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 3"</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2 " X 1½ "</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1 "</t>
-        </is>
-      </c>
-      <c r="F1641" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1641" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1½ "</t>
-        </is>
-      </c>
-      <c r="F1642" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1642" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 3 " X 1/2 "</t>
-        </is>
-      </c>
-      <c r="F1643" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1643" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5, 1 1/2"</t>
-        </is>
-      </c>
-      <c r="F1644" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1644" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1"X1/2"</t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 2"X1-1/2"</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1646" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
-        </is>
-      </c>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 2 " X 1/2 "</t>
-        </is>
-      </c>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6 " X 1/2 "</t>
-        </is>
-      </c>
-      <c r="F1649" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 3 ", S-30</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-30</t>
-        </is>
-      </c>
-      <c r="F1651" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H1651" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-20</t>
-        </is>
-      </c>
-      <c r="F1652" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2 ", S-40 X S-80</t>
-        </is>
-      </c>
-      <c r="F1653" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2 ", S-40 X S-30</t>
-        </is>
-      </c>
-      <c r="F1654" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 2-1/2" </t>
-        </is>
-      </c>
-      <c r="F1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
-        </is>
-      </c>
-      <c r="F1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1656" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2”</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H1659" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1617"/>
+  <dimension ref="A1:H1628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -10160,7 +10160,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>11,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -37862,7 +37862,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>41,777</t>
         </is>
       </c>
       <c r="H985" t="inlineStr"/>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>61,293</t>
+          <t>50,886</t>
         </is>
       </c>
       <c r="H986" t="inlineStr"/>
@@ -37938,7 +37938,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>28,014</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>45,28</t>
+          <t>146,56099999999998</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>821,582</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -38052,7 +38052,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>116,204</t>
         </is>
       </c>
       <c r="H990" t="inlineStr"/>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>55,00</t>
+          <t>292,8</t>
         </is>
       </c>
       <c r="H1017" t="inlineStr"/>
@@ -39116,7 +39116,7 @@
       </c>
       <c r="G1018" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>454,00</t>
         </is>
       </c>
       <c r="H1018" t="inlineStr"/>
@@ -39154,7 +39154,7 @@
       </c>
       <c r="G1019" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>506,00</t>
         </is>
       </c>
       <c r="H1019" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>135,57</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>1492,55</t>
+          <t>198,96</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>254,46</t>
+          <t>4202,570000000001</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>582,4300000000001</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -39724,7 +39724,7 @@
       </c>
       <c r="G1034" t="inlineStr">
         <is>
-          <t>729,84</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H1034" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>135,57</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>1492,55</t>
+          <t>198,96</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>254,46</t>
+          <t>4202,570000000001</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>582,4300000000001</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -40788,7 +40788,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>729,84</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>1,628</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>0,604</t>
+          <t>81,64</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43144,7 +43144,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>2,715</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>62,57</t>
+          <t>156,37</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>62,57</t>
+          <t>156,37</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>62,57</t>
+          <t>156,37</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>62,57</t>
+          <t>156,37</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>555,6</t>
+          <t>172,8</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>468,3</t>
+          <t>962,325</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>78,76</t>
+          <t>153,01</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 12", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2 ", S-30</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 12 ", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4 ", S-30</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6 ", S-40</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>127,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,7 +61474,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8 ", S-20</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
@@ -61484,7 +61484,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>13,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,17 +61516,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6 ", S-40</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 12 "</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 3 "</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 12 "</t>
+          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12 " X 1 "</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12 " X 1/2 "</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12 " X 3/4 "</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4 " X 3/4 "</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 3/4 "</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 12"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 3/4 ", S-160</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 3 ", S-30 X S-40</t>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61950,6 +61950,468 @@
         </is>
       </c>
       <c r="H1617" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1½ ", S-160</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1618" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 3/4 ", S-160</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH20 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 4"</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1621" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1-1/2"X1"</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1622" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6 " X 1/2 "</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1623" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-30</t>
+        </is>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1624" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-20</t>
+        </is>
+      </c>
+      <c r="F1625" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2 ", S-40 X S-30</t>
+        </is>
+      </c>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 2-1/2" </t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>15,28</t>
+        </is>
+      </c>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2”</t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="H1628" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -38052,7 +38052,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>116,204</t>
+          <t>116,20400000000001</t>
         </is>
       </c>
       <c r="H990" t="inlineStr"/>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>25,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H686" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>200,00</t>
+          <t>80,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>146,56099999999998</t>
+          <t>146,561</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38052,7 +38052,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>116,20400000000001</t>
+          <t>116,204</t>
         </is>
       </c>
       <c r="H990" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>93,24</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>198,96</t>
+          <t>317,71</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>4202,570000000001</t>
+          <t>461,27</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>582,4300000000001</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -39724,7 +39724,7 @@
       </c>
       <c r="G1034" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1034" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>93,24</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>198,96</t>
+          <t>317,71</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>4202,570000000001</t>
+          <t>461,27</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>582,4300000000001</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -40788,7 +40788,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>22,98</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,945</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,616</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>204,428</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>81,64</t>
+          <t>266,1</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -44018,7 +44018,7 @@
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>156,37</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>156,37</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>156,37</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>156,37</t>
+          <t>15,84</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>172,8</t>
+          <t>548,4</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>34,8</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>962,325</t>
+          <t>120,225</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57394,7 +57394,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>153,01</t>
+          <t>47,74</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1/2 "</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2 ", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,17 +61390,17 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4 ", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6 ", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>127,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8 ", S-20</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,17 +61600,17 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,17 +61642,17 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4 ", S-40</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>13,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,17 +61684,17 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6 ", S-40</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>84,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
+          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 3"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8, 1/2"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 4"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,7 +61978,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1½ ", S-160</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1/2"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-80</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,17 +62104,17 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH20 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2 ", S-80</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,17 +62146,17 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1-1/2"X1"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4 ", S-80</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,7 +62188,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6 " X 1/2 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1/2 "</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-30</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4 " X 3/4 "</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-20</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 3/4 "</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2 ", S-40 X S-30</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 2"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,17 +62356,17 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 2-1/2" </t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2”</t>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1628"/>
+  <dimension ref="A1:H1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H686" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -37862,7 +37862,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>41,777</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H985" t="inlineStr"/>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>50,886</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H986" t="inlineStr"/>
@@ -37938,7 +37938,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>28,014</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>146,561</t>
+          <t>60,85</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>821,582</t>
+          <t>337,956</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -38052,7 +38052,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>116,204</t>
+          <t>555,298</t>
         </is>
       </c>
       <c r="H990" t="inlineStr"/>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>292,8</t>
+          <t>322,00</t>
         </is>
       </c>
       <c r="H1017" t="inlineStr"/>
@@ -39116,7 +39116,7 @@
       </c>
       <c r="G1018" t="inlineStr">
         <is>
-          <t>454,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1018" t="inlineStr"/>
@@ -39154,7 +39154,7 @@
       </c>
       <c r="G1019" t="inlineStr">
         <is>
-          <t>506,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1019" t="inlineStr"/>
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>19,75</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39496,7 +39496,7 @@
       </c>
       <c r="G1028" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1028" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>93,24</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>317,71</t>
+          <t>275,21</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>461,27</t>
+          <t>4212,77</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>582,43</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -39724,7 +39724,7 @@
       </c>
       <c r="G1034" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H1034" t="inlineStr"/>
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>19,75</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -40598,7 +40598,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>93,24</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>317,71</t>
+          <t>275,21</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>461,27</t>
+          <t>4212,77</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>582,43</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -40788,7 +40788,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>22,98</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>1,945</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>7,616</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>204,428</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>266,1</t>
+          <t>772,64</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>114,2</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -44018,7 +44018,7 @@
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>164,01</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>164,01</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>164,01</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>164,01</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>548,4</t>
+          <t>181,44</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>34,8</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>120,225</t>
+          <t>983,325</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57394,7 +57394,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>47,74</t>
+          <t>180,33</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1/2 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2 ", S-30</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,17 +61390,17 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4 ", S-30</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>17,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6 ", S-40</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>127,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8 ", S-20</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>13,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,17 +61600,17 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3 ", S-40</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,17 +61642,17 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4 ", S-40</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 6"</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,17 +61684,17 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6 ", S-40</t>
+          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 3"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8, 1/2"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 4"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,7 +61978,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
+          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1/2"</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-80</t>
+          <t>SUMINISTRO DE ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,17 +62104,17 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2 ", S-80</t>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,17 +62146,17 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4 ", S-80</t>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1½ ", S-160</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,7 +62188,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3 " X 1/2 "</t>
+          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 3/4 ", S-160</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
@@ -62198,7 +62198,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4 " X 3/4 "</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6 " X 3/4 "</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH20 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 4"</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 2"</t>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6 " X 1/2 "</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62398,20 +62398,314 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-30</t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-20</t>
+        </is>
+      </c>
+      <c r="F1629" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1629" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2 ", S-40 X S-30</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1630" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 2-1/2" </t>
+        </is>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>15,28</t>
+        </is>
+      </c>
+      <c r="H1631" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1632" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
           <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
-      <c r="F1628" t="inlineStr">
+      <c r="F1633" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2”</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1635" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1635"/>
+  <dimension ref="A1:H1641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 1/2 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 1 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 1" DE ESPESOR</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 1 -1/2 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 1 -1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 2 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON PERLITA EXPANDIDA DE 2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 1/2 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 1 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 1" DE ESPESOR</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 1 -1/2 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 1 -1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 2 " DE ESPESOR</t>
+          <t>SUMINISTRO E INSTALACION DE AISLAMIENTO TÉRMICO DE EQUIPOS CON FIBRA DE VIDRIO DE 2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MONTAJE DE HIDRANTE-MONITOR PARA Ø DE 2 " HASTA 4 "</t>
+          <t>MONTAJE DE HIDRANTE-MONITOR PARA Ø DE 2" HASTA 4"</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MONTAJE DE HIDRANTE-MONITOR PARA Ø DE 6 " HASTA 8 "</t>
+          <t>MONTAJE DE HIDRANTE-MONITOR PARA Ø DE 6" HASTA 8"</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 8 ", S-20</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 8", S-20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2", S-40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 2 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 2", S-40</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3", S-40</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 4 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 4", S-40</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 6 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 6", S-40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 8 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 8", S-40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1 ", S-160</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-160</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-160</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.19 BE SEAMLESS ASTM A312 TP 316, 2 ", S-10S</t>
+          <t>SUMINISTRO DE PIPE ASME B36.19 BE SEAMLESS ASTM A312 TP 316, 2", S-10S</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM A312 TP 316, 1/2 ", S-160</t>
+          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM A312 TP 316, 1/2", S-160</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 3 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 3", S-40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 4 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 4", S-40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 2 ", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 2", S-80</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 6 ", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.19 PE SEAMLESS ASTM API 5L GR. B ASME B36.10 PSL2 6", S-80</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1/2"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONCENTRIC SWAGE, SCH 40 X CLASS 3000, BW X MTH, ASTM A234 GR. WPB, MSS SP-97. DIAMETRO DE 2 1/2"X1 1/2"</t>
+          <t>SUMINISTRO DE CONCENTRIC SWAGE, SCH 40 X CLASS 3000, BW X MTH, ASTM A234 GR. WPB, MSS SP-97. DIAMETRO DE 2-1/2"X1-1/2"</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONCENTRIC REDUCER, SCH 40 X SCH 40, BW, ASTM A234 GR. WPB, ASME B16.9. DIAMETRO DE 3"X2 1/2"</t>
+          <t>SUMINISTRO DE CONCENTRIC REDUCER, SCH 40 X SCH 40, BW, ASTM A234 GR. WPB, ASME B16.9. DIAMETRO DE 3"X2-1/2"</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONCENTRIC REDUCER, SCH 40 X SCH 40, BW, ASTM A234 GR. WPB, ASME B16.9, 3"X2 1/2"</t>
+          <t>SUMINISTRO DE CONCENTRIC REDUCER, SCH 40 X SCH 40, BW, ASTM A234 GR. WPB, ASME B16.9, 3"X2-1/2"</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1/2"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 3"X1 1/2"</t>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 3"X1-1/2"</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1/2"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1/2"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1/2"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X1/2"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1 ", </t>
+          <t xml:space="preserve">SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1", </t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1½ "</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105,  2 "</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105,  2"</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1 ", </t>
+          <t xml:space="preserve">SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1", </t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000## FORGED ASTM A105, 1½ "</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000## FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105,  2 "</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105,  2"</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6806,7 +6806,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-STD</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-STD</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-STD</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6920,7 +6920,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-STD</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8", S-STD</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-80</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-80</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-80</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8", S-80</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-160</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-160</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-160</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8", S-160</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 2 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 2", S-STD</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 3 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 3", S-STD</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 4 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 4", S-STD</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7414,7 +7414,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 6 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 6", S-STD</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 8 ", S-STD</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 8", S-STD</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7490,7 +7490,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 2 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 2", S-80</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 4 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 4", S-80</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 6 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 6", S-80</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 8 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 8", S-80</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 10 ", S-80</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 10", S-80</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7680,7 +7680,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 2 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 2", S-160</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 4 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 4", S-160</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 6 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 6", S-160</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 8 ", S-160</t>
+          <t>SUMINISTRO DE 45 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A860 GR. WPB, 8", S-160</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7832,7 +7832,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105 GALVANIZED AS PER ASTM A153 CL. B, 1+1/4 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105 GALVANIZED AS PER ASTM A153 CL. B, 1+1/4"</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 FTH 3000# FORGED ASTM A105 GALVANIZED AS PER ASTM A153 CL. B, 3/4 ", </t>
+          <t xml:space="preserve">SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 FTH 3000# FORGED ASTM A105 GALVANIZED AS PER ASTM A153 CL. B, 3/4", </t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1"</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1½ "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8022,7 +8022,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105,  2 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105,  2"</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105,  1 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105,  1"</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1½ "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105,  2 "</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105,  2"</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2 ", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-STD</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3 ", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-STD</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4 ", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-STD</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6 ", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-STD</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8 ", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8", S-STD</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 90°, CLASS 3000, SW, ASTM A-105, ASME B16.11 1/2"</t>
+          <t>SUMINISTRO DE ELBOW 90°, CLASS 3000, SW, ASTM A-105, ASME B16.11-1/2"</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2 ", S-80</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-80</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4 ", S-80</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-80</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6 ", S-80</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-80</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8 ", S-80</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8", S-80</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8782,7 +8782,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2 ", S-160</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-160</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8820,7 +8820,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4 ", S-160</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-160</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6 ", S-160</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-160</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8 ", S-160</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 8", S-160</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE ENDEND ASME B16.11 SW 3000# FORGED ASTM A105, 1 "</t>
+          <t>SUMINISTRO DE TEE ENDEND ASME B16.11 SW 3000# FORGED ASTM A105, 1"</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE ENDASME B16.11 SW 3000# FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE TEE ENDASME B16.11 SW 3000# FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -9010,7 +9010,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105, 1½ "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  2 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  2"</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  4 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  4"</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  6 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  6"</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  8 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 3000# FORGED ASTM A105,  8"</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE ENDEND ASME B16.11 SW 6000 FORGED ASTM A105, 1 "</t>
+          <t>SUMINISTRO DE TEE ENDEND ASME B16.11 SW 6000 FORGED ASTM A105, 1"</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9238,7 +9238,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE ENDASME B16.11 SW 6000 FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE TEE ENDASME B16.11 SW 6000 FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9276,7 +9276,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000 FORGED ASTM A105, 1½ "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000 FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9314,7 +9314,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  2 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  2"</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  4 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  4"</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  6 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  6"</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  8 "</t>
+          <t>SUMINISTRO DE TEE END ASME B16.11 SW 6000# FORGED ASTM A105,  8"</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 3"X 1 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 3"X 1-1/2"</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 2"X 1 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 2"X 1-1/2"</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 1"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 1"</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 3/4"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 3/4"</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 1/2"</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 3"X 1 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 3"X 1-1/2"</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 2"X 1 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 2"X 1-1/2"</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -11062,7 +11062,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 1"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 1"</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -11100,7 +11100,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 3/4"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 3/4"</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 1/2"</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 3"X 1 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 3"X 1-1/2"</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -11632,7 +11632,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 2"X 1 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 2"X 1-1/2"</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -11746,7 +11746,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 1"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 1"</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 3/4"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 3/4"</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1 1/2"X 1/2"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 160, BW, ASTM A-234 GR WPB, ASME B16.9 1-1/2"X 1/2"</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB FLAT FACE FORGED ASTM A105, 2 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB FLAT FACE FORGED ASTM A105, 2"</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -12240,7 +12240,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 2 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 2"</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 4"</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -12354,7 +12354,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 6 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 6"</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -12468,7 +12468,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 2 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 2"</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -12506,7 +12506,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 3 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 3"</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 4"</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -12582,7 +12582,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 6 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 6"</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A182 GR. F316, 1/2 ", </t>
+          <t xml:space="preserve">SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A182 GR. F316, 1/2", </t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -12696,7 +12696,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 2 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 2"</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A694, 2 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A694, 2"</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -12810,7 +12810,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 4"</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 6 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 600 LB RAISED FACE FORGED ASTM A105, 6"</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -12924,7 +12924,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 3/4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 3/4"</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 2 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 2"</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -13000,7 +13000,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 4 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 4"</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 6 "</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 900 LB RAISED FACE FORGED ASTM A105, 6"</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -14976,7 +14976,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE, SW, 1500#, RF, ASTM A-105, ASME B16.5 1 1/2"</t>
+          <t>SUMINISTRO DE FLANGE, SW, 1500#, RF, ASTM A-105, ASME B16.5 1-1/2"</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 MTH SEAMLESS ASTM A53 GR. B GALVANIZED, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 MTH SEAMLESS ASTM A53 GR. B GALVANIZED, 3/4", S-160</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -15508,7 +15508,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-160</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1/2 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1/2", S-160</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1½ ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1-1/2", S-160</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-160</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.19 PE SEAMLESS ASTM A312 TP 316, 1/2 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.19 PE SEAMLESS ASTM A312 TP 316, 1/2", S-160</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.19 PE SEAMLESS ASTM A312 TP 316, 3/4 ", S-80S</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.19 PE SEAMLESS ASTM A312 TP 316, 3/4", S-80S</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.19 PE X MTH SEAMLESS ASTM A312 TP 316, 1/2 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.19 PE X MTH SEAMLESS ASTM A312 TP 316, 1/2", S-160</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 200 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 200 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-160</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 150 MM ASME B36.10 MTH SEAMLESS ASTM A53 GR. B GALVANIZED, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 150 MM ASME B36.10 MTH SEAMLESS ASTM A53 GR. B GALVANIZED, 3/4", S-160</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 3/4", S-160</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -16116,7 +16116,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 1/2 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 1/2", S-160</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 1½ ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 1-1/2", S-160</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
@@ -16192,7 +16192,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, 1 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, 1", S-160</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, ½ ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, ½", S-160</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, 3/4", S-160</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -16306,7 +16306,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 1 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 1500 LB RING JOINT FORGED ASTM A105, 1", S-160</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A182 GR. F316, 1/2 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A182 GR. F316, 1/2", S-160</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
@@ -16382,7 +16382,7 @@
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, 1+1/2 ", S-160</t>
+          <t>SUMINISTRO DE SOCKETWELD FLANGE ASME B16.5 FLG X SW 600 LB RAISED FACE FORGED ASTM A105, 1+1/2", S-160</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
@@ -16420,7 +16420,7 @@
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 150, RF, ASTM A105, ASME B16.5, 1 1/2"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 150, RF, ASTM A105, ASME B16.5, 1-1/2"</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16534,7 +16534,7 @@
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105,30"- 2 " X 1 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105,30"- 2" X 1"</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
@@ -16572,7 +16572,7 @@
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-2 " X 1/2 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-2" X 1/2"</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
@@ -16610,7 +16610,7 @@
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-2 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-2" X 3/4"</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-3 " X 1½ "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-3" X 1-1/2"</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -16686,7 +16686,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-4 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-4" X 3/4"</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -16724,7 +16724,7 @@
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-8 " X 1/2 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-8" X 1/2"</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-8 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 30"-8" X 3/4"</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
@@ -16800,7 +16800,7 @@
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-2" X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-2" X 3/4"</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
@@ -16838,7 +16838,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-2 " X 1/2 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-2" X 1/2"</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-2 " X 1 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-2" X 1"</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-3 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-3" X 3/4"</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
@@ -16952,7 +16952,7 @@
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-4 " X 1 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-4" X 1"</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
@@ -16990,7 +16990,7 @@
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-4 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-4" X 3/4"</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
@@ -17028,7 +17028,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-6 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-6" X 3/4"</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A182 GR. F316, 2 " X 3/4 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A182 GR. F316, 2" X 3/4"</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -17104,7 +17104,7 @@
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-3" X 1+1/2 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 30"-3" X 1+1/2"</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
@@ -17142,7 +17142,7 @@
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 2 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 2"</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
@@ -17180,7 +17180,7 @@
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 4 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 4"</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
@@ -17218,7 +17218,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 2 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 2"</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -17256,7 +17256,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 4 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 4"</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -17294,7 +17294,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 6 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 6"</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
@@ -17332,7 +17332,7 @@
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 8 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 8"</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 2 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 2"</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 4 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 4"</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -17446,7 +17446,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 2 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 2"</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 4 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 4"</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 6 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 6"</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
@@ -17560,7 +17560,7 @@
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 8 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 300 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 8"</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
@@ -17598,7 +17598,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 2 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 2"</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 4 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB FLAT FACE FROM PLATE ASTM A516 GRADE 70, 4"</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 2 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 2"</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 4 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 4"</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
@@ -17750,7 +17750,7 @@
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 6 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 6"</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 8 "</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 600 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 8"</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -17826,7 +17826,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3/4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3/4"</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1"</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
@@ -17940,7 +17940,7 @@
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 2"</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
@@ -17978,7 +17978,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3"</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -18016,7 +18016,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 4"</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 6 </t>
+          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 6 </t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
@@ -18092,7 +18092,7 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 8"</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
@@ -18130,7 +18130,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3/4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3/4"</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H466" t="inlineStr"/>
@@ -18168,7 +18168,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1"</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -18206,7 +18206,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 2"</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -18282,7 +18282,7 @@
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3"</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -18292,7 +18292,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H470" t="inlineStr"/>
@@ -18320,7 +18320,7 @@
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 4"</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -18358,7 +18358,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 6 </t>
+          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 6 </t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -18396,7 +18396,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 8"</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H473" t="inlineStr"/>
@@ -18434,7 +18434,7 @@
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC CG, 1/8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC CG, 1/8"</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -18472,7 +18472,7 @@
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3/4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3/4"</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1"</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -18548,7 +18548,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -18586,7 +18586,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 2"</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -18624,7 +18624,7 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 4"</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 6" </t>
+          <t xml:space="preserve">SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 6" </t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 600 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 8"</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC CG, 1/8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC CG, 1/8"</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -18776,7 +18776,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3/4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3/4"</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -18814,7 +18814,7 @@
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1"</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -18852,7 +18852,7 @@
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -18890,7 +18890,7 @@
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 2 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 2"</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -18928,7 +18928,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 3"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 3"</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -18966,7 +18966,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 4 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 4"</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -19004,7 +19004,7 @@
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 6"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 6"</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 900 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 8"</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC CG, 1/8 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC CG, 1/8"</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -19118,7 +19118,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8 " THK, 1 1/2 "</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 1500 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -19194,7 +19194,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE JUNTA RTJ GASKET ASME B16.20 _ 600 LB _ 304 SS / THK, 1 1/2"</t>
+          <t>SUMINISTRO DE JUNTA RTJ GASKET ASME B16.20 _ 600 LB _ 304 SS / THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE JUNTA RTJ GASKET ASME B16.20 _ 900 LB _ 304 SS / THK, 1 1/2"</t>
+          <t>SUMINISTRO DE JUNTA RTJ GASKET ASME B16.20 _ 900 LB _ 304 SS / THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -19726,7 +19726,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE JUNTA RTJ GASKET ASME B16.20 _ 1500 LB _ 304 SS / THK, 1 1/2"</t>
+          <t>SUMINISTRO DE JUNTA RTJ GASKET ASME B16.20 _ 1500 LB _ 304 SS / THK, 1-1/2"</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2", S-40</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -20030,7 +20030,7 @@
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-40</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -20068,7 +20068,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 6 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 6", S-40</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>25,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -20106,7 +20106,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-40</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -20144,7 +20144,7 @@
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 2 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 2", S-40</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -20182,7 +20182,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 4 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 4", S-40</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -20220,7 +20220,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 6 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 6", S-40</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 8 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 8", S-40</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 2 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 2", S-40</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -20334,7 +20334,7 @@
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 4 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 4", S-40</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 6 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 6", S-40</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 8 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 8", S-40</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -20448,7 +20448,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 2 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 2", S-40</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -20486,7 +20486,7 @@
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 4 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 4", S-40</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -20524,7 +20524,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 6 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 6", S-40</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 8 ", S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 8", S-40</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -20600,7 +20600,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2", S-80</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -20638,7 +20638,7 @@
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-80</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 6 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 6", S-80</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -20714,7 +20714,7 @@
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-80</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -20752,7 +20752,7 @@
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 2 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 2", S-80</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 4 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 4", S-80</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -20828,7 +20828,7 @@
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 6 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 6", S-80</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -20866,7 +20866,7 @@
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 2 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 2", S-80</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 4 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 4", S-80</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 6 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 6", S-80</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -20980,7 +20980,7 @@
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 8 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 8", S-80</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -21018,7 +21018,7 @@
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 2 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 2", S-80</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 4 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 4", S-80</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -21094,7 +21094,7 @@
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 6 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 6", S-80</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -21132,7 +21132,7 @@
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 8 ", S-80</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 8", S-80</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2", S-160</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-160</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 6 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 6", S-160</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -21284,7 +21284,7 @@
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-160</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -21322,7 +21322,7 @@
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 2 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 2", S-160</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -21360,7 +21360,7 @@
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 4 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 4", S-160</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 6 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 6", S-160</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 8 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 300 LB FLAT FACE FORGED ASTM A105, 8", S-160</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -21474,7 +21474,7 @@
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 2 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 2", S-160</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -21512,7 +21512,7 @@
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 4 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 4", S-160</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -21550,7 +21550,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 6 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 6", S-160</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 8 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 900 LB FLAT FACE FORGED ASTM A105, 8", S-160</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -21626,7 +21626,7 @@
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 2 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 2", S-160</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -21664,7 +21664,7 @@
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 4 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 4", S-160</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -21702,7 +21702,7 @@
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 6 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 6", S-160</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 8 ", S-160</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 1500 LB FLAT FACE FORGED ASTM A105, 8", S-160</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -21778,7 +21778,7 @@
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-40 X S-40</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -21816,7 +21816,7 @@
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 4 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 4", S-40 X S-40</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6 " X 4 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 4", S-40 X S-40</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -21892,7 +21892,7 @@
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3", S-40 X S-40</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2", S-40 X S-40</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -21968,7 +21968,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 1 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 1", S-40 X S-40</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3/4 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3/4", S-40 X S-40</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6 " X 4 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 4", S-80 X S-80</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -22082,7 +22082,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3", S-80 X S-80</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -22120,7 +22120,7 @@
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2", S-80 X S-80</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -22158,7 +22158,7 @@
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 1 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 1", S-80 X S-80</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -22196,7 +22196,7 @@
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3/4 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3/4", S-80 X S-80</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6 " X 4 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 4", S-160 X S-160</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3", S-160 X S-160</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -22310,7 +22310,7 @@
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2", S-160 X S-160</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -22348,7 +22348,7 @@
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 1 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 1", S-160 X S-160</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -22386,7 +22386,7 @@
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3/4 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 3/4", S-160 X S-160</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -22424,7 +22424,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 3 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 3", S-40 X S-40</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -22462,7 +22462,7 @@
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 2 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 2", S-40 X S-40</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -22500,7 +22500,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 1 ", S-40 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 1", S-40 X S-40</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -22538,7 +22538,7 @@
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 3 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 3", S-80 X S-80</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -22576,7 +22576,7 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 2 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 2", S-80 X S-80</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -22614,7 +22614,7 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 1 ", S-80 X S-80</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 1", S-80 X S-80</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 3 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 3", S-160 X S-160</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -22690,7 +22690,7 @@
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 2 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 2", S-160 X S-160</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -22728,7 +22728,7 @@
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 1 ", S-160 X S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 4" X 1", S-160 X S-160</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BUSHING RED, THRD_ENG X SW, 6000LB, ASTM A105 1 1/2"X3/4"</t>
+          <t>SUMINISTRO DE BUSHING RED, THRD_ENG X SW, 6000LB, ASTM A105 1-1/2"X3/4"</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -23260,7 +23260,7 @@
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 6000, THRDXMNPT, ASTM A-105, ASME B16.11 1/2"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 6000, THRDXMNPT, ASTM A-105, ASME B16.11-1/2"</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 1/2" . </t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -23412,7 +23412,7 @@
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 3/4 " .</t>
+          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 3/4" .</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 1" . </t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -23488,7 +23488,7 @@
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -23526,7 +23526,7 @@
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 2 " .</t>
+          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 2" .</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -23564,7 +23564,7 @@
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 3" . </t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -23602,7 +23602,7 @@
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 4" . </t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -23640,7 +23640,7 @@
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 6" . </t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -23678,7 +23678,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 150# , 8" . </t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -23716,7 +23716,7 @@
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 1/2" . </t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -23754,7 +23754,7 @@
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 3/4 " .</t>
+          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 3/4" .</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -23792,7 +23792,7 @@
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 1" . </t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -23830,7 +23830,7 @@
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 2 " .</t>
+          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 2" .</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -23906,7 +23906,7 @@
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 3" . </t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 4" . </t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
@@ -23982,7 +23982,7 @@
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 6" . </t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
@@ -24020,7 +24020,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 300# , 8" . </t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -24058,7 +24058,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 1/2" . </t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -24096,7 +24096,7 @@
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 3/4 " .</t>
+          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 3/4" .</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -24134,7 +24134,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 1" . </t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -24172,7 +24172,7 @@
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -24210,7 +24210,7 @@
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 2 " .</t>
+          <t>SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 2" .</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 3" . </t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
@@ -24286,7 +24286,7 @@
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 4" . </t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -24324,7 +24324,7 @@
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 6" . </t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT FF, CLASS 600# , 8" . </t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -24400,7 +24400,7 @@
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 1/2" . </t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -24438,7 +24438,7 @@
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 3/4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 3/4" . </t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 1" . </t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -24552,7 +24552,7 @@
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 2" . </t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -24590,7 +24590,7 @@
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 3" . </t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -24628,7 +24628,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 4" . </t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -24666,7 +24666,7 @@
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 6" . </t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -24704,7 +24704,7 @@
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 150# , 8" . </t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -24742,7 +24742,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 1/2" . </t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -24780,7 +24780,7 @@
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 3/4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 3/4" . </t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -24818,7 +24818,7 @@
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 1" . </t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -24856,7 +24856,7 @@
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -24894,7 +24894,7 @@
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 2" . </t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -24932,7 +24932,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 3" . </t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -24970,7 +24970,7 @@
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 4" . </t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -25008,7 +25008,7 @@
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 6" . </t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 300# , 8" . </t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -25084,7 +25084,7 @@
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 1/2" . </t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -25122,7 +25122,7 @@
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 3/4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 3/4" . </t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 1" . </t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -25198,7 +25198,7 @@
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 2" . </t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -25274,7 +25274,7 @@
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 3" . </t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -25312,7 +25312,7 @@
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 4" . </t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
@@ -25350,7 +25350,7 @@
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 6" . </t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
@@ -25388,7 +25388,7 @@
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 600# , 8" . </t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -25426,7 +25426,7 @@
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 1/2" . </t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
@@ -25464,7 +25464,7 @@
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 3/4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 3/4" . </t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -25502,7 +25502,7 @@
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 1" . </t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -25540,7 +25540,7 @@
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -25578,7 +25578,7 @@
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 2" . </t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
@@ -25616,7 +25616,7 @@
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 3" . </t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -25654,7 +25654,7 @@
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 4" . </t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -25692,7 +25692,7 @@
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 6" . </t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
@@ -25730,7 +25730,7 @@
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 900# , 8" . </t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -25768,7 +25768,7 @@
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 1/2" . </t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -25806,7 +25806,7 @@
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 3/4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 3/4" . </t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 1 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 1" . </t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
@@ -25882,7 +25882,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 1 1/2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 1-1/2" . </t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -25920,7 +25920,7 @@
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 2 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 2" . </t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -25958,7 +25958,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 3 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 3" . </t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 4 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 4" . </t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -26034,7 +26034,7 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 6 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 6" . </t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -26072,7 +26072,7 @@
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 8 " . </t>
+          <t xml:space="preserve">SUMINISTRO DE INSULATION JOINT RF, CLASS 1500# , 8" . </t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -26110,7 +26110,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -26148,7 +26148,7 @@
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 2" </t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
@@ -26186,7 +26186,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 3" </t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
@@ -26224,7 +26224,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 4" </t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -26262,7 +26262,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 6" </t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -26300,7 +26300,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO GORRO DE BRUJA DE Ø 8" </t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -26338,7 +26338,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -26376,7 +26376,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 2" </t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -26414,7 +26414,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 3" </t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -26452,7 +26452,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 4" </t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
@@ -26490,7 +26490,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 6" </t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
@@ -26528,7 +26528,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 8" </t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -26566,7 +26566,7 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -26604,7 +26604,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 2" </t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
@@ -26642,7 +26642,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 3" </t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -26680,7 +26680,7 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 4" </t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
@@ -26718,7 +26718,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 6" </t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 300 DE Ø 8" </t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -26794,7 +26794,7 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -26832,7 +26832,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 2" </t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
@@ -26870,7 +26870,7 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 3" </t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
@@ -26908,7 +26908,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 4" </t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -26946,7 +26946,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 6" </t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -26984,7 +26984,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 600 DE Ø 8" </t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -27022,7 +27022,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -27060,7 +27060,7 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 2" </t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -27098,7 +27098,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 3" </t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
@@ -27136,7 +27136,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 4" </t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -27174,7 +27174,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 6" </t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -27212,7 +27212,7 @@
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 150 DE Ø 8" </t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -27288,7 +27288,7 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 2" </t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
@@ -27326,7 +27326,7 @@
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 3" </t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -27364,7 +27364,7 @@
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 4" </t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
@@ -27402,7 +27402,7 @@
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 6" </t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
@@ -27440,7 +27440,7 @@
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 300 DE Ø 8" </t>
         </is>
       </c>
       <c r="F711" t="inlineStr">
@@ -27478,7 +27478,7 @@
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F712" t="inlineStr">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 2" </t>
         </is>
       </c>
       <c r="F713" t="inlineStr">
@@ -27554,7 +27554,7 @@
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 3" </t>
         </is>
       </c>
       <c r="F714" t="inlineStr">
@@ -27592,7 +27592,7 @@
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 4" </t>
         </is>
       </c>
       <c r="F715" t="inlineStr">
@@ -27630,7 +27630,7 @@
       </c>
       <c r="E716" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 6" </t>
         </is>
       </c>
       <c r="F716" t="inlineStr">
@@ -27668,7 +27668,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 600 DE Ø 8" </t>
         </is>
       </c>
       <c r="F717" t="inlineStr">
@@ -27706,7 +27706,7 @@
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F718" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="E719" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 2" </t>
         </is>
       </c>
       <c r="F719" t="inlineStr">
@@ -27782,7 +27782,7 @@
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 3" </t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
@@ -27820,7 +27820,7 @@
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 4" </t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 6" </t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO T ANSI 900 DE Ø 8" </t>
         </is>
       </c>
       <c r="F723" t="inlineStr">
@@ -27934,7 +27934,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F724" t="inlineStr">
@@ -27972,7 +27972,7 @@
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 2" </t>
         </is>
       </c>
       <c r="F725" t="inlineStr">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 3" </t>
         </is>
       </c>
       <c r="F726" t="inlineStr">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 4" </t>
         </is>
       </c>
       <c r="F727" t="inlineStr">
@@ -28086,7 +28086,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 6" </t>
         </is>
       </c>
       <c r="F728" t="inlineStr">
@@ -28124,7 +28124,7 @@
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 150 DE Ø 8" </t>
         </is>
       </c>
       <c r="F729" t="inlineStr">
@@ -28162,7 +28162,7 @@
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
@@ -28200,7 +28200,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 2" </t>
         </is>
       </c>
       <c r="F731" t="inlineStr">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 3" </t>
         </is>
       </c>
       <c r="F732" t="inlineStr">
@@ -28276,7 +28276,7 @@
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 4" </t>
         </is>
       </c>
       <c r="F733" t="inlineStr">
@@ -28314,7 +28314,7 @@
       </c>
       <c r="E734" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 6" </t>
         </is>
       </c>
       <c r="F734" t="inlineStr">
@@ -28352,7 +28352,7 @@
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 300 DE Ø 8" </t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -28390,7 +28390,7 @@
       </c>
       <c r="E736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F736" t="inlineStr">
@@ -28428,7 +28428,7 @@
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 2" </t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
@@ -28466,7 +28466,7 @@
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 3" </t>
         </is>
       </c>
       <c r="F738" t="inlineStr">
@@ -28504,7 +28504,7 @@
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 4" </t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
@@ -28542,7 +28542,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 6" </t>
         </is>
       </c>
       <c r="F740" t="inlineStr">
@@ -28580,7 +28580,7 @@
       </c>
       <c r="E741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 600 DE Ø 8" </t>
         </is>
       </c>
       <c r="F741" t="inlineStr">
@@ -28618,7 +28618,7 @@
       </c>
       <c r="E742" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F742" t="inlineStr">
@@ -28656,7 +28656,7 @@
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 2 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 2" </t>
         </is>
       </c>
       <c r="F743" t="inlineStr">
@@ -28694,7 +28694,7 @@
       </c>
       <c r="E744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 3 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 3" </t>
         </is>
       </c>
       <c r="F744" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="E745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 4 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 4" </t>
         </is>
       </c>
       <c r="F745" t="inlineStr">
@@ -28770,7 +28770,7 @@
       </c>
       <c r="E746" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 6 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 6" </t>
         </is>
       </c>
       <c r="F746" t="inlineStr">
@@ -28808,7 +28808,7 @@
       </c>
       <c r="E747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 8 " </t>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO CANASTA ANSI 900 DE Ø 8" </t>
         </is>
       </c>
       <c r="F747" t="inlineStr">
@@ -29112,7 +29112,7 @@
       </c>
       <c r="E755" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 150#, RF, ASTM A-216 GR WCB, API 602,  API 598 1 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 150#, RF, ASTM A-216 GR WCB, API 602,  API 598 1-1/2"</t>
         </is>
       </c>
       <c r="F755" t="inlineStr">
@@ -29454,7 +29454,7 @@
       </c>
       <c r="E764" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 300#, RF, ASTM A-216 GR WCB, API 602,  API 598 1 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 300#, RF, ASTM A-216 GR WCB, API 602,  API 598 1-1/2"</t>
         </is>
       </c>
       <c r="F764" t="inlineStr">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 600#, RF, ASTM A-216 GR WCB, API 602,  API 598 1 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 600#, RF, ASTM A-216 GR WCB, API 602,  API 598 1-1/2"</t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
@@ -30100,7 +30100,7 @@
       </c>
       <c r="E781" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 900#, RF, ASTM A-216 GR WCB, API 602,  API 598 1 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 900#, RF, ASTM A-216 GR WCB, API 602,  API 598 1-1/2"</t>
         </is>
       </c>
       <c r="F781" t="inlineStr">
@@ -30442,7 +30442,7 @@
       </c>
       <c r="E790" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 1500#, RF, ASTM A-216 GR WCB, API 602,  API 598 1 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE, FLEX WEDGE, BB, OS&amp;Y, TRIM 8, GRAPHITE PACKING, HW, 1500#, RF, ASTM A-216 GR WCB, API 602,  API 598 1-1/2"</t>
         </is>
       </c>
       <c r="F790" t="inlineStr">
@@ -30708,7 +30708,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>SUMINISTRO GATE VALVE, CLASS 150, FNPT, ASTM B-62, OS&amp;Y, TRIM-BRONZE, UL/FM, HWO, MSS SP-80. DIAMETRO DE 1 1/2"</t>
+          <t>SUMINISTRO GATE VALVE, CLASS 150, FNPT, ASTM B-62, OS&amp;Y, TRIM-BRONZE, UL/FM, HWO, MSS SP-80. DIAMETRO DE 1-1/2"</t>
         </is>
       </c>
       <c r="F797" t="inlineStr">
@@ -30898,7 +30898,7 @@
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE, CLASS 800 (WOG), SW, ASTM B-62, OS&amp;Y, TRIM-BRONZE, UL/FM, HWO, MSS SP-80, 1 1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE, CLASS 800 (WOG), SW, ASTM B-62, OS&amp;Y, TRIM-BRONZE, UL/FM, HWO, MSS SP-80, 1-1/2"</t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
@@ -31088,7 +31088,7 @@
       </c>
       <c r="E807" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 150#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1 1/2"</t>
+          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 150#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1-1/2"</t>
         </is>
       </c>
       <c r="F807" t="inlineStr">
@@ -31430,7 +31430,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 300#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1 1/2"</t>
+          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 300#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1-1/2"</t>
         </is>
       </c>
       <c r="F816" t="inlineStr">
@@ -31772,7 +31772,7 @@
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 600#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1 1/2"</t>
+          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 600#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1-1/2"</t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
@@ -32114,7 +32114,7 @@
       </c>
       <c r="E834" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 900#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1 1/2"</t>
+          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 900#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1-1/2"</t>
         </is>
       </c>
       <c r="F834" t="inlineStr">
@@ -32456,7 +32456,7 @@
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 1500#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1 1/2"</t>
+          <t>SUMINISTRO DE BALL VALVE, TRUNNION MOUNTED, FULL PORT, BB, TRIM SSTL W/TEFLON INSERT, HWO., 1500#, RF, ASTM A-216 GR WCB, API 608, ASME B16.10, ASME B16.34 1-1/2"</t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
@@ -32912,7 +32912,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE, CLASS 5000 (WOG), SW, ASTM B-62, OS&amp;Y, TRIM-BRONZE, UL/FM, HWO, MSS SP-80, 1 1/2"</t>
+          <t>SUMINISTRO DE BALL VALVE, CLASS 5000 (WOG), SW, ASTM B-62, OS&amp;Y, TRIM-BRONZE, UL/FM, HWO, MSS SP-80, 1-1/2"</t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
@@ -33368,7 +33368,7 @@
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 150#, RF, ASTM A-216 GR WCB, API 6D 1 1/2"</t>
+          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 150#, RF, ASTM A-216 GR WCB, API 6D 1-1/2"</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
@@ -33710,7 +33710,7 @@
       </c>
       <c r="E876" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 300#, RF, ASTM A-216 GR WCB, API 6D 1 1/2"</t>
+          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 300#, RF, ASTM A-216 GR WCB, API 6D 1-1/2"</t>
         </is>
       </c>
       <c r="F876" t="inlineStr">
@@ -34052,7 +34052,7 @@
       </c>
       <c r="E885" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 600#, RF, ASTM A-216 GR WCB, API 6D 1 1/2"</t>
+          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 600#, RF, ASTM A-216 GR WCB, API 6D 1-1/2"</t>
         </is>
       </c>
       <c r="F885" t="inlineStr">
@@ -34394,7 +34394,7 @@
       </c>
       <c r="E894" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 900#, RF, ASTM A-216 GR WCB, API 6D 1 1/2"</t>
+          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 900#, RF, ASTM A-216 GR WCB, API 6D 1-1/2"</t>
         </is>
       </c>
       <c r="F894" t="inlineStr">
@@ -34774,7 +34774,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 1500#, RF, ASTM A-216 GR WCB, API 6D 1 1/2"</t>
+          <t>SUMINISTRO DE CHECK VALVE, SWING, BB, CLAPETA:13%CR, HANGER: 13%CR, PIN:13%CR, 1500#, RF, ASTM A-216 GR WCB, API 6D 1-1/2"</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
@@ -35230,7 +35230,7 @@
       </c>
       <c r="E916" t="inlineStr">
         <is>
-          <t>SUMINISTRO INTEGRAL MONO FLANGE DOUBLE BLOCK AND BLEED NEEDLE MULTI- VALVE, EEMUA 182, ASTM A105, CLASS 1500, RF / NPTF, ENDS AS PER ASME B16.5 AND ASME B1.20.1, BOLTED BONNET, A193 GR. B7/A194 GR. 2H, SPW AISI 304/GRAPHITE, PACKING: GRAPHITE, AISI 316 STEM, SEATS &amp; S, DIAM. 1 1/2"X1/2"</t>
+          <t>SUMINISTRO INTEGRAL MONO FLANGE DOUBLE BLOCK AND BLEED NEEDLE MULTI- VALVE, EEMUA 182, ASTM A105, CLASS 1500, RF / NPTF, ENDS AS PER ASME B16.5 AND ASME B1.20.1, BOLTED BONNET, A193 GR. B7/A194 GR. 2H, SPW AISI 304/GRAPHITE, PACKING: GRAPHITE, AISI 316 STEM, SEATS &amp; S, DIAM. 1-1/2"X1/2"</t>
         </is>
       </c>
       <c r="F916" t="inlineStr">
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>200,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36342,7 +36342,7 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H945" t="inlineStr"/>
@@ -36456,7 +36456,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H948" t="inlineStr"/>
@@ -36712,7 +36712,7 @@
       </c>
       <c r="E955" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F955" t="inlineStr">
@@ -36750,7 +36750,7 @@
       </c>
       <c r="E956" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F956" t="inlineStr">
@@ -36788,7 +36788,7 @@
       </c>
       <c r="E957" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F957" t="inlineStr">
@@ -36826,7 +36826,7 @@
       </c>
       <c r="E958" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F958" t="inlineStr">
@@ -36864,7 +36864,7 @@
       </c>
       <c r="E959" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F959" t="inlineStr">
@@ -36902,7 +36902,7 @@
       </c>
       <c r="E960" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F960" t="inlineStr">
@@ -36940,7 +36940,7 @@
       </c>
       <c r="E961" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F961" t="inlineStr">
@@ -36978,7 +36978,7 @@
       </c>
       <c r="E962" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F962" t="inlineStr">
@@ -37016,7 +37016,7 @@
       </c>
       <c r="E963" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F963" t="inlineStr">
@@ -37054,7 +37054,7 @@
       </c>
       <c r="E964" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F964" t="inlineStr">
@@ -37092,7 +37092,7 @@
       </c>
       <c r="E965" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F965" t="inlineStr">
@@ -37130,7 +37130,7 @@
       </c>
       <c r="E966" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F966" t="inlineStr">
@@ -37168,7 +37168,7 @@
       </c>
       <c r="E967" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F967" t="inlineStr">
@@ -37206,7 +37206,7 @@
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F968" t="inlineStr">
@@ -37244,7 +37244,7 @@
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F969" t="inlineStr">
@@ -37282,7 +37282,7 @@
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F970" t="inlineStr">
@@ -37320,7 +37320,7 @@
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F971" t="inlineStr">
@@ -37358,7 +37358,7 @@
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F972" t="inlineStr">
@@ -37396,7 +37396,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F974" t="inlineStr">
@@ -37472,7 +37472,7 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F975" t="inlineStr">
@@ -37510,7 +37510,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F976" t="inlineStr">
@@ -37548,7 +37548,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F977" t="inlineStr">
@@ -37586,7 +37586,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F978" t="inlineStr">
@@ -37624,7 +37624,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F979" t="inlineStr">
@@ -37662,7 +37662,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F980" t="inlineStr">
@@ -37700,7 +37700,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F981" t="inlineStr">
@@ -37738,7 +37738,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F982" t="inlineStr">
@@ -37776,7 +37776,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F983" t="inlineStr">
@@ -37814,7 +37814,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F984" t="inlineStr">
@@ -37852,7 +37852,7 @@
       </c>
       <c r="E985" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F985" t="inlineStr">
@@ -37890,7 +37890,7 @@
       </c>
       <c r="E986" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F986" t="inlineStr">
@@ -37928,7 +37928,7 @@
       </c>
       <c r="E987" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F987" t="inlineStr">
@@ -37966,7 +37966,7 @@
       </c>
       <c r="E988" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F988" t="inlineStr">
@@ -38004,7 +38004,7 @@
       </c>
       <c r="E989" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F989" t="inlineStr">
@@ -38042,7 +38042,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F990" t="inlineStr">
@@ -38080,7 +38080,7 @@
       </c>
       <c r="E991" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F991" t="inlineStr">
@@ -38118,7 +38118,7 @@
       </c>
       <c r="E992" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F992" t="inlineStr">
@@ -38156,7 +38156,7 @@
       </c>
       <c r="E993" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F993" t="inlineStr">
@@ -38194,7 +38194,7 @@
       </c>
       <c r="E994" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F994" t="inlineStr">
@@ -38232,7 +38232,7 @@
       </c>
       <c r="E995" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F995" t="inlineStr">
@@ -38270,7 +38270,7 @@
       </c>
       <c r="E996" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F996" t="inlineStr">
@@ -38308,7 +38308,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F997" t="inlineStr">
@@ -38346,7 +38346,7 @@
       </c>
       <c r="E998" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F998" t="inlineStr">
@@ -38384,7 +38384,7 @@
       </c>
       <c r="E999" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS AÉREAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F999" t="inlineStr">
@@ -38422,7 +38422,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1000" t="inlineStr">
@@ -38460,7 +38460,7 @@
       </c>
       <c r="E1001" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1001" t="inlineStr">
@@ -38498,7 +38498,7 @@
       </c>
       <c r="E1002" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1002" t="inlineStr">
@@ -38536,7 +38536,7 @@
       </c>
       <c r="E1003" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1003" t="inlineStr">
@@ -38574,7 +38574,7 @@
       </c>
       <c r="E1004" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1004" t="inlineStr">
@@ -38612,7 +38612,7 @@
       </c>
       <c r="E1005" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1005" t="inlineStr">
@@ -38650,7 +38650,7 @@
       </c>
       <c r="E1006" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1006" t="inlineStr">
@@ -38688,7 +38688,7 @@
       </c>
       <c r="E1007" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1007" t="inlineStr">
@@ -38726,7 +38726,7 @@
       </c>
       <c r="E1008" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1008" t="inlineStr">
@@ -38764,7 +38764,7 @@
       </c>
       <c r="E1009" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1009" t="inlineStr">
@@ -38802,7 +38802,7 @@
       </c>
       <c r="E1010" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1010" t="inlineStr">
@@ -38840,7 +38840,7 @@
       </c>
       <c r="E1011" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1011" t="inlineStr">
@@ -38878,7 +38878,7 @@
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1012" t="inlineStr">
@@ -38916,7 +38916,7 @@
       </c>
       <c r="E1013" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1013" t="inlineStr">
@@ -38954,7 +38954,7 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON OXICORTE DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1014" t="inlineStr">
@@ -38992,7 +38992,7 @@
       </c>
       <c r="E1015" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO DE TUBERÍAS HDPE Y ACCESORIOS DE Ø MENORES A 8 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO DE TUBERÍAS HDPE Y ACCESORIOS DE Ø MENORES A 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1015" t="inlineStr">
@@ -39030,7 +39030,7 @@
       </c>
       <c r="E1016" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO DE TUBERÍAS HDPE Y ACCESORIOS DE Ø ENTRE 8 " - 24 " (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO DE TUBERÍAS HDPE Y ACCESORIOS DE Ø ENTRE 8" - 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F1016" t="inlineStr">
@@ -39448,7 +39448,7 @@
       </c>
       <c r="E1027" t="inlineStr">
         <is>
-          <t>PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø &lt; 2 "</t>
+          <t>PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø &lt; 2"</t>
         </is>
       </c>
       <c r="F1027" t="inlineStr">
@@ -39458,7 +39458,7 @@
       </c>
       <c r="G1027" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1027" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,472</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
       </c>
       <c r="G1030" t="inlineStr">
         <is>
-          <t>275,21</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1030" t="inlineStr"/>
@@ -39610,7 +39610,7 @@
       </c>
       <c r="G1031" t="inlineStr">
         <is>
-          <t>4212,77</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1031" t="inlineStr"/>
@@ -39648,7 +39648,7 @@
       </c>
       <c r="G1032" t="inlineStr">
         <is>
-          <t>582,43</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1032" t="inlineStr"/>
@@ -39686,7 +39686,7 @@
       </c>
       <c r="G1033" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>200,422</t>
         </is>
       </c>
       <c r="H1033" t="inlineStr"/>
@@ -39724,7 +39724,7 @@
       </c>
       <c r="G1034" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1034" t="inlineStr"/>
@@ -39980,7 +39980,7 @@
       </c>
       <c r="E1041" t="inlineStr">
         <is>
-          <t>PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO INOXIDABLE DE Ø &lt; 2 "</t>
+          <t>PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO INOXIDABLE DE Ø &lt; 2"</t>
         </is>
       </c>
       <c r="F1041" t="inlineStr">
@@ -40512,7 +40512,7 @@
       </c>
       <c r="E1055" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &lt; 2 "</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &lt; 2"</t>
         </is>
       </c>
       <c r="F1055" t="inlineStr">
@@ -40522,7 +40522,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -40550,7 +40550,7 @@
       </c>
       <c r="E1056" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2"</t>
         </is>
       </c>
       <c r="F1056" t="inlineStr">
@@ -40588,7 +40588,7 @@
       </c>
       <c r="E1057" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 3”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 3"</t>
         </is>
       </c>
       <c r="F1057" t="inlineStr">
@@ -40626,7 +40626,7 @@
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 4”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 4"</t>
         </is>
       </c>
       <c r="F1058" t="inlineStr">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>275,21</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -40664,7 +40664,7 @@
       </c>
       <c r="E1059" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 6”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 6"</t>
         </is>
       </c>
       <c r="F1059" t="inlineStr">
@@ -40674,7 +40674,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>4212,77</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -40702,7 +40702,7 @@
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 8”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 8"</t>
         </is>
       </c>
       <c r="F1060" t="inlineStr">
@@ -40712,7 +40712,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>582,43</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -40740,7 +40740,7 @@
       </c>
       <c r="E1061" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 10”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 10"</t>
         </is>
       </c>
       <c r="F1061" t="inlineStr">
@@ -40750,7 +40750,7 @@
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>141,971</t>
         </is>
       </c>
       <c r="H1061" t="inlineStr"/>
@@ -40778,7 +40778,7 @@
       </c>
       <c r="E1062" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 12”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 12"</t>
         </is>
       </c>
       <c r="F1062" t="inlineStr">
@@ -40788,7 +40788,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -40816,7 +40816,7 @@
       </c>
       <c r="E1063" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 14”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 14"</t>
         </is>
       </c>
       <c r="F1063" t="inlineStr">
@@ -40854,7 +40854,7 @@
       </c>
       <c r="E1064" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 16”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 16"</t>
         </is>
       </c>
       <c r="F1064" t="inlineStr">
@@ -40892,7 +40892,7 @@
       </c>
       <c r="E1065" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 18”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 18"</t>
         </is>
       </c>
       <c r="F1065" t="inlineStr">
@@ -40930,7 +40930,7 @@
       </c>
       <c r="E1066" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 20”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 20"</t>
         </is>
       </c>
       <c r="F1066" t="inlineStr">
@@ -40968,7 +40968,7 @@
       </c>
       <c r="E1067" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 24”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 24"</t>
         </is>
       </c>
       <c r="F1067" t="inlineStr">
@@ -41006,7 +41006,7 @@
       </c>
       <c r="E1068" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 30”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 30"</t>
         </is>
       </c>
       <c r="F1068" t="inlineStr">
@@ -41044,7 +41044,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &gt;30”</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &gt;30"</t>
         </is>
       </c>
       <c r="F1069" t="inlineStr">
@@ -41082,7 +41082,7 @@
       </c>
       <c r="E1070" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &lt; 2 "</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &lt; 2"</t>
         </is>
       </c>
       <c r="F1070" t="inlineStr">
@@ -41120,7 +41120,7 @@
       </c>
       <c r="E1071" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 2”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 2"</t>
         </is>
       </c>
       <c r="F1071" t="inlineStr">
@@ -41158,7 +41158,7 @@
       </c>
       <c r="E1072" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 3”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 3"</t>
         </is>
       </c>
       <c r="F1072" t="inlineStr">
@@ -41168,7 +41168,7 @@
       </c>
       <c r="G1072" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,472</t>
         </is>
       </c>
       <c r="H1072" t="inlineStr"/>
@@ -41196,7 +41196,7 @@
       </c>
       <c r="E1073" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 4”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 4"</t>
         </is>
       </c>
       <c r="F1073" t="inlineStr">
@@ -41234,7 +41234,7 @@
       </c>
       <c r="E1074" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 6”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 6"</t>
         </is>
       </c>
       <c r="F1074" t="inlineStr">
@@ -41272,7 +41272,7 @@
       </c>
       <c r="E1075" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 8”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 8"</t>
         </is>
       </c>
       <c r="F1075" t="inlineStr">
@@ -41310,7 +41310,7 @@
       </c>
       <c r="E1076" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 10”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 10"</t>
         </is>
       </c>
       <c r="F1076" t="inlineStr">
@@ -41320,7 +41320,7 @@
       </c>
       <c r="G1076" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>58,451</t>
         </is>
       </c>
       <c r="H1076" t="inlineStr"/>
@@ -41348,7 +41348,7 @@
       </c>
       <c r="E1077" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 12”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 12"</t>
         </is>
       </c>
       <c r="F1077" t="inlineStr">
@@ -41386,7 +41386,7 @@
       </c>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 14”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 14"</t>
         </is>
       </c>
       <c r="F1078" t="inlineStr">
@@ -41424,7 +41424,7 @@
       </c>
       <c r="E1079" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 16”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 16"</t>
         </is>
       </c>
       <c r="F1079" t="inlineStr">
@@ -41462,7 +41462,7 @@
       </c>
       <c r="E1080" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 18”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 18"</t>
         </is>
       </c>
       <c r="F1080" t="inlineStr">
@@ -41500,7 +41500,7 @@
       </c>
       <c r="E1081" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 20”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 20"</t>
         </is>
       </c>
       <c r="F1081" t="inlineStr">
@@ -41538,7 +41538,7 @@
       </c>
       <c r="E1082" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 24”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 24"</t>
         </is>
       </c>
       <c r="F1082" t="inlineStr">
@@ -41576,7 +41576,7 @@
       </c>
       <c r="E1083" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 30”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 30"</t>
         </is>
       </c>
       <c r="F1083" t="inlineStr">
@@ -41614,7 +41614,7 @@
       </c>
       <c r="E1084" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &gt;30”</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &gt;30"</t>
         </is>
       </c>
       <c r="F1084" t="inlineStr">
@@ -41652,7 +41652,7 @@
       </c>
       <c r="E1085" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &lt; 2 " (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &lt; 2" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1085" t="inlineStr">
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>99,774</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41690,7 +41690,7 @@
       </c>
       <c r="E1086" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1086" t="inlineStr">
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41728,7 +41728,7 @@
       </c>
       <c r="E1087" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 3” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 3" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1087" t="inlineStr">
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41766,7 +41766,7 @@
       </c>
       <c r="E1088" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 4” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 4" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1088" t="inlineStr">
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>81,99</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -41804,7 +41804,7 @@
       </c>
       <c r="E1089" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 6” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 6" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1089" t="inlineStr">
@@ -41842,7 +41842,7 @@
       </c>
       <c r="E1090" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 8” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 8" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1090" t="inlineStr">
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>476,044</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41880,7 +41880,7 @@
       </c>
       <c r="E1091" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 10” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 10" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1091" t="inlineStr">
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>797,562</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -41918,7 +41918,7 @@
       </c>
       <c r="E1092" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 12” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 12" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1092" t="inlineStr">
@@ -41928,7 +41928,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>974,52</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -41956,7 +41956,7 @@
       </c>
       <c r="E1093" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 14” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 14" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1093" t="inlineStr">
@@ -41994,7 +41994,7 @@
       </c>
       <c r="E1094" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 16” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 16" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1094" t="inlineStr">
@@ -42032,7 +42032,7 @@
       </c>
       <c r="E1095" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 18” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 18" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1095" t="inlineStr">
@@ -42070,7 +42070,7 @@
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 20” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 20" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1096" t="inlineStr">
@@ -42108,7 +42108,7 @@
       </c>
       <c r="E1097" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 24” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 24" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1097" t="inlineStr">
@@ -42146,7 +42146,7 @@
       </c>
       <c r="E1098" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 30” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 30" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1098" t="inlineStr">
@@ -42184,7 +42184,7 @@
       </c>
       <c r="E1099" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &gt;30” (SIN PREFABRICAR)</t>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø &gt;30" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1099" t="inlineStr">
@@ -42222,7 +42222,7 @@
       </c>
       <c r="E1100" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &lt; 2 " (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &lt; 2" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1100" t="inlineStr">
@@ -42232,7 +42232,7 @@
       </c>
       <c r="G1100" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="H1100" t="inlineStr"/>
@@ -42260,7 +42260,7 @@
       </c>
       <c r="E1101" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 2” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 2" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1101" t="inlineStr">
@@ -42298,7 +42298,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 3” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 3" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1102" t="inlineStr">
@@ -42308,7 +42308,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>53,27</t>
         </is>
       </c>
       <c r="H1102" t="inlineStr"/>
@@ -42336,7 +42336,7 @@
       </c>
       <c r="E1103" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 4” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 4" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1103" t="inlineStr">
@@ -42346,7 +42346,7 @@
       </c>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,623</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr"/>
@@ -42374,7 +42374,7 @@
       </c>
       <c r="E1104" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 6” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 6" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1104" t="inlineStr">
@@ -42412,7 +42412,7 @@
       </c>
       <c r="E1105" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 8” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 8" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1105" t="inlineStr">
@@ -42450,7 +42450,7 @@
       </c>
       <c r="E1106" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 10” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 10" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1106" t="inlineStr">
@@ -42488,7 +42488,7 @@
       </c>
       <c r="E1107" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 12” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 12" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1107" t="inlineStr">
@@ -42526,7 +42526,7 @@
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 14” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 14" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1108" t="inlineStr">
@@ -42564,7 +42564,7 @@
       </c>
       <c r="E1109" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 16” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 16" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1109" t="inlineStr">
@@ -42602,7 +42602,7 @@
       </c>
       <c r="E1110" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 18” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 18" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1110" t="inlineStr">
@@ -42640,7 +42640,7 @@
       </c>
       <c r="E1111" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 20” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 20" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1111" t="inlineStr">
@@ -42678,7 +42678,7 @@
       </c>
       <c r="E1112" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 24” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 24" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1112" t="inlineStr">
@@ -42716,7 +42716,7 @@
       </c>
       <c r="E1113" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 30” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø 30" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1113" t="inlineStr">
@@ -42754,7 +42754,7 @@
       </c>
       <c r="E1114" t="inlineStr">
         <is>
-          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &gt;30” (SIN PREFABRICAR)</t>
+          <t>MONTAJE ENTERRADO DE TUBERÍA DE Ø &gt;30" (SIN PREFABRICAR)</t>
         </is>
       </c>
       <c r="F1114" t="inlineStr">
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>22,3</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>772,64</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>114,2</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43438,7 +43438,7 @@
       </c>
       <c r="E1132" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO MENORES DE 2”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO MENORES DE 2"</t>
         </is>
       </c>
       <c r="F1132" t="inlineStr">
@@ -43476,7 +43476,7 @@
       </c>
       <c r="E1133" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 2”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 2"</t>
         </is>
       </c>
       <c r="F1133" t="inlineStr">
@@ -43514,7 +43514,7 @@
       </c>
       <c r="E1134" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 3”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 3"</t>
         </is>
       </c>
       <c r="F1134" t="inlineStr">
@@ -43552,7 +43552,7 @@
       </c>
       <c r="E1135" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 4”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 4"</t>
         </is>
       </c>
       <c r="F1135" t="inlineStr">
@@ -43590,7 +43590,7 @@
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 6”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 6"</t>
         </is>
       </c>
       <c r="F1136" t="inlineStr">
@@ -43628,7 +43628,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 8”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 8"</t>
         </is>
       </c>
       <c r="F1137" t="inlineStr">
@@ -43666,7 +43666,7 @@
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 10”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 10"</t>
         </is>
       </c>
       <c r="F1138" t="inlineStr">
@@ -43704,7 +43704,7 @@
       </c>
       <c r="E1139" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 12”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 12"</t>
         </is>
       </c>
       <c r="F1139" t="inlineStr">
@@ -43742,7 +43742,7 @@
       </c>
       <c r="E1140" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 14”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 14"</t>
         </is>
       </c>
       <c r="F1140" t="inlineStr">
@@ -43780,7 +43780,7 @@
       </c>
       <c r="E1141" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 16”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 16"</t>
         </is>
       </c>
       <c r="F1141" t="inlineStr">
@@ -43818,7 +43818,7 @@
       </c>
       <c r="E1142" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 18”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 18"</t>
         </is>
       </c>
       <c r="F1142" t="inlineStr">
@@ -43856,7 +43856,7 @@
       </c>
       <c r="E1143" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 20”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 20"</t>
         </is>
       </c>
       <c r="F1143" t="inlineStr">
@@ -43894,7 +43894,7 @@
       </c>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 24”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 24"</t>
         </is>
       </c>
       <c r="F1144" t="inlineStr">
@@ -43932,7 +43932,7 @@
       </c>
       <c r="E1145" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 30”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 30"</t>
         </is>
       </c>
       <c r="F1145" t="inlineStr">
@@ -43970,7 +43970,7 @@
       </c>
       <c r="E1146" t="inlineStr">
         <is>
-          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 36”</t>
+          <t>MONTAJE CIEGOS BRIDADOS Y/O CONEXIONES BRIDADAS DIAMETRO DE 36"</t>
         </is>
       </c>
       <c r="F1146" t="inlineStr">
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>164,01</t>
+          <t>72,31</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>164,01</t>
+          <t>72,31</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>164,01</t>
+          <t>72,31</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>164,01</t>
+          <t>72,31</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47466,7 +47466,7 @@
       </c>
       <c r="E1238" t="inlineStr">
         <is>
-          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO MENOR DE 2”</t>
+          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO MENOR DE 2"</t>
         </is>
       </c>
       <c r="F1238" t="inlineStr">
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47504,7 +47504,7 @@
       </c>
       <c r="E1239" t="inlineStr">
         <is>
-          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO DE 2-6”</t>
+          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO DE 2-6"</t>
         </is>
       </c>
       <c r="F1239" t="inlineStr">
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47542,7 +47542,7 @@
       </c>
       <c r="E1240" t="inlineStr">
         <is>
-          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO DE 8-14”</t>
+          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO DE 8-14"</t>
         </is>
       </c>
       <c r="F1240" t="inlineStr">
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -47580,7 +47580,7 @@
       </c>
       <c r="E1241" t="inlineStr">
         <is>
-          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO DE 16-30”</t>
+          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO DE 16-30"</t>
         </is>
       </c>
       <c r="F1241" t="inlineStr">
@@ -47618,7 +47618,7 @@
       </c>
       <c r="E1242" t="inlineStr">
         <is>
-          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO MAYOR A 30”</t>
+          <t>DEMARCACIÓN DE TUBERÍAS Y VÁLVULAS DIÁMETRO MAYOR A 30"</t>
         </is>
       </c>
       <c r="F1242" t="inlineStr">
@@ -47656,7 +47656,7 @@
       </c>
       <c r="E1243" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1/2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1243" t="inlineStr">
@@ -47694,7 +47694,7 @@
       </c>
       <c r="E1244" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1244" t="inlineStr">
@@ -47732,7 +47732,7 @@
       </c>
       <c r="E1245" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE  1-1/2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE  1-1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1245" t="inlineStr">
@@ -47770,7 +47770,7 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE  2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE  2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1246" t="inlineStr">
@@ -47808,7 +47808,7 @@
       </c>
       <c r="E1247" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) MAYOR A 2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS PERLITA EXPANDIDA CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) MAYOR A 2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1247" t="inlineStr">
@@ -47846,7 +47846,7 @@
       </c>
       <c r="E1248" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1/2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1248" t="inlineStr">
@@ -47884,7 +47884,7 @@
       </c>
       <c r="E1249" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1249" t="inlineStr">
@@ -47922,7 +47922,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1-1/2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 1-1/2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1250" t="inlineStr">
@@ -47960,7 +47960,7 @@
       </c>
       <c r="E1251" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) DE 2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1251" t="inlineStr">
@@ -47998,7 +47998,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) MAYOR A 2 " DE ESPESOR</t>
+          <t>AISLAMIENTO TÉRMICO DE TUBERÍAS Y ACCESORIOS FIBRA DE VIDRIO CON REVESTIMIENTO METALICO (INCLUYE TODOS LOS SUMINISTROS) MAYOR A 2" DE ESPESOR</t>
         </is>
       </c>
       <c r="F1252" t="inlineStr">
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>181,44</t>
+          <t>243,6</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>88,2</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>983,325</t>
+          <t>457,275</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -48378,7 +48378,7 @@
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1262" t="inlineStr">
@@ -48416,7 +48416,7 @@
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr">
@@ -48454,7 +48454,7 @@
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1264" t="inlineStr">
@@ -48492,7 +48492,7 @@
       </c>
       <c r="E1265" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1265" t="inlineStr">
@@ -48530,7 +48530,7 @@
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1266" t="inlineStr">
@@ -48568,7 +48568,7 @@
       </c>
       <c r="E1267" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1267" t="inlineStr">
@@ -48606,7 +48606,7 @@
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1268" t="inlineStr">
@@ -48644,7 +48644,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr">
@@ -48682,7 +48682,7 @@
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1270" t="inlineStr">
@@ -48720,7 +48720,7 @@
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1271" t="inlineStr">
@@ -48758,7 +48758,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1272" t="inlineStr">
@@ -48796,7 +48796,7 @@
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1273" t="inlineStr">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1274" t="inlineStr">
@@ -48872,7 +48872,7 @@
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1275" t="inlineStr">
@@ -48910,7 +48910,7 @@
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 150 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1276" t="inlineStr">
@@ -48948,7 +48948,7 @@
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1277" t="inlineStr">
@@ -48986,7 +48986,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1278" t="inlineStr">
@@ -49024,7 +49024,7 @@
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr">
@@ -49062,7 +49062,7 @@
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr">
@@ -49100,7 +49100,7 @@
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1281" t="inlineStr">
@@ -49138,7 +49138,7 @@
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr">
@@ -49176,7 +49176,7 @@
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1283" t="inlineStr">
@@ -49214,7 +49214,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1284" t="inlineStr">
@@ -49252,7 +49252,7 @@
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr">
@@ -49290,7 +49290,7 @@
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1286" t="inlineStr">
@@ -49328,7 +49328,7 @@
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr">
@@ -49366,7 +49366,7 @@
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr">
@@ -49404,7 +49404,7 @@
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr">
@@ -49442,7 +49442,7 @@
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1290" t="inlineStr">
@@ -49480,7 +49480,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 150 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr">
@@ -49518,7 +49518,7 @@
       </c>
       <c r="E1292" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1292" t="inlineStr">
@@ -49556,7 +49556,7 @@
       </c>
       <c r="E1293" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1293" t="inlineStr">
@@ -49594,7 +49594,7 @@
       </c>
       <c r="E1294" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1294" t="inlineStr">
@@ -49632,7 +49632,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1295" t="inlineStr">
@@ -49670,7 +49670,7 @@
       </c>
       <c r="E1296" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1296" t="inlineStr">
@@ -49708,7 +49708,7 @@
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr">
@@ -49746,7 +49746,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr">
@@ -49784,7 +49784,7 @@
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr">
@@ -49822,7 +49822,7 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1300" t="inlineStr">
@@ -49860,7 +49860,7 @@
       </c>
       <c r="E1301" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1301" t="inlineStr">
@@ -49898,7 +49898,7 @@
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr">
@@ -49936,7 +49936,7 @@
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr">
@@ -49974,7 +49974,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr">
@@ -50012,7 +50012,7 @@
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1305" t="inlineStr">
@@ -50050,7 +50050,7 @@
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 300 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr">
@@ -50088,7 +50088,7 @@
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1307" t="inlineStr">
@@ -50126,7 +50126,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1308" t="inlineStr">
@@ -50164,7 +50164,7 @@
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1309" t="inlineStr">
@@ -50202,7 +50202,7 @@
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1310" t="inlineStr">
@@ -50240,7 +50240,7 @@
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1311" t="inlineStr">
@@ -50278,7 +50278,7 @@
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1312" t="inlineStr">
@@ -50316,7 +50316,7 @@
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1313" t="inlineStr">
@@ -50354,7 +50354,7 @@
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1314" t="inlineStr">
@@ -50392,7 +50392,7 @@
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1315" t="inlineStr">
@@ -50430,7 +50430,7 @@
       </c>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1316" t="inlineStr">
@@ -50468,7 +50468,7 @@
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1317" t="inlineStr">
@@ -50506,7 +50506,7 @@
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1318" t="inlineStr">
@@ -50544,7 +50544,7 @@
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1319" t="inlineStr">
@@ -50582,7 +50582,7 @@
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1320" t="inlineStr">
@@ -50620,7 +50620,7 @@
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 300 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1321" t="inlineStr">
@@ -50658,7 +50658,7 @@
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1322" t="inlineStr">
@@ -50696,7 +50696,7 @@
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1323" t="inlineStr">
@@ -50734,7 +50734,7 @@
       </c>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr">
@@ -50772,7 +50772,7 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr">
@@ -50810,7 +50810,7 @@
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr">
@@ -50848,7 +50848,7 @@
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr">
@@ -50886,7 +50886,7 @@
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
@@ -50924,7 +50924,7 @@
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1329" t="inlineStr">
@@ -50962,7 +50962,7 @@
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1330" t="inlineStr">
@@ -51000,7 +51000,7 @@
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr">
@@ -51038,7 +51038,7 @@
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1332" t="inlineStr">
@@ -51076,7 +51076,7 @@
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1333" t="inlineStr">
@@ -51114,7 +51114,7 @@
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1334" t="inlineStr">
@@ -51152,7 +51152,7 @@
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1335" t="inlineStr">
@@ -51190,7 +51190,7 @@
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 600 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1336" t="inlineStr">
@@ -51228,7 +51228,7 @@
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1337" t="inlineStr">
@@ -51266,7 +51266,7 @@
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1338" t="inlineStr">
@@ -51304,7 +51304,7 @@
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1339" t="inlineStr">
@@ -51342,7 +51342,7 @@
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1340" t="inlineStr">
@@ -51380,7 +51380,7 @@
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1341" t="inlineStr">
@@ -51418,7 +51418,7 @@
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1342" t="inlineStr">
@@ -51456,7 +51456,7 @@
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1343" t="inlineStr">
@@ -51494,7 +51494,7 @@
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1344" t="inlineStr">
@@ -51532,7 +51532,7 @@
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1345" t="inlineStr">
@@ -51570,7 +51570,7 @@
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr">
@@ -51608,7 +51608,7 @@
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr">
@@ -51646,7 +51646,7 @@
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1348" t="inlineStr">
@@ -51684,7 +51684,7 @@
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1349" t="inlineStr">
@@ -51722,7 +51722,7 @@
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1350" t="inlineStr">
@@ -51760,7 +51760,7 @@
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 600 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1351" t="inlineStr">
@@ -51798,7 +51798,7 @@
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1352" t="inlineStr">
@@ -51836,7 +51836,7 @@
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1353" t="inlineStr">
@@ -51874,7 +51874,7 @@
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1354" t="inlineStr">
@@ -51912,7 +51912,7 @@
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1355" t="inlineStr">
@@ -51950,7 +51950,7 @@
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1356" t="inlineStr">
@@ -51988,7 +51988,7 @@
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1357" t="inlineStr">
@@ -52026,7 +52026,7 @@
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1358" t="inlineStr">
@@ -52064,7 +52064,7 @@
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1359" t="inlineStr">
@@ -52102,7 +52102,7 @@
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1360" t="inlineStr">
@@ -52140,7 +52140,7 @@
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1361" t="inlineStr">
@@ -52178,7 +52178,7 @@
       </c>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1362" t="inlineStr">
@@ -52216,7 +52216,7 @@
       </c>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1363" t="inlineStr">
@@ -52254,7 +52254,7 @@
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1364" t="inlineStr">
@@ -52292,7 +52292,7 @@
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1365" t="inlineStr">
@@ -52330,7 +52330,7 @@
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 900 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1366" t="inlineStr">
@@ -52368,7 +52368,7 @@
       </c>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1367" t="inlineStr">
@@ -52406,7 +52406,7 @@
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1368" t="inlineStr">
@@ -52444,7 +52444,7 @@
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1369" t="inlineStr">
@@ -52482,7 +52482,7 @@
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1370" t="inlineStr">
@@ -52520,7 +52520,7 @@
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1371" t="inlineStr">
@@ -52558,7 +52558,7 @@
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1372" t="inlineStr">
@@ -52596,7 +52596,7 @@
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1373" t="inlineStr">
@@ -52634,7 +52634,7 @@
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr">
@@ -52672,7 +52672,7 @@
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr">
@@ -52710,7 +52710,7 @@
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr">
@@ -52748,7 +52748,7 @@
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr">
@@ -52786,7 +52786,7 @@
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1378" t="inlineStr">
@@ -52824,7 +52824,7 @@
       </c>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1379" t="inlineStr">
@@ -52862,7 +52862,7 @@
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1380" t="inlineStr">
@@ -52900,7 +52900,7 @@
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 900 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1381" t="inlineStr">
@@ -52938,7 +52938,7 @@
       </c>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1382" t="inlineStr">
@@ -52976,7 +52976,7 @@
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr">
@@ -53014,7 +53014,7 @@
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1384" t="inlineStr">
@@ -53052,7 +53052,7 @@
       </c>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1385" t="inlineStr">
@@ -53090,7 +53090,7 @@
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1386" t="inlineStr">
@@ -53128,7 +53128,7 @@
       </c>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr">
@@ -53166,7 +53166,7 @@
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr">
@@ -53204,7 +53204,7 @@
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr">
@@ -53242,7 +53242,7 @@
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1390" t="inlineStr">
@@ -53280,7 +53280,7 @@
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1391" t="inlineStr">
@@ -53318,7 +53318,7 @@
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr">
@@ -53356,7 +53356,7 @@
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1393" t="inlineStr">
@@ -53394,7 +53394,7 @@
       </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1394" t="inlineStr">
@@ -53432,7 +53432,7 @@
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1395" t="inlineStr">
@@ -53470,7 +53470,7 @@
       </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN BRIDADA  ANSI 1500 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr">
@@ -53508,7 +53508,7 @@
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø MENORES A 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1397" t="inlineStr">
@@ -53546,7 +53546,7 @@
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 2”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 2"</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr">
@@ -53584,7 +53584,7 @@
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 3”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 3"</t>
         </is>
       </c>
       <c r="F1399" t="inlineStr">
@@ -53622,7 +53622,7 @@
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 4”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 4"</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr">
@@ -53660,7 +53660,7 @@
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 6”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 6"</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr">
@@ -53698,7 +53698,7 @@
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 8”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 8"</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr">
@@ -53736,7 +53736,7 @@
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 10”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 10"</t>
         </is>
       </c>
       <c r="F1403" t="inlineStr">
@@ -53774,7 +53774,7 @@
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 12”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 12"</t>
         </is>
       </c>
       <c r="F1404" t="inlineStr">
@@ -53812,7 +53812,7 @@
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 14”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 14"</t>
         </is>
       </c>
       <c r="F1405" t="inlineStr">
@@ -53850,7 +53850,7 @@
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 16”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 16"</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr">
@@ -53888,7 +53888,7 @@
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 18”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 18"</t>
         </is>
       </c>
       <c r="F1407" t="inlineStr">
@@ -53926,7 +53926,7 @@
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 20”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 20"</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr">
@@ -53964,7 +53964,7 @@
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 24”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 24"</t>
         </is>
       </c>
       <c r="F1409" t="inlineStr">
@@ -54002,7 +54002,7 @@
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 30”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 30"</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr">
@@ -54040,7 +54040,7 @@
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 36”</t>
+          <t>EJECUCIÓN DE TIE-INS EN FRÍO CONEXIÓN SOLDADA  ANSI 1500 DE Ø 36"</t>
         </is>
       </c>
       <c r="F1411" t="inlineStr">
@@ -54078,7 +54078,7 @@
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t xml:space="preserve">EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve">EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F1412" t="inlineStr">
@@ -54116,7 +54116,7 @@
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t xml:space="preserve">EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve">EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F1413" t="inlineStr">
@@ -54154,7 +54154,7 @@
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 2"</t>
         </is>
       </c>
       <c r="F1414" t="inlineStr">
@@ -54192,7 +54192,7 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 2"</t>
         </is>
       </c>
       <c r="F1415" t="inlineStr">
@@ -54230,7 +54230,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 3 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 3"</t>
         </is>
       </c>
       <c r="F1416" t="inlineStr">
@@ -54268,7 +54268,7 @@
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 3 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 3"</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr">
@@ -54306,7 +54306,7 @@
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 4 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 4"</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr">
@@ -54344,7 +54344,7 @@
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 4 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 4"</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr">
@@ -54382,7 +54382,7 @@
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 6 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 6"</t>
         </is>
       </c>
       <c r="F1420" t="inlineStr">
@@ -54420,7 +54420,7 @@
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 6 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 6"</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr">
@@ -54458,7 +54458,7 @@
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 8 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 8"</t>
         </is>
       </c>
       <c r="F1422" t="inlineStr">
@@ -54496,7 +54496,7 @@
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS EN CALIENTE "HOT TAP" EN TUBERÍA DE Ø 8 "</t>
+          <t>EJECUCIÓN DE TIE-INS EN CALIENTE"HOT TAP" EN TUBERÍA DE Ø 8"</t>
         </is>
       </c>
       <c r="F1423" t="inlineStr">
@@ -54534,7 +54534,7 @@
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t xml:space="preserve">EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve">EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F1424" t="inlineStr">
@@ -54572,7 +54572,7 @@
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t xml:space="preserve">EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve">EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F1425" t="inlineStr">
@@ -54610,7 +54610,7 @@
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 2"</t>
         </is>
       </c>
       <c r="F1426" t="inlineStr">
@@ -54648,7 +54648,7 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 2 "</t>
+          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 2"</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr">
@@ -54686,7 +54686,7 @@
       </c>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 3 "</t>
+          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 3"</t>
         </is>
       </c>
       <c r="F1428" t="inlineStr">
@@ -54724,7 +54724,7 @@
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 3 "</t>
+          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 3"</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr">
@@ -54762,7 +54762,7 @@
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 4 "</t>
+          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 4"</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr">
@@ -54800,7 +54800,7 @@
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 4 "</t>
+          <t>EJECUCIÓN DE TIE-INS CON CONEXIÓN ROSCADA EN TUBERÍA DE Ø 4"</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr">
@@ -54838,7 +54838,7 @@
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø MENORES A 2 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr">
@@ -54876,7 +54876,7 @@
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 2 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 2"</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr">
@@ -54914,7 +54914,7 @@
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 3 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 3"</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr">
@@ -54952,7 +54952,7 @@
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 4 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 4"</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr">
@@ -54990,7 +54990,7 @@
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 6 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 6"</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr">
@@ -55028,7 +55028,7 @@
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 8 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 8"</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr">
@@ -55066,7 +55066,7 @@
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 10 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 10"</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr">
@@ -55104,7 +55104,7 @@
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 12 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 12"</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
@@ -55142,7 +55142,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 14 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 14"</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr">
@@ -55180,7 +55180,7 @@
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 16 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 16"</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
@@ -55218,7 +55218,7 @@
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 18 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 18"</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
@@ -55256,7 +55256,7 @@
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 20 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 20"</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
@@ -55294,7 +55294,7 @@
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 24 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 24"</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
@@ -55332,7 +55332,7 @@
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 30 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 30"</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
@@ -55370,7 +55370,7 @@
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 36 "</t>
+          <t>INSTALACION DE KIT DE AISLAMIENTO PARA TUBERIAS DE Ø 36"</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr">
@@ -55408,7 +55408,7 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
@@ -55446,7 +55446,7 @@
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 2 " - 4 " </t>
+          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 2" - 4" </t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
@@ -55484,7 +55484,7 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
@@ -55522,7 +55522,7 @@
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1450" t="inlineStr">
@@ -55560,7 +55560,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr">
@@ -55598,7 +55598,7 @@
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 30 " - 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø ENTRE 30" - 36"</t>
         </is>
       </c>
       <c r="F1452" t="inlineStr">
@@ -55636,7 +55636,7 @@
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 150 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr">
@@ -55674,7 +55674,7 @@
       </c>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr">
@@ -55712,7 +55712,7 @@
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 2 " - 4 " </t>
+          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 2" - 4" </t>
         </is>
       </c>
       <c r="F1455" t="inlineStr">
@@ -55750,7 +55750,7 @@
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr">
@@ -55788,7 +55788,7 @@
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr">
@@ -55826,7 +55826,7 @@
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr">
@@ -55864,7 +55864,7 @@
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 30 " - 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø ENTRE 30" - 36"</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr">
@@ -55902,7 +55902,7 @@
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 300 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr">
@@ -55940,7 +55940,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr">
@@ -55978,7 +55978,7 @@
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 2 " - 4 " </t>
+          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 2" - 4" </t>
         </is>
       </c>
       <c r="F1462" t="inlineStr">
@@ -56016,7 +56016,7 @@
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr">
@@ -56054,7 +56054,7 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr">
@@ -56092,7 +56092,7 @@
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr">
@@ -56130,7 +56130,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 30 " - 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø ENTRE 30" - 36"</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr">
@@ -56168,7 +56168,7 @@
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 600 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr">
@@ -56206,7 +56206,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr">
@@ -56244,7 +56244,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 2 " - 4 " </t>
+          <t xml:space="preserve">MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 2" - 4" </t>
         </is>
       </c>
       <c r="F1469" t="inlineStr">
@@ -56282,7 +56282,7 @@
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr">
@@ -56320,7 +56320,7 @@
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr">
@@ -56358,7 +56358,7 @@
       </c>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr">
@@ -56396,7 +56396,7 @@
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 30 " - 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø ENTRE 30" - 36"</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr">
@@ -56434,7 +56434,7 @@
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FIGURA 8 ANSI 900 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr">
@@ -56472,7 +56472,7 @@
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr">
@@ -56510,7 +56510,7 @@
       </c>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 2 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 2"</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr">
@@ -56548,7 +56548,7 @@
       </c>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 4 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 4"</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr">
@@ -56586,7 +56586,7 @@
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 6 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 6"</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr">
@@ -56624,7 +56624,7 @@
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 8 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 8"</t>
         </is>
       </c>
       <c r="F1479" t="inlineStr">
@@ -56662,7 +56662,7 @@
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 10 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 10"</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr">
@@ -56700,7 +56700,7 @@
       </c>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 12 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 12"</t>
         </is>
       </c>
       <c r="F1481" t="inlineStr">
@@ -56738,7 +56738,7 @@
       </c>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 14 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 14"</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr">
@@ -56776,7 +56776,7 @@
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 16 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 16"</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr">
@@ -56814,7 +56814,7 @@
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 18 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 18"</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr">
@@ -56852,7 +56852,7 @@
       </c>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 20 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 20"</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr">
@@ -56890,7 +56890,7 @@
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 24 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 24"</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr">
@@ -56928,7 +56928,7 @@
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 30 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 30"</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr">
@@ -56966,7 +56966,7 @@
       </c>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 36 "</t>
+          <t>MONTAJE DE OTROS ACCESORIOS ESPECIALES DE Ø 36"</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr">
@@ -57004,7 +57004,7 @@
       </c>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr">
@@ -57042,7 +57042,7 @@
       </c>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE  2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE  2" - 4"</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr">
@@ -57080,7 +57080,7 @@
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE  6 " - 8 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE  6" - 8"</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr">
@@ -57118,7 +57118,7 @@
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 10 " - 12 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 10" - 12"</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr">
@@ -57156,7 +57156,7 @@
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 14 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 14" - 18"</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr">
@@ -57194,7 +57194,7 @@
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr">
@@ -57232,7 +57232,7 @@
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 30 " - 36 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø ENTRE 30" - 36"</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr">
@@ -57270,7 +57270,7 @@
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FILTRO TIPO GORRO DE BRUJA DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr">
@@ -57308,7 +57308,7 @@
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr">
@@ -57346,7 +57346,7 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1498" t="inlineStr">
@@ -57384,7 +57384,7 @@
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr">
@@ -57422,7 +57422,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr">
@@ -57460,7 +57460,7 @@
       </c>
       <c r="E1501" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 150 DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1501" t="inlineStr">
@@ -57498,7 +57498,7 @@
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø MENORES A 2 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø MENORES A 2" </t>
         </is>
       </c>
       <c r="F1502" t="inlineStr">
@@ -57536,7 +57536,7 @@
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 2 " - 4 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 2" - 4" </t>
         </is>
       </c>
       <c r="F1503" t="inlineStr">
@@ -57574,7 +57574,7 @@
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr">
@@ -57612,7 +57612,7 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr">
@@ -57650,7 +57650,7 @@
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 20 " - 24 </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO Y ANSI 300 DE Ø ENTRE 20" - 24 </t>
         </is>
       </c>
       <c r="F1506" t="inlineStr">
@@ -57726,7 +57726,7 @@
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr">
@@ -57764,7 +57764,7 @@
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr">
@@ -57802,7 +57802,7 @@
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr">
@@ -57840,7 +57840,7 @@
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 20 " - 24 "</t>
+          <t>MONTAJE DE FILTRO TIPO Y ANSI 600 DE Ø ENTRE 20" - 24"</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr">
@@ -57878,7 +57878,7 @@
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr">
@@ -57916,7 +57916,7 @@
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr">
@@ -57954,7 +57954,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr">
@@ -57992,7 +57992,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 12 " - 16 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 12" - 16"</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr">
@@ -58030,7 +58030,7 @@
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 150 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1516" t="inlineStr">
@@ -58068,7 +58068,7 @@
       </c>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr">
@@ -58106,7 +58106,7 @@
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr">
@@ -58144,7 +58144,7 @@
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr">
@@ -58182,7 +58182,7 @@
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr">
@@ -58220,7 +58220,7 @@
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 300 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1521" t="inlineStr">
@@ -58258,7 +58258,7 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr">
@@ -58296,7 +58296,7 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr">
@@ -58334,7 +58334,7 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr">
@@ -58372,7 +58372,7 @@
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 12 " - 16 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 12" - 16"</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr">
@@ -58410,7 +58410,7 @@
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 600 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1526" t="inlineStr">
@@ -58448,7 +58448,7 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr">
@@ -58486,7 +58486,7 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr">
@@ -58524,7 +58524,7 @@
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr">
@@ -58562,7 +58562,7 @@
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr">
@@ -58600,7 +58600,7 @@
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO T ANSI 900 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1531" t="inlineStr">
@@ -58638,7 +58638,7 @@
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr">
@@ -58676,7 +58676,7 @@
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr">
@@ -58714,7 +58714,7 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr">
@@ -58752,7 +58752,7 @@
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr">
@@ -58790,7 +58790,7 @@
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1536" t="inlineStr">
@@ -58828,7 +58828,7 @@
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 30 " - 36 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø ENTRE 30" - 36" </t>
         </is>
       </c>
       <c r="F1537" t="inlineStr">
@@ -58866,7 +58866,7 @@
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 150 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr">
@@ -58904,7 +58904,7 @@
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr">
@@ -58942,7 +58942,7 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr">
@@ -58980,7 +58980,7 @@
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr">
@@ -59018,7 +59018,7 @@
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr">
@@ -59056,7 +59056,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1543" t="inlineStr">
@@ -59094,7 +59094,7 @@
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 30 " - 36 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø ENTRE 30" - 36" </t>
         </is>
       </c>
       <c r="F1544" t="inlineStr">
@@ -59132,7 +59132,7 @@
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 300 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr">
@@ -59170,7 +59170,7 @@
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr">
@@ -59208,7 +59208,7 @@
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr">
@@ -59246,7 +59246,7 @@
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr">
@@ -59284,7 +59284,7 @@
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr">
@@ -59322,7 +59322,7 @@
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1550" t="inlineStr">
@@ -59360,7 +59360,7 @@
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 30 " - 36 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø ENTRE 30" - 36" </t>
         </is>
       </c>
       <c r="F1551" t="inlineStr">
@@ -59398,7 +59398,7 @@
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 600 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr">
@@ -59436,7 +59436,7 @@
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø MENORES A 2 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø MENORES A 2"</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr">
@@ -59474,7 +59474,7 @@
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 2 " - 4 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 2" - 4"</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr">
@@ -59512,7 +59512,7 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 6 " - 10 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 6" - 10"</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr">
@@ -59550,7 +59550,7 @@
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 12 " - 18 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 12" - 18"</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr">
@@ -59588,7 +59588,7 @@
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 20 " - 24 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 20" - 24" </t>
         </is>
       </c>
       <c r="F1557" t="inlineStr">
@@ -59626,7 +59626,7 @@
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 30 " - 36 " </t>
+          <t xml:space="preserve">MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø ENTRE 30" - 36" </t>
         </is>
       </c>
       <c r="F1558" t="inlineStr">
@@ -59664,7 +59664,7 @@
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø MAYORES A 36 "</t>
+          <t>MONTAJE DE FILTRO TIPO CANASTA ANSI 900 DE Ø MAYORES A 36"</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr">
@@ -59702,7 +59702,7 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 8 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 8"</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr">
@@ -59740,7 +59740,7 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 10 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 10"</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
@@ -59778,7 +59778,7 @@
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 12 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 12"</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr">
@@ -59816,7 +59816,7 @@
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 14 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 14"</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr">
@@ -59854,7 +59854,7 @@
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 16 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 16"</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr">
@@ -59892,7 +59892,7 @@
       </c>
       <c r="E1565" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 18 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 18"</t>
         </is>
       </c>
       <c r="F1565" t="inlineStr">
@@ -59930,7 +59930,7 @@
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 20 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 20"</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr">
@@ -59968,7 +59968,7 @@
       </c>
       <c r="E1567" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 24 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 24"</t>
         </is>
       </c>
       <c r="F1567" t="inlineStr">
@@ -60006,7 +60006,7 @@
       </c>
       <c r="E1568" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 30 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 30"</t>
         </is>
       </c>
       <c r="F1568" t="inlineStr">
@@ -60044,7 +60044,7 @@
       </c>
       <c r="E1569" t="inlineStr">
         <is>
-          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 36 "</t>
+          <t>TRATAMIENTO TÉRMICO DE SOLDADURA (ALIVIO TÉRMICO) PARA TUBERÍA DE Ø DE 36"</t>
         </is>
       </c>
       <c r="F1569" t="inlineStr">
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>180,33</t>
+          <t>81,7</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,17 +61306,17 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,7 +61348,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2 ", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 12", S-30</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4 ", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-80</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>17,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6 ", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-80</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>127,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,7 +61474,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8 ", S-20</t>
+          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 10"</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
@@ -61484,7 +61484,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,17 +61516,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
+          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 8"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1 1/8"X185MMLG</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X170MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>64,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X150MMLG</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,7 +61978,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -61988,7 +61988,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1/2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,7 +62104,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1/2 ", S-XXS</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
@@ -62114,7 +62114,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,7 +62146,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1½ ", S-160</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
@@ -62156,7 +62156,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,17 +62188,17 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPExTE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 3/4 ", S-160</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,17 +62230,17 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH20 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 4"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1-1/2"X1"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1/2"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6 " X 1/2 "</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4 ", S-30</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 1/2"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8 ", S-20</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1"</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2 ", S-40 X S-30</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 1"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62524,17 +62524,17 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREFABRICACIÓN EN TALLER DE TUBERÍA DE ACERO AL CARBÓN DE Ø 2-1/2" </t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,12 +62566,12 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 3/4"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1632" t="inlineStr">
@@ -62608,17 +62608,17 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -62650,17 +62650,17 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2”</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 10"</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -62692,20 +62692,272 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 12"</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
         <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1635" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1636" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1636" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 8"</t>
+        </is>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1636" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1636" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1637" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1637" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 3"</t>
+        </is>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1637" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1638" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1638" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
+        </is>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1638" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1638" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1639" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1639" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1639" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1640" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+        </is>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1640" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1640" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1641" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -37282,7 +37282,7 @@
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø MENORES A 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F970" t="inlineStr">
@@ -37320,7 +37320,7 @@
       </c>
       <c r="E971" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 2" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F971" t="inlineStr">
@@ -37358,7 +37358,7 @@
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 3" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F972" t="inlineStr">
@@ -37396,7 +37396,7 @@
       </c>
       <c r="E973" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 4" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F973" t="inlineStr">
@@ -37434,7 +37434,7 @@
       </c>
       <c r="E974" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 6" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F974" t="inlineStr">
@@ -37472,7 +37472,7 @@
       </c>
       <c r="E975" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 8" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F975" t="inlineStr">
@@ -37510,7 +37510,7 @@
       </c>
       <c r="E976" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 10" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F976" t="inlineStr">
@@ -37548,7 +37548,7 @@
       </c>
       <c r="E977" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 12" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F977" t="inlineStr">
@@ -37586,7 +37586,7 @@
       </c>
       <c r="E978" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 14" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F978" t="inlineStr">
@@ -37624,7 +37624,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 16" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F979" t="inlineStr">
@@ -37662,7 +37662,7 @@
       </c>
       <c r="E980" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 18" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F980" t="inlineStr">
@@ -37700,7 +37700,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 20" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F981" t="inlineStr">
@@ -37738,7 +37738,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 24" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F982" t="inlineStr">
@@ -37776,7 +37776,7 @@
       </c>
       <c r="E983" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 30" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F983" t="inlineStr">
@@ -37814,7 +37814,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADASDE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
+          <t>DESMANTELAMIENTO CON CORTE EN FRÍO DE TUBERÍAS ENTERRADAS DE ACERO AL CARBÓN, ACERO AL CARBON GALVANIZADO O ACERO INOXIDABLE Y ACCESORIOS DE Ø 36" (INCLUYE TRANSPORTE Y DISPOSICIÓN FINAL)</t>
         </is>
       </c>
       <c r="F984" t="inlineStr">
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>60,85</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>337,956</t>
+          <t>95,26</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="G1003" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>60,85</t>
         </is>
       </c>
       <c r="H1003" t="inlineStr"/>
@@ -39344,7 +39344,7 @@
       </c>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,1958</t>
         </is>
       </c>
       <c r="H1024" t="inlineStr"/>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1641"/>
+  <dimension ref="A1:H1616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H466" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H470" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H473" t="inlineStr"/>
@@ -36342,7 +36342,7 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H945" t="inlineStr"/>
@@ -36456,7 +36456,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H948" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>60,85</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>95,26</t>
+          <t>337,956</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="G1003" t="inlineStr">
         <is>
-          <t>60,85</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1003" t="inlineStr"/>
@@ -39344,7 +39344,7 @@
       </c>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>0,1958</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1024" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>3,472</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39686,7 +39686,7 @@
       </c>
       <c r="G1033" t="inlineStr">
         <is>
-          <t>200,422</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1033" t="inlineStr"/>
@@ -40750,7 +40750,7 @@
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>141,971</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1061" t="inlineStr"/>
@@ -41168,7 +41168,7 @@
       </c>
       <c r="G1072" t="inlineStr">
         <is>
-          <t>3,472</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1072" t="inlineStr"/>
@@ -41320,7 +41320,7 @@
       </c>
       <c r="G1076" t="inlineStr">
         <is>
-          <t>58,451</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1076" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>99,774</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>81,99</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>476,044</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>797,562</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -41928,7 +41928,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>974,52</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -42232,7 +42232,7 @@
       </c>
       <c r="G1100" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1100" t="inlineStr"/>
@@ -42308,7 +42308,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>53,27</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1102" t="inlineStr"/>
@@ -42346,7 +42346,7 @@
       </c>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>3,623</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>34,5</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>132,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>90,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>410,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>554,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>532,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -43334,7 +43334,7 @@
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4512,00</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1159" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>243,6</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>88,2</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>457,275</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>81,7</t>
+          <t>187,94</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61306,17 +61306,17 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 12", S-30</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,17 +61390,17 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-80</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-80</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 10"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 24"</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,17 +61516,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 8"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 8"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1 1/8"X185MMLG</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 24"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X170MMLG</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 8"</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>64,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
+          <t>SUMINISTRO DE GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO, 2"</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO, 6"</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,17 +61726,17 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>13,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,17 +61768,17 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X150MMLG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,17 +61810,17 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,17 +61852,17 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,1070 +61894,20 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>13,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1617">
-      <c r="A1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1617" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1617" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
-        </is>
-      </c>
-      <c r="F1617" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1617" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1617" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1618">
-      <c r="A1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1618" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1618" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
-        </is>
-      </c>
-      <c r="F1618" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1618" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1618" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1619">
-      <c r="A1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1619" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1619" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
-        </is>
-      </c>
-      <c r="F1619" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1619" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1619" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1620">
-      <c r="A1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1620" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1620" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
-        </is>
-      </c>
-      <c r="F1620" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1620" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1620" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1621">
-      <c r="A1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1621" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1621" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
-        </is>
-      </c>
-      <c r="F1621" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1621" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="H1621" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1622">
-      <c r="A1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1622" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1622" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1622" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1622" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H1622" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1623">
-      <c r="A1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1623" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1623" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
-        </is>
-      </c>
-      <c r="F1623" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1623" t="inlineStr">
-        <is>
-          <t>20,00</t>
-        </is>
-      </c>
-      <c r="H1623" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1624">
-      <c r="A1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1624" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1624" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1624" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1624" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H1624" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1625">
-      <c r="A1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1625" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1625" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
-        </is>
-      </c>
-      <c r="F1625" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1625" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1625" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1626">
-      <c r="A1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1626" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1626" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1626" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1626" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1627">
-      <c r="A1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1627" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1627" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1627" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1627" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1628">
-      <c r="A1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1628" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1628" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1628" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1628" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1629">
-      <c r="A1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1629" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1629" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1"</t>
-        </is>
-      </c>
-      <c r="F1629" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1629" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1629" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1630">
-      <c r="A1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1630" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1630" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 1"</t>
-        </is>
-      </c>
-      <c r="F1630" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1630" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1630" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1631">
-      <c r="A1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1631" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1631" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1631" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1631" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1632">
-      <c r="A1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1632" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1632" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 3/4"</t>
-        </is>
-      </c>
-      <c r="F1632" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1632" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1632" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1633">
-      <c r="A1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1633" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
-        </is>
-      </c>
-      <c r="F1633" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1633" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1633" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 10"</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 12"</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 8"</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 3"</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1641" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1641"/>
+  <dimension ref="A1:H1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6664,7 +6664,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H164" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>41,00</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H466" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H470" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H473" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>110,00</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -20610,7 +20610,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H531" t="inlineStr"/>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H684" t="inlineStr"/>
@@ -26462,7 +26462,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H685" t="inlineStr"/>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H686" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1040,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36342,7 +36342,7 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H945" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36456,7 +36456,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>336,00</t>
         </is>
       </c>
       <c r="H948" t="inlineStr"/>
@@ -37862,7 +37862,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>113,162</t>
         </is>
       </c>
       <c r="H985" t="inlineStr"/>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>205,602</t>
         </is>
       </c>
       <c r="H986" t="inlineStr"/>
@@ -37938,7 +37938,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>348,74</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>519,23</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>95,26</t>
+          <t>2559,858</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -38052,7 +38052,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>555,298</t>
+          <t>1666,372</t>
         </is>
       </c>
       <c r="H990" t="inlineStr"/>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="G1003" t="inlineStr">
         <is>
-          <t>60,85</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1003" t="inlineStr"/>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>322,00</t>
+          <t>2032,6</t>
         </is>
       </c>
       <c r="H1017" t="inlineStr"/>
@@ -39116,7 +39116,7 @@
       </c>
       <c r="G1018" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>636,00</t>
         </is>
       </c>
       <c r="H1018" t="inlineStr"/>
@@ -39344,7 +39344,7 @@
       </c>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>0,1958</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1024" t="inlineStr"/>
@@ -39534,7 +39534,7 @@
       </c>
       <c r="G1029" t="inlineStr">
         <is>
-          <t>3,472</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1029" t="inlineStr"/>
@@ -39686,7 +39686,7 @@
       </c>
       <c r="G1033" t="inlineStr">
         <is>
-          <t>200,422</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1033" t="inlineStr"/>
@@ -40750,7 +40750,7 @@
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>141,971</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1061" t="inlineStr"/>
@@ -41168,7 +41168,7 @@
       </c>
       <c r="G1072" t="inlineStr">
         <is>
-          <t>3,472</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1072" t="inlineStr"/>
@@ -41320,7 +41320,7 @@
       </c>
       <c r="G1076" t="inlineStr">
         <is>
-          <t>58,451</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1076" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>99,774</t>
+          <t>136,73</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>729,988</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>549,5</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>81,99</t>
+          <t>1580,54</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -41814,7 +41814,7 @@
       </c>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>13215,62</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr"/>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>476,044</t>
+          <t>1628,56</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>797,562</t>
+          <t>2471,392</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -41928,7 +41928,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>974,52</t>
+          <t>15495,278</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -41966,7 +41966,7 @@
       </c>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>417,012</t>
         </is>
       </c>
       <c r="H1093" t="inlineStr"/>
@@ -42004,7 +42004,7 @@
       </c>
       <c r="G1094" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2519,69</t>
         </is>
       </c>
       <c r="H1094" t="inlineStr"/>
@@ -42232,7 +42232,7 @@
       </c>
       <c r="G1100" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1100" t="inlineStr"/>
@@ -42308,7 +42308,7 @@
       </c>
       <c r="G1102" t="inlineStr">
         <is>
-          <t>53,27</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1102" t="inlineStr"/>
@@ -42346,7 +42346,7 @@
       </c>
       <c r="G1103" t="inlineStr">
         <is>
-          <t>3,623</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1103" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>80,89</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>305,9</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>203,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>308,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1496,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>624,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1264,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -43144,7 +43144,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3090,00</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>49,00</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr"/>
@@ -44284,7 +44284,7 @@
       </c>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>13,00</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>251,91</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>251,91</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>251,91</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>72,31</t>
+          <t>251,91</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>243,6</t>
+          <t>1541,52</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>88,2</t>
+          <t>187,5</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>457,275</t>
+          <t>6828,9375</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57356,7 +57356,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr"/>
@@ -57394,7 +57394,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr"/>
@@ -57432,7 +57432,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>81,7</t>
+          <t>1406,97</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61306,17 +61306,17 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,17 +61348,17 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 12", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1/2"</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,17 +61390,17 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-80</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-20</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-80</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 12", S-20</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 10"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-STD</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,17 +61516,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 8"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 16", S-STD</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1 1/8"X185MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X170MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-30</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>64,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>84,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,17 +61726,17 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>55,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,17 +61768,17 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X150MMLG</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 10", S-20</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>27,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,17 +61810,17 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 12", S-20</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>231,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,17 +61852,17 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 14", S-STD</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,17 +61894,17 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 16", S-STD</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,17 +61936,17 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2", S-80</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>35,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,12 +61978,12 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2", S-30</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1618" t="inlineStr">
@@ -62020,17 +62020,17 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 3", S-30</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>42,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,17 +62062,17 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4", S-30</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>80,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,17 +62104,17 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6", S-40</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>375,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,17 +62146,17 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8", S-20</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>38,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,17 +62188,17 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 10"</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,12 +62230,12 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 12"</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1/2"</t>
+          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE, 16"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X145MMLG</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62366,7 +62366,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 1/2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X150MMLG</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>128,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 1"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>460,00</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X135MMLG</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>444,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 3/4"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 12"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -62608,7 +62608,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 2"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
@@ -62618,7 +62618,7 @@
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -62650,7 +62650,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 10"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -62692,7 +62692,7 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 12"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X8"</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
@@ -62734,7 +62734,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 8"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 4"X3"</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr">
@@ -62744,7 +62744,7 @@
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1636" t="inlineStr">
@@ -62776,7 +62776,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 3"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X3"</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr">
@@ -62818,7 +62818,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr">
@@ -62860,7 +62860,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 14"X8"</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
@@ -62902,17 +62902,17 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 16"X12"</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -62944,20 +62944,3464 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 10"</t>
+        </is>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="H1641" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F1641" t="inlineStr">
+      <c r="B1642" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G1641" t="inlineStr">
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1642" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1642" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 12"</t>
+        </is>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1642" t="inlineStr">
+        <is>
+          <t>36,00</t>
+        </is>
+      </c>
+      <c r="H1642" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1643" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 14"</t>
+        </is>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1643" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1643" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1644" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1644" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 16"</t>
+        </is>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1644" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1645" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1645" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2"</t>
+        </is>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1645" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="H1645" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1646" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1646" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 3"</t>
+        </is>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1646" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="H1646" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1647" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1647" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
+        </is>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1647" t="inlineStr">
+        <is>
+          <t>51,00</t>
+        </is>
+      </c>
+      <c r="H1647" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1648" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
+        </is>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1648" t="inlineStr">
+        <is>
+          <t>122,00</t>
+        </is>
+      </c>
+      <c r="H1648" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1649" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
+        </is>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1649" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="H1649" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 10"</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H1650" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1651" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 12"</t>
+        </is>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H1651" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1652" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 2"</t>
+        </is>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1652" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1652" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1653" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 3"</t>
+        </is>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr">
         <is>
           <t>7,00</t>
         </is>
       </c>
-      <c r="H1641" t="inlineStr">
+      <c r="H1653" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1654" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 4"</t>
+        </is>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1654" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1654" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1655" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
+        </is>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1655" t="inlineStr">
+        <is>
+          <t>22,00</t>
+        </is>
+      </c>
+      <c r="H1655" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1656" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1656" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
+        </is>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1656" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H1656" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1657" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1"</t>
+        </is>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1657" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1657" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1658" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1658" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1/2"</t>
+        </is>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1658" t="inlineStr">
+        <is>
+          <t>36,00</t>
+        </is>
+      </c>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1660" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1660" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED, 1-1/2"</t>
+        </is>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1660" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H1660" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1661" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1661" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED, 2"</t>
+        </is>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1661" t="inlineStr">
+        <is>
+          <t>47,00</t>
+        </is>
+      </c>
+      <c r="H1661" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1662" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1662" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED, 3/4"</t>
+        </is>
+      </c>
+      <c r="F1662" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1662" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1662" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1663" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 BExTE SEAMLESS ASTM A53 GR. B, 2", S-160</t>
+        </is>
+      </c>
+      <c r="F1663" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1663" t="inlineStr">
+        <is>
+          <t>70,00</t>
+        </is>
+      </c>
+      <c r="H1663" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1664" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1664" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 1", S-160</t>
+        </is>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1664" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1664" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1665" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1665" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 3/4", S-160</t>
+        </is>
+      </c>
+      <c r="F1665" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1665" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1665" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1666" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1", S-160</t>
+        </is>
+      </c>
+      <c r="F1666" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1666" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1666" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1667" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1-1/2", S-160</t>
+        </is>
+      </c>
+      <c r="F1667" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1667" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1667" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1668" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 TE SEAMLESS ASTM A53 GR. B, 1-1/2", S-160</t>
+        </is>
+      </c>
+      <c r="F1668" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1668" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1668" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1669" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 TE SEAMLESS ASTM A53 GR. B, 1/2", S-XXS</t>
+        </is>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1669" t="inlineStr">
+        <is>
+          <t>72,00</t>
+        </is>
+      </c>
+      <c r="H1669" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1670" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 TE SEAMLESS ASTM A53 GR. B, 3/4", S-160</t>
+        </is>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1670" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1670" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1671" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1", S-80</t>
+        </is>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1671" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H1671" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1672" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1-1/2", S-80</t>
+        </is>
+      </c>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1672" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H1672" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1673" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1/2", S-160</t>
+        </is>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1673" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1673" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1674" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 3/4", S-80</t>
+        </is>
+      </c>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1674" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1674" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1675" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 10"X 6"</t>
+        </is>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1675" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1675" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1676" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X 10"</t>
+        </is>
+      </c>
+      <c r="F1676" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1676" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1676" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1677" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X 8"</t>
+        </is>
+      </c>
+      <c r="F1677" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1677" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1677" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1678" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1678" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 4"X 2"</t>
+        </is>
+      </c>
+      <c r="F1678" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1678" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="H1678" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1679" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1679" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 3"</t>
+        </is>
+      </c>
+      <c r="F1679" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1679" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1679" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1680" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1680" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
+        </is>
+      </c>
+      <c r="F1680" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1680" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1680" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1681" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1681" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 10"</t>
+        </is>
+      </c>
+      <c r="F1681" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1681" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1681" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1682" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1682" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 12"</t>
+        </is>
+      </c>
+      <c r="F1682" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE REDUCER TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 14"</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
+        </is>
+      </c>
+      <c r="F1684" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1"X1/2"</t>
+        </is>
+      </c>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"</t>
+        </is>
+      </c>
+      <c r="F1689" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1689" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1690" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1690" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 1"</t>
+        </is>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1690" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1690" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1691" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
+        </is>
+      </c>
+      <c r="F1691" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1691" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1691" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1692" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 16" X 3/4"</t>
+        </is>
+      </c>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1692" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1693" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1693" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 1-1/2"</t>
+        </is>
+      </c>
+      <c r="F1693" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1693" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H1693" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1694" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1694" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6" X 3/4"</t>
+        </is>
+      </c>
+      <c r="F1694" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1694" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1694" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 12" X 1/2"</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1696" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 16" X 1/2"</t>
+        </is>
+      </c>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1696" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1696" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1697" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 2" X 1/2"</t>
+        </is>
+      </c>
+      <c r="F1697" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1697" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1697" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1698" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1698" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6" X 1/2"</t>
+        </is>
+      </c>
+      <c r="F1698" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1698" t="inlineStr">
+        <is>
+          <t>34,00</t>
+        </is>
+      </c>
+      <c r="H1698" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1699" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000, 1-1/2"</t>
+        </is>
+      </c>
+      <c r="F1699" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1699" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1699" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1700" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1700" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000, 3/4"</t>
+        </is>
+      </c>
+      <c r="F1700" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1700" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1700" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1701" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1701" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 10", S-20</t>
+        </is>
+      </c>
+      <c r="F1701" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1701" t="inlineStr">
+        <is>
+          <t>24,00</t>
+        </is>
+      </c>
+      <c r="H1701" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1702" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1702" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 12", S-20</t>
+        </is>
+      </c>
+      <c r="F1702" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>31,00</t>
+        </is>
+      </c>
+      <c r="H1702" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1703" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 14", S-STD</t>
+        </is>
+      </c>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1703" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1704" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 16", S-STD</t>
+        </is>
+      </c>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1704" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1704" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1705" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1705" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 3", S-30</t>
+        </is>
+      </c>
+      <c r="F1705" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1705" t="inlineStr">
+        <is>
+          <t>17,00</t>
+        </is>
+      </c>
+      <c r="H1705" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1706" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1706" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-30</t>
+        </is>
+      </c>
+      <c r="F1706" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1706" t="inlineStr">
+        <is>
+          <t>41,00</t>
+        </is>
+      </c>
+      <c r="H1706" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1707" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1707" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-20</t>
+        </is>
+      </c>
+      <c r="F1707" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1707" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="H1707" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1708" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 10" X 2", S-20 X S-80</t>
+        </is>
+      </c>
+      <c r="F1708" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1708" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1708" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1709" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1709" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 2", S-20 X S-80</t>
+        </is>
+      </c>
+      <c r="F1709" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1709" t="inlineStr">
+        <is>
+          <t>7,00</t>
+        </is>
+      </c>
+      <c r="H1709" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1710" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1710" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 2-1/2", S-STD X S-30</t>
+        </is>
+      </c>
+      <c r="F1710" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1710" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H1710" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 3", S-20 X S-30</t>
+        </is>
+      </c>
+      <c r="F1711" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1711" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1712" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 16" X 2", S-STD X S-80</t>
+        </is>
+      </c>
+      <c r="F1712" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1712" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1712" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1713" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2", S-40 X S-80</t>
+        </is>
+      </c>
+      <c r="F1713" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1713" t="inlineStr">
+        <is>
+          <t>23,00</t>
+        </is>
+      </c>
+      <c r="H1713" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-20 X S-80</t>
+        </is>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1714" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1714" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1715" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 12" </t>
+        </is>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1715" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1715" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1716" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1716" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H1716" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1717" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+        </is>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1717" t="inlineStr">
+        <is>
+          <t>55,00</t>
+        </is>
+      </c>
+      <c r="H1717" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1718" t="inlineStr">
+        <is>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2" (SIN PREFABRICAR)</t>
+        </is>
+      </c>
+      <c r="F1718" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1718" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="H1718" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1719" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1719" t="inlineStr">
+        <is>
+          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1719" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="H1719" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1720" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1720" t="inlineStr">
+        <is>
+          <t>8,92</t>
+        </is>
+      </c>
+      <c r="H1720" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1721" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>93,00</t>
+        </is>
+      </c>
+      <c r="H1721" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="H1722" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1723" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1723" t="inlineStr">
+        <is>
+          <t>55,00</t>
+        </is>
+      </c>
+      <c r="H1723" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1723"/>
+  <dimension ref="A1:H1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>23,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8640,7 +8640,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>41,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>27,00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>38,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>81,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>26,00</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H421" t="inlineStr"/>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H460" t="inlineStr"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>63,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18102,7 +18102,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H465" t="inlineStr"/>
@@ -20078,7 +20078,7 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>110,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H517" t="inlineStr"/>
@@ -20610,7 +20610,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H531" t="inlineStr"/>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H684" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>1040,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36456,7 +36456,7 @@
       </c>
       <c r="G948" t="inlineStr">
         <is>
-          <t>336,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H948" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>136,73</t>
+          <t>30,748</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>729,988</t>
+          <t>242,865</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>549,5</t>
+          <t>1156,874</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>1580,54</t>
+          <t>3145,005</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -41814,7 +41814,7 @@
       </c>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>13215,62</t>
+          <t>763,336</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr"/>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>1628,56</t>
+          <t>1423,756</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>2471,392</t>
+          <t>9224,864</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -41928,7 +41928,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>15495,278</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -41966,7 +41966,7 @@
       </c>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>417,012</t>
+          <t>2143,774</t>
         </is>
       </c>
       <c r="H1093" t="inlineStr"/>
@@ -42004,7 +42004,7 @@
       </c>
       <c r="G1094" t="inlineStr">
         <is>
-          <t>2519,69</t>
+          <t>1379,894</t>
         </is>
       </c>
       <c r="H1094" t="inlineStr"/>
@@ -42422,7 +42422,7 @@
       </c>
       <c r="G1105" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="H1105" t="inlineStr"/>
@@ -42460,7 +42460,7 @@
       </c>
       <c r="G1106" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>581,64</t>
         </is>
       </c>
       <c r="H1106" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>80,89</t>
+          <t>36,6</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>305,9</t>
+          <t>82,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>203,00</t>
+          <t>475,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>308,00</t>
+          <t>225,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1496,00</t>
+          <t>539,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>624,00</t>
+          <t>1152,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>1264,00</t>
+          <t>2965,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -43144,7 +43144,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>3090,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr"/>
@@ -43182,7 +43182,7 @@
       </c>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>406,00</t>
         </is>
       </c>
       <c r="H1125" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>49,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr"/>
@@ -44284,7 +44284,7 @@
       </c>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1154" t="inlineStr"/>
@@ -44322,7 +44322,7 @@
       </c>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>251,91</t>
+          <t>359,3</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>251,91</t>
+          <t>359,3</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>251,91</t>
+          <t>359,3</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>251,91</t>
+          <t>359,3</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>1541,52</t>
+          <t>5049,6</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>187,5</t>
+          <t>71,4</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>6828,9375</t>
+          <t>3168,375</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57356,7 +57356,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr"/>
@@ -57432,7 +57432,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>1406,97</t>
+          <t>799,04</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 2"</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,7 +61348,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 6000# FORGED ASTM A105, 1/2"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-20</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-30</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 12", S-20</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-30</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,7 +61474,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
@@ -61484,7 +61484,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 16", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 3"</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,17 +61726,17 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>55,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,17 +61768,17 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 10", S-20</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,17 +61810,17 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 12", S-20</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>231,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,12 +61852,12 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 14", S-STD</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
@@ -61894,17 +61894,17 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 16", S-STD</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>35,00</t>
+          <t>143,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,7 +61978,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 14", S-30</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -61988,7 +61988,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>23,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 3", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 18", S-40</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>42,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,7 +62104,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
@@ -62114,7 +62114,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>375,00</t>
+          <t>76,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,7 +62146,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8", S-20</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
@@ -62156,7 +62156,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>147,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,17 +62188,17 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 10"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6", S-40</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,7 +62230,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 12"</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 1-1/2"</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
@@ -62240,7 +62240,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE 6"</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 10"</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO BLIND FLANGE, CLASS 150, FF, ASTM A105, ASME B16.5. DIAMETRO DE, 16"</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 16"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X145MMLG</t>
+          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 2"</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62366,7 +62366,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X150MMLG</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 2"</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1-1/2"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>460,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X135MMLG</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>444,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 12"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62608,7 +62608,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED, 2"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
@@ -62618,7 +62618,7 @@
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>38,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -62650,7 +62650,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 14"</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -62692,7 +62692,7 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X8"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 16"</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
@@ -62734,7 +62734,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 4"X3"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 14"</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr">
@@ -62776,7 +62776,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X3"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 10"</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr">
@@ -62786,7 +62786,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H1637" t="inlineStr">
@@ -62818,7 +62818,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 2"</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr">
@@ -62860,7 +62860,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 14"X8"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 8"</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr">
@@ -62870,7 +62870,7 @@
       </c>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
@@ -62902,7 +62902,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 16"X12"</t>
+          <t>SUMINISTRO DE GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO, 1/2"</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr">
@@ -62912,7 +62912,7 @@
       </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -62944,7 +62944,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 10"</t>
+          <t>SUMINISTRO DE GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO, 3/4"</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr">
@@ -62954,7 +62954,7 @@
       </c>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -62986,7 +62986,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 12"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1/2", S-80</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr">
@@ -62996,7 +62996,7 @@
       </c>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -63028,7 +63028,7 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 14"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr">
@@ -63038,7 +63038,7 @@
       </c>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -63070,17 +63070,17 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 16"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
@@ -63112,17 +63112,17 @@
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1-1/2", S-80</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -63154,17 +63154,17 @@
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 3"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
@@ -63196,17 +63196,17 @@
       </c>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>51,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -63238,7 +63238,7 @@
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 6"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X 8"</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr">
@@ -63248,7 +63248,7 @@
       </c>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>122,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1648" t="inlineStr">
@@ -63280,7 +63280,7 @@
       </c>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 8"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 10"X 6"</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr">
@@ -63290,7 +63290,7 @@
       </c>
       <c r="G1649" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1649" t="inlineStr">
@@ -63322,7 +63322,7 @@
       </c>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 10"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 10"</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr">
@@ -63332,7 +63332,7 @@
       </c>
       <c r="G1650" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1650" t="inlineStr">
@@ -63364,7 +63364,7 @@
       </c>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 12"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 14"</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr">
@@ -63374,7 +63374,7 @@
       </c>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
@@ -63406,7 +63406,7 @@
       </c>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr">
@@ -63416,7 +63416,7 @@
       </c>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
@@ -63448,7 +63448,7 @@
       </c>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 3"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1-1/2"</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr">
@@ -63458,7 +63458,7 @@
       </c>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
@@ -63490,7 +63490,7 @@
       </c>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 4"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr">
@@ -63500,7 +63500,7 @@
       </c>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
@@ -63532,7 +63532,7 @@
       </c>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 16" X 3/4"</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr">
@@ -63542,7 +63542,7 @@
       </c>
       <c r="G1655" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1655" t="inlineStr">
@@ -63574,7 +63574,7 @@
       </c>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1/2"</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr">
@@ -63584,7 +63584,7 @@
       </c>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1656" t="inlineStr">
@@ -63616,7 +63616,7 @@
       </c>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4" X 3/4"</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr">
@@ -63626,7 +63626,7 @@
       </c>
       <c r="G1657" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1657" t="inlineStr">
@@ -63658,7 +63658,7 @@
       </c>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 1/2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr">
@@ -63668,7 +63668,7 @@
       </c>
       <c r="G1658" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1658" t="inlineStr">
@@ -63700,7 +63700,7 @@
       </c>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr">
@@ -63710,7 +63710,7 @@
       </c>
       <c r="G1659" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1659" t="inlineStr">
@@ -63742,7 +63742,7 @@
       </c>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED, 1-1/2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr">
@@ -63752,7 +63752,7 @@
       </c>
       <c r="G1660" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>46,00</t>
         </is>
       </c>
       <c r="H1660" t="inlineStr">
@@ -63784,7 +63784,7 @@
       </c>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED, 2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 14"</t>
         </is>
       </c>
       <c r="F1661" t="inlineStr">
@@ -63794,7 +63794,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>47,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1661" t="inlineStr">
@@ -63826,7 +63826,7 @@
       </c>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED, 3/4"</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 40, RF, ASTM A-105, ASME B16.5 16"</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr">
@@ -63836,7 +63836,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1662" t="inlineStr">
@@ -63868,7 +63868,7 @@
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 BExTE SEAMLESS ASTM A53 GR. B, 2", S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 10" X 2", S-30 X S-40</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr">
@@ -63878,7 +63878,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>70,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -63910,7 +63910,7 @@
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 1", S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 10" X 3", S-30 X S-40</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr">
@@ -63952,7 +63952,7 @@
       </c>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A53 GR. B, 3/4", S-160</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-20 X S-40</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr">
@@ -63962,7 +63962,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -63994,17 +63994,17 @@
       </c>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1", S-160</t>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -64036,17 +64036,17 @@
       </c>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PExTE SEAMLESS ASTM A53 GR. B, 1-1/2", S-160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="H1667" t="inlineStr">
@@ -64078,17 +64078,17 @@
       </c>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 TE SEAMLESS ASTM A53 GR. B, 1-1/2", S-160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="H1668" t="inlineStr">
@@ -64120,17 +64120,17 @@
       </c>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 TE SEAMLESS ASTM A53 GR. B, 1/2", S-XXS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>72,00</t>
+          <t>23,00</t>
         </is>
       </c>
       <c r="H1669" t="inlineStr">
@@ -64162,2246 +64162,20 @@
       </c>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 TE SEAMLESS ASTM A53 GR. B, 3/4", S-160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1670" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1671">
-      <c r="A1671" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1671" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1671" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1671" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1671" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1", S-80</t>
-        </is>
-      </c>
-      <c r="F1671" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1671" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="H1671" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1672">
-      <c r="A1672" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1672" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1672" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1672" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1672" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1-1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1672" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1672" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H1672" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1673">
-      <c r="A1673" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1673" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1673" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1673" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1673" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 1/2", S-160</t>
-        </is>
-      </c>
-      <c r="F1673" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1673" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1673" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1674">
-      <c r="A1674" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1674" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1674" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1674" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1674" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1674" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1674" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1674" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1675">
-      <c r="A1675" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1675" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1675" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1675" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1675" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 10"X 6"</t>
-        </is>
-      </c>
-      <c r="F1675" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1675" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1675" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1676">
-      <c r="A1676" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1676" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1676" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1676" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1676" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X 10"</t>
-        </is>
-      </c>
-      <c r="F1676" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1676" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1676" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1677">
-      <c r="A1677" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1677" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1677" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1677" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1677" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X 8"</t>
-        </is>
-      </c>
-      <c r="F1677" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1677" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1677" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1678">
-      <c r="A1678" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1678" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1678" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1678" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1678" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 80, BW, ASTM A-234 GR WPB, ASME B16.9 4"X 2"</t>
-        </is>
-      </c>
-      <c r="F1678" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1678" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="H1678" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1679">
-      <c r="A1679" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1679" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1679" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1679" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1679" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 3"</t>
-        </is>
-      </c>
-      <c r="F1679" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1679" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1679" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1680">
-      <c r="A1680" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1680" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1680" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1680" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1680" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 4"</t>
-        </is>
-      </c>
-      <c r="F1680" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1680" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1680" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1681">
-      <c r="A1681" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1681" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1681" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1681" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1681" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 10"</t>
-        </is>
-      </c>
-      <c r="F1681" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1681" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1681" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1682">
-      <c r="A1682" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1682" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1682" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1682" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1682" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 12"</t>
-        </is>
-      </c>
-      <c r="F1682" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1682" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1682" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1683">
-      <c r="A1683" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1683" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1683" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1683" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1683" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 14"</t>
-        </is>
-      </c>
-      <c r="F1683" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1683" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1683" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1684">
-      <c r="A1684" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1684" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1684" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1684" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1684" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1684" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1684" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1684" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1685">
-      <c r="A1685" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1685" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1685" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1685" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1685" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1"X1/2"</t>
-        </is>
-      </c>
-      <c r="F1685" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1685" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1685" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1686">
-      <c r="A1686" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1686" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1686" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1686" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1686" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"</t>
-        </is>
-      </c>
-      <c r="F1686" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1686" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="H1686" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1687">
-      <c r="A1687" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1687" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1687" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1687" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1687" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
-        </is>
-      </c>
-      <c r="F1687" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1687" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1687" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1688">
-      <c r="A1688" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1688" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1688" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1688" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1688" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
-        </is>
-      </c>
-      <c r="F1688" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1688" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1688" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1689">
-      <c r="A1689" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1689" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1689" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1689" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1689" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"</t>
-        </is>
-      </c>
-      <c r="F1689" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1689" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1689" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1690">
-      <c r="A1690" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1690" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1690" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1690" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1690" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 1"</t>
-        </is>
-      </c>
-      <c r="F1690" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1690" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1690" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1691">
-      <c r="A1691" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1691" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1691" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1691" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1691" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1691" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1691" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1691" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1692">
-      <c r="A1692" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1692" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1692" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1692" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 16" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1692" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1692" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1692" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1693">
-      <c r="A1693" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1693" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1693" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1693" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 1-1/2"</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1693" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H1693" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1694">
-      <c r="A1694" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1694" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1694" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1694" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1694" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1694" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1694" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1694" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1695">
-      <c r="A1695" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1695" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1695" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1695" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1695" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 12" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1695" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1695" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1695" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1696" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1696" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1696" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1696" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 16" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1696" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1696" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1697" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1697" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1697" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1697" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 2" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1697" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1697" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1698">
-      <c r="A1698" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1698" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1698" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE THREADOLET MSS SP-97 BW X SW 6000# FORGED ASTM A105, 6" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1698" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>34,00</t>
-        </is>
-      </c>
-      <c r="H1698" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1699">
-      <c r="A1699" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1699" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1699" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1699" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000, 1-1/2"</t>
-        </is>
-      </c>
-      <c r="F1699" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1699" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1700">
-      <c r="A1700" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1700" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1700" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1700" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1700" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000, 3/4"</t>
-        </is>
-      </c>
-      <c r="F1700" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1700" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1701">
-      <c r="A1701" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1701" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1701" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1701" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 10", S-20</t>
-        </is>
-      </c>
-      <c r="F1701" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
-      </c>
-      <c r="H1701" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1702">
-      <c r="A1702" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1702" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1702" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1702" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 12", S-20</t>
-        </is>
-      </c>
-      <c r="F1702" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1702" t="inlineStr">
-        <is>
-          <t>31,00</t>
-        </is>
-      </c>
-      <c r="H1702" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1703">
-      <c r="A1703" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1703" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1703" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1703" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 14", S-STD</t>
-        </is>
-      </c>
-      <c r="F1703" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1703" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1703" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1704">
-      <c r="A1704" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1704" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1704" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1704" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1704" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 16", S-STD</t>
-        </is>
-      </c>
-      <c r="F1704" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1704" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1704" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1705">
-      <c r="A1705" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1705" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1705" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1705" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1705" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 3", S-30</t>
-        </is>
-      </c>
-      <c r="F1705" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1705" t="inlineStr">
-        <is>
-          <t>17,00</t>
-        </is>
-      </c>
-      <c r="H1705" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1706">
-      <c r="A1706" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1706" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1706" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1706" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1706" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-30</t>
-        </is>
-      </c>
-      <c r="F1706" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1706" t="inlineStr">
-        <is>
-          <t>41,00</t>
-        </is>
-      </c>
-      <c r="H1706" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1707">
-      <c r="A1707" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1707" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1707" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1707" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1707" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-20</t>
-        </is>
-      </c>
-      <c r="F1707" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1707" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="H1707" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1708">
-      <c r="A1708" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1708" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1708" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1708" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1708" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 10" X 2", S-20 X S-80</t>
-        </is>
-      </c>
-      <c r="F1708" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1708" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1708" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1709">
-      <c r="A1709" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1709" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1709" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1709" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1709" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 2", S-20 X S-80</t>
-        </is>
-      </c>
-      <c r="F1709" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1709" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1709" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1710">
-      <c r="A1710" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1710" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1710" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1710" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1710" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 2-1/2", S-STD X S-30</t>
-        </is>
-      </c>
-      <c r="F1710" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1710" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="H1710" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1711">
-      <c r="A1711" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1711" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1711" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1711" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 12" X 3", S-20 X S-30</t>
-        </is>
-      </c>
-      <c r="F1711" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1711" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1711" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1712">
-      <c r="A1712" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1712" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1712" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1712" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1712" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 16" X 2", S-STD X S-80</t>
-        </is>
-      </c>
-      <c r="F1712" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1712" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1712" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1713">
-      <c r="A1713" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1713" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1713" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1713" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1713" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2", S-40 X S-80</t>
-        </is>
-      </c>
-      <c r="F1713" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1713" t="inlineStr">
-        <is>
-          <t>23,00</t>
-        </is>
-      </c>
-      <c r="H1713" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1714">
-      <c r="A1714" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1714" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1714" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1714" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1714" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-20 X S-80</t>
-        </is>
-      </c>
-      <c r="F1714" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1714" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1714" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1715">
-      <c r="A1715" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1715" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1715" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1715" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1715" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SUMINISTRO DE FILTROS TIPO Y ANSI 150 DE Ø 12" </t>
-        </is>
-      </c>
-      <c r="F1715" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1715" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1715" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1716">
-      <c r="A1716" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1716" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1716" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1716" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1716" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
-        </is>
-      </c>
-      <c r="F1716" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1716" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="H1716" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1717">
-      <c r="A1717" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1717" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1717" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1717" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1717" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
-        </is>
-      </c>
-      <c r="F1717" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1717" t="inlineStr">
-        <is>
-          <t>55,00</t>
-        </is>
-      </c>
-      <c r="H1717" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1718" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1718" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1718" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1718" t="inlineStr">
-        <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2" (SIN PREFABRICAR)</t>
-        </is>
-      </c>
-      <c r="F1718" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1718" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="H1718" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1719" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1719" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1719" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1719" t="inlineStr">
-        <is>
-          <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
-        </is>
-      </c>
-      <c r="F1719" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1719" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="H1719" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1720" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1720" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1720" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1720" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1720" t="inlineStr">
-        <is>
-          <t>8,92</t>
-        </is>
-      </c>
-      <c r="H1720" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1721" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1721" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1721" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1721" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1721" t="inlineStr">
-        <is>
-          <t>93,00</t>
-        </is>
-      </c>
-      <c r="H1721" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1722" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1722" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1722" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1722" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1722" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1722" t="inlineStr">
-        <is>
-          <t>27,00</t>
-        </is>
-      </c>
-      <c r="H1722" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1723" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1723" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1723" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1723" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1723" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1723" t="inlineStr">
-        <is>
-          <t>55,00</t>
-        </is>
-      </c>
-      <c r="H1723" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1670"/>
+  <dimension ref="A1:H1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37862,7 +37862,7 @@
       </c>
       <c r="G985" t="inlineStr">
         <is>
-          <t>113,162</t>
+          <t>30,748</t>
         </is>
       </c>
       <c r="H985" t="inlineStr"/>
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G986" t="inlineStr">
         <is>
-          <t>205,602</t>
+          <t>242,865</t>
         </is>
       </c>
       <c r="H986" t="inlineStr"/>
@@ -37938,7 +37938,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>348,74</t>
+          <t>819,694</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -37976,7 +37976,7 @@
       </c>
       <c r="G988" t="inlineStr">
         <is>
-          <t>519,23</t>
+          <t>2758,325</t>
         </is>
       </c>
       <c r="H988" t="inlineStr"/>
@@ -38014,7 +38014,7 @@
       </c>
       <c r="G989" t="inlineStr">
         <is>
-          <t>2559,858</t>
+          <t>1131,336</t>
         </is>
       </c>
       <c r="H989" t="inlineStr"/>
@@ -38052,7 +38052,7 @@
       </c>
       <c r="G990" t="inlineStr">
         <is>
-          <t>1666,372</t>
+          <t>1423,756</t>
         </is>
       </c>
       <c r="H990" t="inlineStr"/>
@@ -38090,7 +38090,7 @@
       </c>
       <c r="G991" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5497,664</t>
         </is>
       </c>
       <c r="H991" t="inlineStr"/>
@@ -38166,7 +38166,7 @@
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2143,774</t>
         </is>
       </c>
       <c r="H993" t="inlineStr"/>
@@ -38204,7 +38204,7 @@
       </c>
       <c r="G994" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1379,894</t>
         </is>
       </c>
       <c r="H994" t="inlineStr"/>
@@ -38622,7 +38622,7 @@
       </c>
       <c r="G1005" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="H1005" t="inlineStr"/>
@@ -38660,7 +38660,7 @@
       </c>
       <c r="G1006" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>581,64</t>
         </is>
       </c>
       <c r="H1006" t="inlineStr"/>
@@ -39078,7 +39078,7 @@
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>2032,6</t>
+          <t>612,6</t>
         </is>
       </c>
       <c r="H1017" t="inlineStr"/>
@@ -39116,7 +39116,7 @@
       </c>
       <c r="G1018" t="inlineStr">
         <is>
-          <t>636,00</t>
+          <t>1727,00</t>
         </is>
       </c>
       <c r="H1018" t="inlineStr"/>
@@ -39154,7 +39154,7 @@
       </c>
       <c r="G1019" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2359,00</t>
         </is>
       </c>
       <c r="H1019" t="inlineStr"/>
@@ -39192,7 +39192,7 @@
       </c>
       <c r="G1020" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1182,00</t>
         </is>
       </c>
       <c r="H1020" t="inlineStr"/>
@@ -39344,7 +39344,7 @@
       </c>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,6245</t>
         </is>
       </c>
       <c r="H1024" t="inlineStr"/>
@@ -64046,7 +64046,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="H1667" t="inlineStr">
@@ -64088,7 +64088,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>23,00</t>
         </is>
       </c>
       <c r="H1668" t="inlineStr">
@@ -64130,52 +64130,10 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>23,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1669" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1670">
-      <c r="A1670" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1670" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1670" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1670" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1670" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1670" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1670" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="H1670" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1669"/>
+  <dimension ref="A1:H1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>23,00</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -64008,132 +64008,6 @@
         </is>
       </c>
       <c r="H1666" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1667">
-      <c r="A1667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1667" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1667" t="inlineStr">
-        <is>
-          <t>36,00</t>
-        </is>
-      </c>
-      <c r="H1667" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1668">
-      <c r="A1668" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1668" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1668" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1668" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1668" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1668" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1668" t="inlineStr">
-        <is>
-          <t>23,00</t>
-        </is>
-      </c>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1669">
-      <c r="A1669" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1669" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1669" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1669" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1669" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F1669" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1669" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="H1669" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1666"/>
+  <dimension ref="A1:H1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>81,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>26,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
@@ -16430,7 +16430,7 @@
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H421" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H460" t="inlineStr"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>25,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>63,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18102,7 +18102,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H465" t="inlineStr"/>
@@ -26424,7 +26424,7 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H684" t="inlineStr"/>
@@ -26462,7 +26462,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H685" t="inlineStr"/>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H686" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>30,748</t>
+          <t>86,463</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>242,865</t>
+          <t>6,795</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>1156,874</t>
+          <t>87,6</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>3145,005</t>
+          <t>103,765</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -41814,7 +41814,7 @@
       </c>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>763,336</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr"/>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>1423,756</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>9224,864</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -41966,7 +41966,7 @@
       </c>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>2143,774</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1093" t="inlineStr"/>
@@ -42004,7 +42004,7 @@
       </c>
       <c r="G1094" t="inlineStr">
         <is>
-          <t>1379,894</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1094" t="inlineStr"/>
@@ -42422,7 +42422,7 @@
       </c>
       <c r="G1105" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1105" t="inlineStr"/>
@@ -42460,7 +42460,7 @@
       </c>
       <c r="G1106" t="inlineStr">
         <is>
-          <t>581,64</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1106" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>36,6</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>82,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>475,00</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>225,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>539,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>1152,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>2965,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -43182,7 +43182,7 @@
       </c>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>406,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1125" t="inlineStr"/>
@@ -44018,7 +44018,7 @@
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr"/>
@@ -44322,7 +44322,7 @@
       </c>
       <c r="G1155" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1155" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>359,3</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>359,3</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>359,3</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>359,3</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>23,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>5049,6</t>
+          <t>132,00</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>71,4</t>
+          <t>103,2</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>3168,375</t>
+          <t>39,6375</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -55418,7 +55418,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr"/>
@@ -57356,7 +57356,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr"/>
@@ -57394,7 +57394,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>799,04</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1/2"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>11,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 2"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,7 +61348,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-30</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-30</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,17 +61516,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 1"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>44,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 3"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
+          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 2"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
+          <t>SUMINISTRO DE LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8, 1/2"</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,7 +61810,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 3"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -61820,7 +61820,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11-1/2"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61936,17 +61936,17 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>143,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,17 +61978,17 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 14", S-30</t>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 1"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>23,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,17 +62020,17 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 18", S-40</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1/2"</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,17 +62062,17 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
+          <t>SUMINISTRO DE GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 3/4"</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>25,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,17 +62104,17 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>76,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,17 +62146,17 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>147,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,7 +62188,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
@@ -62198,7 +62198,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,17 +62230,17 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 1-1/2"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,17 +62272,17 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 10"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 16"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 1"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 3/4"</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4" X 1"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4" X 3/4"</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1-1/2"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 150, RF, ASTM A105, ASME B16.5, 1/2"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 40 X SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 2"X1"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X8"</t>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1-1/2"X1"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -62608,1406 +62608,20 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 14"</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 16"</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 14"</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 10"</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>11,00</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 2"</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 8"</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO, 1/2"</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO, 3/4"</t>
-        </is>
-      </c>
-      <c r="F1641" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>9,00</t>
-        </is>
-      </c>
-      <c r="H1641" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1642" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1642" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1643" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1643" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
-        </is>
-      </c>
-      <c r="F1644" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1644" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1-1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1646" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"X 8"</t>
-        </is>
-      </c>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>9,00</t>
-        </is>
-      </c>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 10"X 6"</t>
-        </is>
-      </c>
-      <c r="F1649" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 10"</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1650" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1651">
-      <c r="A1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1651" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1651" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 14"</t>
-        </is>
-      </c>
-      <c r="F1651" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1651" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1651" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1652">
-      <c r="A1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1652" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1652" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
-        </is>
-      </c>
-      <c r="F1652" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1652" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1652" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1653">
-      <c r="A1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1653" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1653" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1-1/2"</t>
-        </is>
-      </c>
-      <c r="F1653" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1653" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1653" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1654">
-      <c r="A1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1654" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1654" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1654" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1654" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1654" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1655">
-      <c r="A1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1655" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1655" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 16" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1655" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1655" t="inlineStr">
-        <is>
-          <t>5,00</t>
-        </is>
-      </c>
-      <c r="H1655" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1656">
-      <c r="A1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1656" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1/2"</t>
-        </is>
-      </c>
-      <c r="F1656" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1656" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1656" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1657">
-      <c r="A1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1657" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1657" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1657" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1657" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1657" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1658">
-      <c r="A1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1658" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1658" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1658" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1658" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1658" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1659">
-      <c r="A1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1659" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
-        </is>
-      </c>
-      <c r="F1659" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1659" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1659" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1660">
-      <c r="A1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1660" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1660" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
-        </is>
-      </c>
-      <c r="F1660" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1660" t="inlineStr">
-        <is>
-          <t>46,00</t>
-        </is>
-      </c>
-      <c r="H1660" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1661">
-      <c r="A1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1661" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 14"</t>
-        </is>
-      </c>
-      <c r="F1661" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1661" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1661" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1662">
-      <c r="A1662" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1662" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1662" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1662" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1662" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 40, RF, ASTM A-105, ASME B16.5 16"</t>
-        </is>
-      </c>
-      <c r="F1662" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1662" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1662" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1663">
-      <c r="A1663" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1663" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1663" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1663" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1663" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 10" X 2", S-30 X S-40</t>
-        </is>
-      </c>
-      <c r="F1663" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1663" t="inlineStr">
-        <is>
-          <t>11,00</t>
-        </is>
-      </c>
-      <c r="H1663" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1664">
-      <c r="A1664" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1664" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1664" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1664" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1664" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 10" X 3", S-30 X S-40</t>
-        </is>
-      </c>
-      <c r="F1664" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1664" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1664" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1665">
-      <c r="A1665" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1665" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1665" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1665" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1665" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-20 X S-40</t>
-        </is>
-      </c>
-      <c r="F1665" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1665" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1665" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1666">
-      <c r="A1666" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1666" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1666" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1666" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1666" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
-        </is>
-      </c>
-      <c r="F1666" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1666" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="H1666" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1616"/>
+  <dimension ref="A1:H1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -8982,7 +8982,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
@@ -9666,7 +9666,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17874,7 +17874,7 @@
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -26462,7 +26462,7 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H685" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>86,463</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,795</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>87,6</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>103,765</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>34,5</t>
+          <t>35,1</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>132,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>90,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>410,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43068,7 +43068,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>554,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>532,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -43334,7 +43334,7 @@
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>4512,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr"/>
@@ -44018,7 +44018,7 @@
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44208,7 +44208,7 @@
       </c>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1152" t="inlineStr"/>
@@ -44246,7 +44246,7 @@
       </c>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1153" t="inlineStr"/>
@@ -44474,7 +44474,7 @@
       </c>
       <c r="G1159" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1159" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>132,00</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>103,2</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>39,6375</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -55418,7 +55418,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr"/>
@@ -57356,7 +57356,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1498" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>187,94</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1/2"</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,7 +61432,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -61442,7 +61442,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 24"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,17 +61516,17 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 8"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 24"</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 1"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61568,7 +61568,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 8"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>44,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO, 2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO, 6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,17 +61726,17 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 2"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,17 +61768,17 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8, 1/2"</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,17 +61810,17 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 3"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -61852,17 +61852,17 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,20 +61894,818 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11-1/2"</t>
+        </is>
+      </c>
+      <c r="F1616" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1616" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1616" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F1616" t="inlineStr">
+      <c r="B1617" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G1616" t="inlineStr">
-        <is>
-          <t>13,00</t>
-        </is>
-      </c>
-      <c r="H1616" t="inlineStr">
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1617" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1617" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
+        </is>
+      </c>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1617" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="H1617" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1618" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1618" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SPECTACLE BLIND F8S ASME B16.48 WAFER JOINT TYPE 150 LB RAISED FACE FROM PLATE ASTM A516 GRADE 70, 1"</t>
+        </is>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1618" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1618" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1619" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1619" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1/2"</t>
+        </is>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1619" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1619" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1620" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1620" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO, 3/4"</t>
+        </is>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1620" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1620" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1621" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1621" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
+        </is>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1621" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1621" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1622" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1622" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
+        </is>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1622" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="H1622" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>11,00</t>
+        </is>
+      </c>
+      <c r="H1623" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1624" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
+        </is>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1624" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1624" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1625" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1625" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
+        </is>
+      </c>
+      <c r="F1625" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G1625" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1625" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1626" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 1"</t>
+        </is>
+      </c>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1626" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1626" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1627" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1627" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 3/4"</t>
+        </is>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1627" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="H1627" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1628" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4" X 1"</t>
+        </is>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1628" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1628" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1629" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 4" X 3/4"</t>
+        </is>
+      </c>
+      <c r="F1629" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1629" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1629" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1630" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1630" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 150, RF, ASTM A105, ASME B16.5, 1/2"</t>
+        </is>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1630" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1630" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1631" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1631" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 40 X SCH 80, BWXPE, ASTM A-234 GR WCB, MSS SP-95 2"X1"</t>
+        </is>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1631" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1631" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1632" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1632" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE CONC. SWAGE, SCH 80 X SCH 80, PEXPE, ASTM A-234 GR WCB, MSS SP-95 1-1/2"X1"</t>
+        </is>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1632" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1632" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1633" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+        </is>
+      </c>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1633" t="inlineStr">
+        <is>
+          <t>9,00</t>
+        </is>
+      </c>
+      <c r="H1633" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1634" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1634" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr">
+        <is>
+          <t>15,00</t>
+        </is>
+      </c>
+      <c r="H1635" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1650"/>
+  <dimension ref="A1:H1635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>26,00</t>
         </is>
       </c>
       <c r="H197" t="inlineStr"/>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
@@ -9552,7 +9552,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
@@ -10274,7 +10274,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
@@ -13200,7 +13200,7 @@
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
@@ -13314,7 +13314,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H422" t="inlineStr"/>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H423" t="inlineStr"/>
@@ -17836,7 +17836,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H458" t="inlineStr"/>
@@ -17950,7 +17950,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H461" t="inlineStr"/>
@@ -17988,7 +17988,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>11,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H462" t="inlineStr"/>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H463" t="inlineStr"/>
@@ -18064,7 +18064,7 @@
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H466" t="inlineStr"/>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H467" t="inlineStr"/>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
@@ -18330,7 +18330,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H471" t="inlineStr"/>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H472" t="inlineStr"/>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H473" t="inlineStr"/>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H566" t="inlineStr"/>
@@ -26500,7 +26500,7 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H686" t="inlineStr"/>
@@ -36114,7 +36114,7 @@
       </c>
       <c r="G939" t="inlineStr">
         <is>
-          <t>40,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H939" t="inlineStr"/>
@@ -36342,7 +36342,7 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="H945" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -36418,7 +36418,7 @@
       </c>
       <c r="G947" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H947" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>45,428</t>
+          <t>168,75</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>38,28</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41738,7 +41738,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>382,418</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -41776,7 +41776,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>84,713</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -41814,7 +41814,7 @@
       </c>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>853,644</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr"/>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>76,204</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2803,726</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -41928,7 +41928,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>275,42</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>31,1</t>
+          <t>54,9</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -42916,7 +42916,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>54,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -42954,7 +42954,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>147,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -42992,7 +42992,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>93,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>768,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -44018,7 +44018,7 @@
       </c>
       <c r="G1147" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1147" t="inlineStr"/>
@@ -44056,7 +44056,7 @@
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1148" t="inlineStr"/>
@@ -44094,7 +44094,7 @@
       </c>
       <c r="G1149" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1149" t="inlineStr"/>
@@ -44132,7 +44132,7 @@
       </c>
       <c r="G1150" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1150" t="inlineStr"/>
@@ -44170,7 +44170,7 @@
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1151" t="inlineStr"/>
@@ -44588,7 +44588,7 @@
       </c>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr"/>
@@ -44626,7 +44626,7 @@
       </c>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1163" t="inlineStr"/>
@@ -44816,7 +44816,7 @@
       </c>
       <c r="G1168" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1168" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>46,79</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>46,79</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>46,79</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>28,04</t>
+          <t>46,79</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47514,7 +47514,7 @@
       </c>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>11,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1239" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>639,6</t>
+          <t>832,8</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>53,1</t>
+          <t>135,3</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>217,6125</t>
+          <t>357,00</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -57394,7 +57394,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>56,96</t>
+          <t>124,57</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61222,7 +61222,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 3"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
@@ -61274,7 +61274,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW FEMALE END ASME B16.11 SW 3000# FORGED ASTM A105, 1/2"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-20</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,7 +61348,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 2", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>11,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
+          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 10"</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,12 +61516,12 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 3"</t>
+          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 12"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1607" t="inlineStr">
@@ -61558,7 +61558,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
+          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 10"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -61600,7 +61600,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 6"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1 1/8"X185MMLG</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -61610,7 +61610,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -61642,7 +61642,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X170MMLG</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>288,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1-1/2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1/2"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61768,7 +61768,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X150MMLG</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61810,12 +61810,12 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1614" t="inlineStr">
@@ -61852,17 +61852,17 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
+          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,12 +61894,12 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1616" t="inlineStr">
@@ -61936,12 +61936,12 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6", S-40</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1617" t="inlineStr">
@@ -61978,7 +61978,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 150 LB RAISED FACE FORGED ASTM A105, 1"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -61988,7 +61988,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 10"</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,7 +62104,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X125MMLG</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
@@ -62114,7 +62114,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>17,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,17 +62146,17 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X135MMLG</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,17 +62188,17 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>76,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,17 +62230,17 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CAP, SCH 40, SMLS, BW, ASTM A234 GR. WPB, ASME B16.9, 3"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8, 1/2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 3"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62366,7 +62366,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 4"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 2"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 1"</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 3/4"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11-1/2"</t>
+          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 10"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>21,00</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -62608,7 +62608,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS PIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 1/2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 12"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
@@ -62650,7 +62650,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 2"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 8"</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
@@ -62660,7 +62660,7 @@
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -62692,650 +62692,20 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 3"</t>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1635" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1636">
-      <c r="A1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1636" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
-        </is>
-      </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1636" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1636" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1637">
-      <c r="A1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1637" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1637" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1-1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1637" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1637" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1637" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1638">
-      <c r="A1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1638" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1638" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1638" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1638" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1639">
-      <c r="A1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1639" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1639" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1639" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1640">
-      <c r="A1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1640" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1640" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
-        </is>
-      </c>
-      <c r="F1640" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1640" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1641">
-      <c r="A1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1641" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1641" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
-        </is>
-      </c>
-      <c r="F1641" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G1641" t="inlineStr">
-        <is>
-          <t>7,00</t>
-        </is>
-      </c>
-      <c r="H1641" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1642">
-      <c r="A1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1642" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1642" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE REDUCER TEE, CLASS 3000, SW, ASTM A105, ASME B.16.11, DIAM. 3/4"X1/2"</t>
-        </is>
-      </c>
-      <c r="F1642" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1642" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1642" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1643">
-      <c r="A1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1643" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1643" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 3" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1643" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1643" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="H1643" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1644">
-      <c r="A1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1644" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6" X 1-1/2"</t>
-        </is>
-      </c>
-      <c r="F1644" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1644" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1644" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1645">
-      <c r="A1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1645" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1645" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 6" X 3/4"</t>
-        </is>
-      </c>
-      <c r="F1645" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1645" t="inlineStr">
-        <is>
-          <t>5,00</t>
-        </is>
-      </c>
-      <c r="H1645" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1646">
-      <c r="A1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1646" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 150, RF, ASTM A105, ASME B16.5, 1/2"</t>
-        </is>
-      </c>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1646" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="H1646" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1647">
-      <c r="A1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1647" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1647" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 2"</t>
-        </is>
-      </c>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1647" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1647" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1648">
-      <c r="A1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1648" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 4"</t>
-        </is>
-      </c>
-      <c r="F1648" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1648" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1648" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1649">
-      <c r="A1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1649" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1649" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 80, RF, ASTM A-105, ASME B16.5 6"</t>
-        </is>
-      </c>
-      <c r="F1649" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1649" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="H1649" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1650">
-      <c r="A1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1650" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
-        </is>
-      </c>
-      <c r="F1650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1650" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="H1650" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1635"/>
+  <dimension ref="A1:H1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36342,7 +36342,7 @@
       </c>
       <c r="G945" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H945" t="inlineStr"/>
@@ -36380,7 +36380,7 @@
       </c>
       <c r="G946" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H946" t="inlineStr"/>
@@ -41662,7 +41662,7 @@
       </c>
       <c r="G1085" t="inlineStr">
         <is>
-          <t>168,75</t>
+          <t>169,492</t>
         </is>
       </c>
       <c r="H1085" t="inlineStr"/>
@@ -41700,7 +41700,7 @@
       </c>
       <c r="G1086" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1086" t="inlineStr"/>
@@ -41852,7 +41852,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>76,204</t>
+          <t>68,332</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -41890,7 +41890,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>2803,726</t>
+          <t>2688,275</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>54,9</t>
+          <t>40,2</t>
         </is>
       </c>
       <c r="H1117" t="inlineStr"/>
@@ -43106,7 +43106,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>768,00</t>
+          <t>1948,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -44588,7 +44588,7 @@
       </c>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H1162" t="inlineStr"/>
@@ -44816,7 +44816,7 @@
       </c>
       <c r="G1168" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1168" t="inlineStr"/>
@@ -47058,7 +47058,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>46,21</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -47134,7 +47134,7 @@
       </c>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>46,21</t>
         </is>
       </c>
       <c r="H1229" t="inlineStr"/>
@@ -47248,7 +47248,7 @@
       </c>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>46,21</t>
         </is>
       </c>
       <c r="H1232" t="inlineStr"/>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="G1234" t="inlineStr">
         <is>
-          <t>46,79</t>
+          <t>46,21</t>
         </is>
       </c>
       <c r="H1234" t="inlineStr"/>
@@ -47476,7 +47476,7 @@
       </c>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1238" t="inlineStr"/>
@@ -47552,7 +47552,7 @@
       </c>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1240" t="inlineStr"/>
@@ -48046,7 +48046,7 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>832,8</t>
+          <t>820,8</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr"/>
@@ -48084,7 +48084,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>135,3</t>
+          <t>132,9</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr"/>
@@ -48198,7 +48198,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>357,00</t>
+          <t>354,9</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr"/>
@@ -55760,7 +55760,7 @@
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr"/>
@@ -61004,7 +61004,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>124,57</t>
+          <t>157,44</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr"/>
@@ -61306,7 +61306,7 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
@@ -61316,7 +61316,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -61348,7 +61348,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-20</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -61358,7 +61358,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -61390,7 +61390,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR.WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO, 10"</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -61400,7 +61400,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -61432,17 +61432,17 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 1"</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -61474,17 +61474,17 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 10"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -61516,7 +61516,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 12"</t>
+          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 10"</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -61526,7 +61526,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -61558,17 +61558,17 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BLIND FLANGE ASME B16.5 FLG 300 LB RAISED FACE FORGED ASTM A105, 10"</t>
+          <t>SUMINISTRO DE PIPE, SCH 20, SMLS, BE, API 5L GR. B, PSL2, ASME B36.10, DIAM. 12"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -61652,7 +61652,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>288,00</t>
+          <t>272,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -61684,7 +61684,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/"X75MMLG</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -61694,7 +61694,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -61726,7 +61726,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X75MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -61736,7 +61736,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -61778,7 +61778,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -61852,7 +61852,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE, 3/4"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -61862,7 +61862,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -61894,7 +61894,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X10"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -61904,7 +61904,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 10"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -61946,7 +61946,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -61978,7 +61978,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 300 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 10"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -61988,7 +61988,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 10"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -62030,7 +62030,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -62062,7 +62062,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -62072,7 +62072,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -62104,17 +62104,17 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>17,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -62146,7 +62146,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
@@ -62156,7 +62156,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -62188,7 +62188,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1/2", S-80</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
@@ -62198,7 +62198,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -62230,17 +62230,17 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 3/4", S-80</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -62272,7 +62272,7 @@
       </c>
       <c r="E1625" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 1"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
         </is>
       </c>
       <c r="F1625" t="inlineStr">
@@ -62282,7 +62282,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -62314,7 +62314,7 @@
       </c>
       <c r="E1626" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 10" X 3/4"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
         </is>
       </c>
       <c r="F1626" t="inlineStr">
@@ -62324,7 +62324,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -62356,7 +62356,7 @@
       </c>
       <c r="E1627" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 12" X 3/4"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 1"</t>
         </is>
       </c>
       <c r="F1627" t="inlineStr">
@@ -62366,7 +62366,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -62398,7 +62398,7 @@
       </c>
       <c r="E1628" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 2" X 1"</t>
+          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 3/4"</t>
         </is>
       </c>
       <c r="F1628" t="inlineStr">
@@ -62408,7 +62408,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -62440,7 +62440,7 @@
       </c>
       <c r="E1629" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 1"</t>
+          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
         </is>
       </c>
       <c r="F1629" t="inlineStr">
@@ -62450,7 +62450,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -62482,7 +62482,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SW FLANGE, CLASS 300, RF, ASTM A105, ASME B16.5, 3/4"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 10"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -62492,7 +62492,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -62524,7 +62524,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 12"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -62534,7 +62534,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -62566,7 +62566,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 10"</t>
+          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 8"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -62576,7 +62576,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>21,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -62608,104 +62608,20 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 12"</t>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1634">
-      <c r="A1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1634" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1634" t="inlineStr">
-        <is>
-          <t>SUMINISTRO DE FLANGE WN, 300#, SCH 20, RF, ASTM A-105, ASME B16.5 8"</t>
-        </is>
-      </c>
-      <c r="F1634" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G1634" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="H1634" t="inlineStr">
-        <is>
-          <t>NUEVO</t>
-        </is>
-      </c>
-    </row>
-    <row r="1635">
-      <c r="A1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1635" t="inlineStr">
-        <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
-        </is>
-      </c>
-      <c r="F1635" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G1635" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="H1635" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>274,00</t>
+          <t>548,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H307" t="inlineStr"/>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H309" t="inlineStr"/>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>33,00</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H393" t="inlineStr"/>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H414" t="inlineStr"/>
@@ -15374,7 +15374,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H415" t="inlineStr"/>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H428" t="inlineStr"/>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H431" t="inlineStr"/>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H432" t="inlineStr"/>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H433" t="inlineStr"/>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H434" t="inlineStr"/>
@@ -16094,7 +16094,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>30,00</t>
         </is>
       </c>
       <c r="H435" t="inlineStr"/>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>38,00</t>
         </is>
       </c>
       <c r="H487" t="inlineStr"/>
@@ -33158,7 +33158,7 @@
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>600,00</t>
+          <t>400,00</t>
         </is>
       </c>
       <c r="H909" t="inlineStr"/>
@@ -33410,7 +33410,7 @@
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>108,00</t>
+          <t>72,00</t>
         </is>
       </c>
       <c r="H916" t="inlineStr"/>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>216,00</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="H918" t="inlineStr"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>284,754</t>
+          <t>558,308</t>
         </is>
       </c>
       <c r="H955" t="inlineStr"/>
@@ -34886,7 +34886,7 @@
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>37,06</t>
+          <t>54,24</t>
         </is>
       </c>
       <c r="H957" t="inlineStr"/>
@@ -34922,7 +34922,7 @@
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>748,27</t>
+          <t>1411,22</t>
         </is>
       </c>
       <c r="H958" t="inlineStr"/>
@@ -34958,7 +34958,7 @@
       </c>
       <c r="G959" t="inlineStr">
         <is>
-          <t>2048,08</t>
+          <t>3397,92</t>
         </is>
       </c>
       <c r="H959" t="inlineStr"/>
@@ -34994,7 +34994,7 @@
       </c>
       <c r="G960" t="inlineStr">
         <is>
-          <t>1562,19</t>
+          <t>2406,78</t>
         </is>
       </c>
       <c r="H960" t="inlineStr"/>
@@ -35030,7 +35030,7 @@
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>201,43</t>
+          <t>214,3</t>
         </is>
       </c>
       <c r="H961" t="inlineStr"/>
@@ -35966,7 +35966,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>3088,00</t>
+          <t>2152,00</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -38414,7 +38414,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>47,412</t>
+          <t>73,736</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -38450,7 +38450,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>63,45</t>
+          <t>58,084</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -38486,7 +38486,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>85,278</t>
+          <t>100,372</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -38522,7 +38522,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>2433,65</t>
+          <t>4635,34</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -38558,7 +38558,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>23041,634</t>
+          <t>45655,676</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -38594,7 +38594,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>10715,602</t>
+          <t>20459,004</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -38630,7 +38630,7 @@
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>1755,614</t>
+          <t>2041,74</t>
         </is>
       </c>
       <c r="H1061" t="inlineStr"/>
@@ -38666,7 +38666,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>1247,386</t>
+          <t>2471,624</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -38702,7 +38702,7 @@
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>38520,272</t>
+          <t>70914,584</t>
         </is>
       </c>
       <c r="H1063" t="inlineStr"/>
@@ -38738,7 +38738,7 @@
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>26064,02</t>
+          <t>49880,024</t>
         </is>
       </c>
       <c r="H1064" t="inlineStr"/>
@@ -38846,7 +38846,7 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>93129,508</t>
+          <t>178180,912</t>
         </is>
       </c>
       <c r="H1067" t="inlineStr"/>
@@ -39566,7 +39566,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -39602,7 +39602,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>199,00</t>
+          <t>158,00</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -39638,7 +39638,7 @@
       </c>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>218,00</t>
+          <t>300,00</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr"/>
@@ -39674,7 +39674,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>135,00</t>
+          <t>90,00</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -39710,7 +39710,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>264,00</t>
+          <t>176,00</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -39746,7 +39746,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>1263,00</t>
+          <t>842,00</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -39782,7 +39782,7 @@
       </c>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>1596,00</t>
+          <t>1064,00</t>
         </is>
       </c>
       <c r="H1093" t="inlineStr"/>
@@ -39854,7 +39854,7 @@
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>13071,00</t>
+          <t>10986,00</t>
         </is>
       </c>
       <c r="H1095" t="inlineStr"/>
@@ -39890,7 +39890,7 @@
       </c>
       <c r="G1096" t="inlineStr">
         <is>
-          <t>6196,00</t>
+          <t>6104,00</t>
         </is>
       </c>
       <c r="H1096" t="inlineStr"/>
@@ -39998,7 +39998,7 @@
       </c>
       <c r="G1099" t="inlineStr">
         <is>
-          <t>9480,00</t>
+          <t>6320,00</t>
         </is>
       </c>
       <c r="H1099" t="inlineStr"/>
@@ -40682,7 +40682,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -40718,7 +40718,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -40754,7 +40754,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -40790,7 +40790,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -40826,7 +40826,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -40862,7 +40862,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -40934,7 +40934,7 @@
       </c>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>33,00</t>
+          <t>30,00</t>
         </is>
       </c>
       <c r="H1125" t="inlineStr"/>
@@ -40970,7 +40970,7 @@
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>13,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr"/>
@@ -41078,7 +41078,7 @@
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr"/>
@@ -43526,7 +43526,7 @@
       </c>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>2573,16</t>
+          <t>5063,56</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr"/>
@@ -43598,7 +43598,7 @@
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>2573,16</t>
+          <t>5063,56</t>
         </is>
       </c>
       <c r="H1199" t="inlineStr"/>
@@ -43706,7 +43706,7 @@
       </c>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>2573,16</t>
+          <t>5063,56</t>
         </is>
       </c>
       <c r="H1202" t="inlineStr"/>
@@ -43778,7 +43778,7 @@
       </c>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>2573,16</t>
+          <t>5063,56</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr"/>
@@ -43922,7 +43922,7 @@
       </c>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1208" t="inlineStr"/>
@@ -43958,7 +43958,7 @@
       </c>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>53,00</t>
+          <t>78,00</t>
         </is>
       </c>
       <c r="H1209" t="inlineStr"/>
@@ -43994,7 +43994,7 @@
       </c>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>40,00</t>
         </is>
       </c>
       <c r="H1210" t="inlineStr"/>
@@ -44030,7 +44030,7 @@
       </c>
       <c r="G1211" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H1211" t="inlineStr"/>
@@ -44462,7 +44462,7 @@
       </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>7668,6</t>
+          <t>10264,8</t>
         </is>
       </c>
       <c r="H1223" t="inlineStr"/>
@@ -44498,7 +44498,7 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>174,00</t>
+          <t>333,6</t>
         </is>
       </c>
       <c r="H1224" t="inlineStr"/>
@@ -44606,7 +44606,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>27153,00</t>
+          <t>54306,00</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -51518,7 +51518,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1419" t="inlineStr"/>
@@ -56738,7 +56738,7 @@
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>6900,75</t>
+          <t>12039,65</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr"/>
@@ -56956,7 +56956,7 @@
       </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
@@ -56998,7 +56998,7 @@
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -57040,7 +57040,7 @@
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
@@ -57082,7 +57082,7 @@
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -57124,7 +57124,7 @@
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -57166,7 +57166,7 @@
       </c>
       <c r="G1575" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1575" t="inlineStr">
@@ -57208,7 +57208,7 @@
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -57250,7 +57250,7 @@
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
@@ -57292,7 +57292,7 @@
       </c>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>31,00</t>
+          <t>62,00</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -57334,7 +57334,7 @@
       </c>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -57376,7 +57376,7 @@
       </c>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>11,00</t>
+          <t>22,00</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -57418,7 +57418,7 @@
       </c>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
@@ -57460,7 +57460,7 @@
       </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
@@ -57502,7 +57502,7 @@
       </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
@@ -57544,7 +57544,7 @@
       </c>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>35,00</t>
+          <t>70,00</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
@@ -57586,7 +57586,7 @@
       </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
@@ -57628,7 +57628,7 @@
       </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -57670,7 +57670,7 @@
       </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -57712,7 +57712,7 @@
       </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -57754,7 +57754,7 @@
       </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -57796,7 +57796,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -57838,7 +57838,7 @@
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -57880,7 +57880,7 @@
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>386,00</t>
+          <t>772,00</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -57922,7 +57922,7 @@
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -57964,7 +57964,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -58006,7 +58006,7 @@
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>164,00</t>
+          <t>328,00</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -58048,7 +58048,7 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
@@ -58090,7 +58090,7 @@
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>345,00</t>
+          <t>690,00</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -58132,7 +58132,7 @@
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>226,00</t>
+          <t>452,00</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
@@ -58174,7 +58174,7 @@
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -58216,7 +58216,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>161,00</t>
+          <t>322,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -58258,7 +58258,7 @@
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>612,00</t>
+          <t>1224,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -58300,7 +58300,7 @@
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -58342,7 +58342,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>360,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -58384,7 +58384,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>1296,00</t>
+          <t>864,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -58426,7 +58426,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>672,00</t>
+          <t>448,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -58468,7 +58468,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -58510,7 +58510,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>432,00</t>
+          <t>288,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -58552,7 +58552,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>360,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -58594,7 +58594,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -58636,7 +58636,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -58678,7 +58678,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -58720,7 +58720,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1612" t="inlineStr">
@@ -58762,7 +58762,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -58804,7 +58804,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -58846,7 +58846,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -58888,7 +58888,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -58930,7 +58930,7 @@
       </c>
       <c r="G1617" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1617" t="inlineStr">
@@ -58972,7 +58972,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -59014,7 +59014,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -59056,7 +59056,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -59098,7 +59098,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -59140,7 +59140,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>38,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -59182,7 +59182,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -59224,7 +59224,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -59266,7 +59266,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -59308,7 +59308,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -59350,7 +59350,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>44,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -59392,7 +59392,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -59434,7 +59434,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -59476,7 +59476,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>51,00</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -59518,7 +59518,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -59560,7 +59560,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -59602,7 +59602,7 @@
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -59644,7 +59644,7 @@
       </c>
       <c r="G1634" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1634" t="inlineStr">
@@ -59686,7 +59686,7 @@
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1635" t="inlineStr">
@@ -59728,7 +59728,7 @@
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1636" t="inlineStr">
@@ -59770,7 +59770,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1637" t="inlineStr">
@@ -59812,7 +59812,7 @@
       </c>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
@@ -59854,7 +59854,7 @@
       </c>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
@@ -59896,7 +59896,7 @@
       </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -59938,7 +59938,7 @@
       </c>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -59980,7 +59980,7 @@
       </c>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -60022,7 +60022,7 @@
       </c>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -60064,7 +60064,7 @@
       </c>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
@@ -60106,7 +60106,7 @@
       </c>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -60148,7 +60148,7 @@
       </c>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
@@ -60190,7 +60190,7 @@
       </c>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -60232,7 +60232,7 @@
       </c>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1648" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="G1649" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1649" t="inlineStr">
@@ -60316,7 +60316,7 @@
       </c>
       <c r="G1650" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1650" t="inlineStr">
@@ -60358,7 +60358,7 @@
       </c>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
@@ -60400,7 +60400,7 @@
       </c>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
@@ -60442,7 +60442,7 @@
       </c>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
@@ -60484,7 +60484,7 @@
       </c>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
@@ -60526,7 +60526,7 @@
       </c>
       <c r="G1655" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1655" t="inlineStr">
@@ -60568,7 +60568,7 @@
       </c>
       <c r="G1656" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1656" t="inlineStr">
@@ -60610,7 +60610,7 @@
       </c>
       <c r="G1657" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1657" t="inlineStr">
@@ -60652,7 +60652,7 @@
       </c>
       <c r="G1658" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1658" t="inlineStr">
@@ -60694,7 +60694,7 @@
       </c>
       <c r="G1659" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1659" t="inlineStr">
@@ -60736,7 +60736,7 @@
       </c>
       <c r="G1660" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1660" t="inlineStr">
@@ -60778,7 +60778,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1661" t="inlineStr">
@@ -60820,7 +60820,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>42,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="H1662" t="inlineStr">
@@ -60862,7 +60862,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>72,00</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -60904,7 +60904,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>42,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -60946,7 +60946,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -60988,7 +60988,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -61030,7 +61030,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>25,00</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="H1667" t="inlineStr">
@@ -61072,7 +61072,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="H1668" t="inlineStr">
@@ -61114,7 +61114,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1669" t="inlineStr">
@@ -61156,7 +61156,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1670" t="inlineStr">
@@ -61198,7 +61198,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>30,00</t>
         </is>
       </c>
       <c r="H1671" t="inlineStr">
@@ -61240,7 +61240,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>17,00</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="H1672" t="inlineStr">
@@ -61282,7 +61282,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1673" t="inlineStr">
@@ -61324,7 +61324,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1674" t="inlineStr">
@@ -61366,7 +61366,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1675" t="inlineStr">
@@ -61408,7 +61408,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
@@ -61450,7 +61450,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1677" t="inlineStr">
@@ -61492,7 +61492,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1678" t="inlineStr">
@@ -61534,7 +61534,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>54,00</t>
         </is>
       </c>
       <c r="H1679" t="inlineStr">
@@ -61576,7 +61576,7 @@
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>5,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1680" t="inlineStr">
@@ -61618,7 +61618,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>136,00</t>
         </is>
       </c>
       <c r="H1681" t="inlineStr">
@@ -61660,7 +61660,7 @@
       </c>
       <c r="G1682" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>54,00</t>
         </is>
       </c>
       <c r="H1682" t="inlineStr">

--- a/output/co.xlsx
+++ b/output/co.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1682"/>
+  <dimension ref="A1:H1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>548,00</t>
+          <t>279,00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -6482,7 +6482,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H195" t="inlineStr"/>
@@ -7922,7 +7922,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
@@ -7994,7 +7994,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
@@ -8606,7 +8606,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
@@ -10370,7 +10370,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
@@ -11450,7 +11450,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
@@ -11486,7 +11486,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H307" t="inlineStr"/>
@@ -11522,7 +11522,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H309" t="inlineStr"/>
@@ -11630,7 +11630,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
@@ -14582,7 +14582,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H393" t="inlineStr"/>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H414" t="inlineStr"/>
@@ -15374,7 +15374,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H415" t="inlineStr"/>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H428" t="inlineStr"/>
@@ -15950,7 +15950,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H431" t="inlineStr"/>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H432" t="inlineStr"/>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H433" t="inlineStr"/>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H434" t="inlineStr"/>
@@ -16094,7 +16094,7 @@
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="H435" t="inlineStr"/>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H487" t="inlineStr"/>
@@ -33158,7 +33158,7 @@
       </c>
       <c r="G909" t="inlineStr">
         <is>
-          <t>400,00</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="H909" t="inlineStr"/>
@@ -33410,7 +33410,7 @@
       </c>
       <c r="G916" t="inlineStr">
         <is>
-          <t>72,00</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="H916" t="inlineStr"/>
@@ -33446,7 +33446,7 @@
       </c>
       <c r="G917" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H917" t="inlineStr"/>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="G918" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>120,00</t>
         </is>
       </c>
       <c r="H918" t="inlineStr"/>
@@ -34814,7 +34814,7 @@
       </c>
       <c r="G955" t="inlineStr">
         <is>
-          <t>558,308</t>
+          <t>279,154</t>
         </is>
       </c>
       <c r="H955" t="inlineStr"/>
@@ -34886,7 +34886,7 @@
       </c>
       <c r="G957" t="inlineStr">
         <is>
-          <t>54,24</t>
+          <t>27,12</t>
         </is>
       </c>
       <c r="H957" t="inlineStr"/>
@@ -34922,7 +34922,7 @@
       </c>
       <c r="G958" t="inlineStr">
         <is>
-          <t>1411,22</t>
+          <t>705,61</t>
         </is>
       </c>
       <c r="H958" t="inlineStr"/>
@@ -34958,7 +34958,7 @@
       </c>
       <c r="G959" t="inlineStr">
         <is>
-          <t>3397,92</t>
+          <t>1698,96</t>
         </is>
       </c>
       <c r="H959" t="inlineStr"/>
@@ -34994,7 +34994,7 @@
       </c>
       <c r="G960" t="inlineStr">
         <is>
-          <t>2406,78</t>
+          <t>1203,39</t>
         </is>
       </c>
       <c r="H960" t="inlineStr"/>
@@ -35030,7 +35030,7 @@
       </c>
       <c r="G961" t="inlineStr">
         <is>
-          <t>214,3</t>
+          <t>107,15</t>
         </is>
       </c>
       <c r="H961" t="inlineStr"/>
@@ -35966,7 +35966,7 @@
       </c>
       <c r="G987" t="inlineStr">
         <is>
-          <t>2152,00</t>
+          <t>1076,00</t>
         </is>
       </c>
       <c r="H987" t="inlineStr"/>
@@ -38414,7 +38414,7 @@
       </c>
       <c r="G1055" t="inlineStr">
         <is>
-          <t>73,736</t>
+          <t>33,928</t>
         </is>
       </c>
       <c r="H1055" t="inlineStr"/>
@@ -38450,7 +38450,7 @@
       </c>
       <c r="G1056" t="inlineStr">
         <is>
-          <t>58,084</t>
+          <t>33,038</t>
         </is>
       </c>
       <c r="H1056" t="inlineStr"/>
@@ -38486,7 +38486,7 @@
       </c>
       <c r="G1057" t="inlineStr">
         <is>
-          <t>100,372</t>
+          <t>54,886</t>
         </is>
       </c>
       <c r="H1057" t="inlineStr"/>
@@ -38522,7 +38522,7 @@
       </c>
       <c r="G1058" t="inlineStr">
         <is>
-          <t>4635,34</t>
+          <t>477,725</t>
         </is>
       </c>
       <c r="H1058" t="inlineStr"/>
@@ -38558,7 +38558,7 @@
       </c>
       <c r="G1059" t="inlineStr">
         <is>
-          <t>45655,676</t>
+          <t>22695,942</t>
         </is>
       </c>
       <c r="H1059" t="inlineStr"/>
@@ -38594,7 +38594,7 @@
       </c>
       <c r="G1060" t="inlineStr">
         <is>
-          <t>20459,004</t>
+          <t>10502,574</t>
         </is>
       </c>
       <c r="H1060" t="inlineStr"/>
@@ -38630,7 +38630,7 @@
       </c>
       <c r="G1061" t="inlineStr">
         <is>
-          <t>2041,74</t>
+          <t>1072,99</t>
         </is>
       </c>
       <c r="H1061" t="inlineStr"/>
@@ -38666,7 +38666,7 @@
       </c>
       <c r="G1062" t="inlineStr">
         <is>
-          <t>2471,624</t>
+          <t>1473,166</t>
         </is>
       </c>
       <c r="H1062" t="inlineStr"/>
@@ -38702,7 +38702,7 @@
       </c>
       <c r="G1063" t="inlineStr">
         <is>
-          <t>70914,584</t>
+          <t>35973,25</t>
         </is>
       </c>
       <c r="H1063" t="inlineStr"/>
@@ -38738,7 +38738,7 @@
       </c>
       <c r="G1064" t="inlineStr">
         <is>
-          <t>49880,024</t>
+          <t>24901,792</t>
         </is>
       </c>
       <c r="H1064" t="inlineStr"/>
@@ -38846,7 +38846,7 @@
       </c>
       <c r="G1067" t="inlineStr">
         <is>
-          <t>178180,912</t>
+          <t>89340,26</t>
         </is>
       </c>
       <c r="H1067" t="inlineStr"/>
@@ -39566,7 +39566,7 @@
       </c>
       <c r="G1087" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1087" t="inlineStr"/>
@@ -39602,7 +39602,7 @@
       </c>
       <c r="G1088" t="inlineStr">
         <is>
-          <t>158,00</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="H1088" t="inlineStr"/>
@@ -39638,7 +39638,7 @@
       </c>
       <c r="G1089" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>150,00</t>
         </is>
       </c>
       <c r="H1089" t="inlineStr"/>
@@ -39674,7 +39674,7 @@
       </c>
       <c r="G1090" t="inlineStr">
         <is>
-          <t>90,00</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="H1090" t="inlineStr"/>
@@ -39710,7 +39710,7 @@
       </c>
       <c r="G1091" t="inlineStr">
         <is>
-          <t>176,00</t>
+          <t>360,00</t>
         </is>
       </c>
       <c r="H1091" t="inlineStr"/>
@@ -39746,7 +39746,7 @@
       </c>
       <c r="G1092" t="inlineStr">
         <is>
-          <t>842,00</t>
+          <t>525,00</t>
         </is>
       </c>
       <c r="H1092" t="inlineStr"/>
@@ -39782,7 +39782,7 @@
       </c>
       <c r="G1093" t="inlineStr">
         <is>
-          <t>1064,00</t>
+          <t>532,00</t>
         </is>
       </c>
       <c r="H1093" t="inlineStr"/>
@@ -39818,7 +39818,7 @@
       </c>
       <c r="G1094" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>894,00</t>
         </is>
       </c>
       <c r="H1094" t="inlineStr"/>
@@ -39854,7 +39854,7 @@
       </c>
       <c r="G1095" t="inlineStr">
         <is>
-          <t>10986,00</t>
+          <t>5493,00</t>
         </is>
       </c>
       <c r="H1095" t="inlineStr"/>
@@ -39890,7 +39890,7 @@
       </c>
       <c r="G1096" t="inlineStr">
         <is>
-          <t>6104,00</t>
+          <t>3052,00</t>
         </is>
       </c>
       <c r="H1096" t="inlineStr"/>
@@ -39998,7 +39998,7 @@
       </c>
       <c r="G1099" t="inlineStr">
         <is>
-          <t>6320,00</t>
+          <t>3160,00</t>
         </is>
       </c>
       <c r="H1099" t="inlineStr"/>
@@ -40682,7 +40682,7 @@
       </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1118" t="inlineStr"/>
@@ -40718,7 +40718,7 @@
       </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1119" t="inlineStr"/>
@@ -40754,7 +40754,7 @@
       </c>
       <c r="G1120" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1120" t="inlineStr"/>
@@ -40790,7 +40790,7 @@
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1121" t="inlineStr"/>
@@ -40826,7 +40826,7 @@
       </c>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1122" t="inlineStr"/>
@@ -40862,7 +40862,7 @@
       </c>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1123" t="inlineStr"/>
@@ -40898,7 +40898,7 @@
       </c>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1124" t="inlineStr"/>
@@ -40934,7 +40934,7 @@
       </c>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="H1125" t="inlineStr"/>
@@ -40970,7 +40970,7 @@
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1126" t="inlineStr"/>
@@ -41078,7 +41078,7 @@
       </c>
       <c r="G1129" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1129" t="inlineStr"/>
@@ -43526,7 +43526,7 @@
       </c>
       <c r="G1197" t="inlineStr">
         <is>
-          <t>5063,56</t>
+          <t>2484,59</t>
         </is>
       </c>
       <c r="H1197" t="inlineStr"/>
@@ -43598,7 +43598,7 @@
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>5063,56</t>
+          <t>2484,59</t>
         </is>
       </c>
       <c r="H1199" t="inlineStr"/>
@@ -43706,7 +43706,7 @@
       </c>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>5063,56</t>
+          <t>2484,59</t>
         </is>
       </c>
       <c r="H1202" t="inlineStr"/>
@@ -43778,7 +43778,7 @@
       </c>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>5063,56</t>
+          <t>2484,59</t>
         </is>
       </c>
       <c r="H1204" t="inlineStr"/>
@@ -43922,7 +43922,7 @@
       </c>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1208" t="inlineStr"/>
@@ -43958,7 +43958,7 @@
       </c>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>78,00</t>
+          <t>43,00</t>
         </is>
       </c>
       <c r="H1209" t="inlineStr"/>
@@ -43994,7 +43994,7 @@
       </c>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>40,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1210" t="inlineStr"/>
@@ -44030,7 +44030,7 @@
       </c>
       <c r="G1211" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1211" t="inlineStr"/>
@@ -44462,7 +44462,7 @@
       </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>10264,8</t>
+          <t>5216,88</t>
         </is>
       </c>
       <c r="H1223" t="inlineStr"/>
@@ -44498,7 +44498,7 @@
       </c>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>333,6</t>
+          <t>169,2</t>
         </is>
       </c>
       <c r="H1224" t="inlineStr"/>
@@ -44606,7 +44606,7 @@
       </c>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>54306,00</t>
+          <t>26633,25</t>
         </is>
       </c>
       <c r="H1227" t="inlineStr"/>
@@ -51518,7 +51518,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1419" t="inlineStr"/>
@@ -56738,7 +56738,7 @@
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>12039,65</t>
+          <t>6037,97</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr"/>
@@ -56956,7 +56956,7 @@
       </c>
       <c r="G1570" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1570" t="inlineStr">
@@ -56988,7 +56988,7 @@
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 4"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
         </is>
       </c>
       <c r="F1571" t="inlineStr">
@@ -56998,7 +56998,7 @@
       </c>
       <c r="G1571" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1571" t="inlineStr">
@@ -57030,7 +57030,7 @@
       </c>
       <c r="E1572" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 6"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
         </is>
       </c>
       <c r="F1572" t="inlineStr">
@@ -57040,7 +57040,7 @@
       </c>
       <c r="G1572" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1572" t="inlineStr">
@@ -57072,7 +57072,7 @@
       </c>
       <c r="E1573" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
+          <t>SUMINISTRO DE ELBOW 45° LR, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"</t>
         </is>
       </c>
       <c r="F1573" t="inlineStr">
@@ -57082,7 +57082,7 @@
       </c>
       <c r="G1573" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1573" t="inlineStr">
@@ -57114,7 +57114,7 @@
       </c>
       <c r="E1574" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ELBOW 45° LR, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-30</t>
         </is>
       </c>
       <c r="F1574" t="inlineStr">
@@ -57124,7 +57124,7 @@
       </c>
       <c r="G1574" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1574" t="inlineStr">
@@ -57156,7 +57156,7 @@
       </c>
       <c r="E1575" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 10", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 12", S-20</t>
         </is>
       </c>
       <c r="F1575" t="inlineStr">
@@ -57198,7 +57198,7 @@
       </c>
       <c r="E1576" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 12", S-20</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-30</t>
         </is>
       </c>
       <c r="F1576" t="inlineStr">
@@ -57208,7 +57208,7 @@
       </c>
       <c r="G1576" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1576" t="inlineStr">
@@ -57240,7 +57240,7 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-STD</t>
         </is>
       </c>
       <c r="F1577" t="inlineStr">
@@ -57250,7 +57250,7 @@
       </c>
       <c r="G1577" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>31,00</t>
         </is>
       </c>
       <c r="H1577" t="inlineStr">
@@ -57282,7 +57282,7 @@
       </c>
       <c r="E1578" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 14", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 16", S-STD</t>
         </is>
       </c>
       <c r="F1578" t="inlineStr">
@@ -57292,7 +57292,7 @@
       </c>
       <c r="G1578" t="inlineStr">
         <is>
-          <t>62,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1578" t="inlineStr">
@@ -57324,7 +57324,7 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 16", S-STD</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 24", S-30</t>
         </is>
       </c>
       <c r="F1579" t="inlineStr">
@@ -57334,7 +57334,7 @@
       </c>
       <c r="G1579" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>11,00</t>
         </is>
       </c>
       <c r="H1579" t="inlineStr">
@@ -57366,7 +57366,7 @@
       </c>
       <c r="E1580" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 24", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
         </is>
       </c>
       <c r="F1580" t="inlineStr">
@@ -57376,7 +57376,7 @@
       </c>
       <c r="G1580" t="inlineStr">
         <is>
-          <t>22,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1580" t="inlineStr">
@@ -57408,7 +57408,7 @@
       </c>
       <c r="E1581" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 3", S-40</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
         </is>
       </c>
       <c r="F1581" t="inlineStr">
@@ -57418,7 +57418,7 @@
       </c>
       <c r="G1581" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1581" t="inlineStr">
@@ -57450,7 +57450,7 @@
       </c>
       <c r="E1582" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-30</t>
+          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
         </is>
       </c>
       <c r="F1582" t="inlineStr">
@@ -57460,7 +57460,7 @@
       </c>
       <c r="G1582" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="H1582" t="inlineStr">
@@ -57492,7 +57492,7 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 4", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
         </is>
       </c>
       <c r="F1583" t="inlineStr">
@@ -57502,7 +57502,7 @@
       </c>
       <c r="G1583" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1583" t="inlineStr">
@@ -57534,7 +57534,7 @@
       </c>
       <c r="E1584" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE 90 DEGREE ELBOW LR ASME B16.9 BW WROUGHT S ASTM A234 GR. WPB, 6", S-40</t>
+          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
         </is>
       </c>
       <c r="F1584" t="inlineStr">
@@ -57544,7 +57544,7 @@
       </c>
       <c r="G1584" t="inlineStr">
         <is>
-          <t>70,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1584" t="inlineStr">
@@ -57576,7 +57576,7 @@
       </c>
       <c r="E1585" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 2"</t>
+          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
         </is>
       </c>
       <c r="F1585" t="inlineStr">
@@ -57586,7 +57586,7 @@
       </c>
       <c r="G1585" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1585" t="inlineStr">
@@ -57618,17 +57618,17 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO, 4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
         </is>
       </c>
       <c r="F1586" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1586" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1586" t="inlineStr">
@@ -57660,17 +57660,17 @@
       </c>
       <c r="E1587" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO, 3/4"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 14", S-30</t>
         </is>
       </c>
       <c r="F1587" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1587" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="H1587" t="inlineStr">
@@ -57702,7 +57702,7 @@
       </c>
       <c r="E1588" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 10", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 18", S-40</t>
         </is>
       </c>
       <c r="F1588" t="inlineStr">
@@ -57712,7 +57712,7 @@
       </c>
       <c r="G1588" t="inlineStr">
         <is>
-          <t>18,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1588" t="inlineStr">
@@ -57744,7 +57744,7 @@
       </c>
       <c r="E1589" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 14", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
         </is>
       </c>
       <c r="F1589" t="inlineStr">
@@ -57754,7 +57754,7 @@
       </c>
       <c r="G1589" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1589" t="inlineStr">
@@ -57786,7 +57786,7 @@
       </c>
       <c r="E1590" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 18", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 24", S-30</t>
         </is>
       </c>
       <c r="F1590" t="inlineStr">
@@ -57796,7 +57796,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>386,00</t>
         </is>
       </c>
       <c r="H1590" t="inlineStr">
@@ -57828,7 +57828,7 @@
       </c>
       <c r="E1591" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 2", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
         </is>
       </c>
       <c r="F1591" t="inlineStr">
@@ -57838,7 +57838,7 @@
       </c>
       <c r="G1591" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1591" t="inlineStr">
@@ -57870,7 +57870,7 @@
       </c>
       <c r="E1592" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 24", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
         </is>
       </c>
       <c r="F1592" t="inlineStr">
@@ -57880,7 +57880,7 @@
       </c>
       <c r="G1592" t="inlineStr">
         <is>
-          <t>772,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1592" t="inlineStr">
@@ -57912,7 +57912,7 @@
       </c>
       <c r="E1593" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 3", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6", S-40</t>
         </is>
       </c>
       <c r="F1593" t="inlineStr">
@@ -57922,7 +57922,7 @@
       </c>
       <c r="G1593" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="H1593" t="inlineStr">
@@ -57954,7 +57954,7 @@
       </c>
       <c r="E1594" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 4", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 12", S-20</t>
         </is>
       </c>
       <c r="F1594" t="inlineStr">
@@ -57964,7 +57964,7 @@
       </c>
       <c r="G1594" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H1594" t="inlineStr">
@@ -57996,7 +57996,7 @@
       </c>
       <c r="E1595" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A106 GR.  B, 6", S-40</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 14", S-STD</t>
         </is>
       </c>
       <c r="F1595" t="inlineStr">
@@ -58006,7 +58006,7 @@
       </c>
       <c r="G1595" t="inlineStr">
         <is>
-          <t>328,00</t>
+          <t>351,00</t>
         </is>
       </c>
       <c r="H1595" t="inlineStr">
@@ -58038,7 +58038,7 @@
       </c>
       <c r="E1596" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 12", S-20</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 16", S-STD</t>
         </is>
       </c>
       <c r="F1596" t="inlineStr">
@@ -58048,7 +58048,7 @@
       </c>
       <c r="G1596" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>226,00</t>
         </is>
       </c>
       <c r="H1596" t="inlineStr">
@@ -58080,7 +58080,7 @@
       </c>
       <c r="E1597" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 14", S-STD</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2", S-30</t>
         </is>
       </c>
       <c r="F1597" t="inlineStr">
@@ -58090,7 +58090,7 @@
       </c>
       <c r="G1597" t="inlineStr">
         <is>
-          <t>690,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1597" t="inlineStr">
@@ -58122,7 +58122,7 @@
       </c>
       <c r="E1598" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 16", S-STD</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4", S-30</t>
         </is>
       </c>
       <c r="F1598" t="inlineStr">
@@ -58132,7 +58132,7 @@
       </c>
       <c r="G1598" t="inlineStr">
         <is>
-          <t>452,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1598" t="inlineStr">
@@ -58164,7 +58164,7 @@
       </c>
       <c r="E1599" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 2-1/2", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6", S-40</t>
         </is>
       </c>
       <c r="F1599" t="inlineStr">
@@ -58174,7 +58174,7 @@
       </c>
       <c r="G1599" t="inlineStr">
         <is>
-          <t>20,00</t>
+          <t>748,00</t>
         </is>
       </c>
       <c r="H1599" t="inlineStr">
@@ -58206,7 +58206,7 @@
       </c>
       <c r="E1600" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 4", S-30</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8", S-20</t>
         </is>
       </c>
       <c r="F1600" t="inlineStr">
@@ -58216,7 +58216,7 @@
       </c>
       <c r="G1600" t="inlineStr">
         <is>
-          <t>322,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1600" t="inlineStr">
@@ -58248,17 +58248,17 @@
       </c>
       <c r="E1601" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 6", S-40</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1 3/8"X190MMLG</t>
         </is>
       </c>
       <c r="F1601" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1601" t="inlineStr">
         <is>
-          <t>1224,00</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="H1601" t="inlineStr">
@@ -58290,17 +58290,17 @@
       </c>
       <c r="E1602" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 BE SEAMLESS ASTM A53 GR.  B, 8", S-20</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X145MMLG</t>
         </is>
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1602" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>252,00</t>
         </is>
       </c>
       <c r="H1602" t="inlineStr">
@@ -58332,7 +58332,7 @@
       </c>
       <c r="E1603" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1 3/8"X190MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X150MMLG</t>
         </is>
       </c>
       <c r="F1603" t="inlineStr">
@@ -58342,7 +58342,7 @@
       </c>
       <c r="G1603" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>208,00</t>
         </is>
       </c>
       <c r="H1603" t="inlineStr">
@@ -58374,7 +58374,7 @@
       </c>
       <c r="E1604" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X145MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
         </is>
       </c>
       <c r="F1604" t="inlineStr">
@@ -58384,7 +58384,7 @@
       </c>
       <c r="G1604" t="inlineStr">
         <is>
-          <t>864,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="H1604" t="inlineStr">
@@ -58416,7 +58416,7 @@
       </c>
       <c r="E1605" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1"X150MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
         </is>
       </c>
       <c r="F1605" t="inlineStr">
@@ -58426,7 +58426,7 @@
       </c>
       <c r="G1605" t="inlineStr">
         <is>
-          <t>448,00</t>
+          <t>160,00</t>
         </is>
       </c>
       <c r="H1605" t="inlineStr">
@@ -58458,7 +58458,7 @@
       </c>
       <c r="E1606" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø1/2"X70MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
         </is>
       </c>
       <c r="F1606" t="inlineStr">
@@ -58468,7 +58468,7 @@
       </c>
       <c r="G1606" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>128,00</t>
         </is>
       </c>
       <c r="H1606" t="inlineStr">
@@ -58500,7 +58500,7 @@
       </c>
       <c r="E1607" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø3/4"X120MMLG</t>
+          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X135MMLG</t>
         </is>
       </c>
       <c r="F1607" t="inlineStr">
@@ -58510,7 +58510,7 @@
       </c>
       <c r="G1607" t="inlineStr">
         <is>
-          <t>288,00</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="H1607" t="inlineStr">
@@ -58542,7 +58542,7 @@
       </c>
       <c r="E1608" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø5/8"X100MMLG</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
         </is>
       </c>
       <c r="F1608" t="inlineStr">
@@ -58552,7 +58552,7 @@
       </c>
       <c r="G1608" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1608" t="inlineStr">
@@ -58584,7 +58584,7 @@
       </c>
       <c r="E1609" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE STUD BOLTS, A-193 GR B7 W/(2) HVY NUTS HEX, ASTM A-194 GR 2H, ASME B18.2.1, B18.2.2 Ø7/8"X135MMLG</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 14"</t>
         </is>
       </c>
       <c r="F1609" t="inlineStr">
@@ -58594,7 +58594,7 @@
       </c>
       <c r="G1609" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1609" t="inlineStr">
@@ -58626,7 +58626,7 @@
       </c>
       <c r="E1610" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 10"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 24"</t>
         </is>
       </c>
       <c r="F1610" t="inlineStr">
@@ -58636,7 +58636,7 @@
       </c>
       <c r="G1610" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1610" t="inlineStr">
@@ -58668,7 +58668,7 @@
       </c>
       <c r="E1611" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 14"</t>
+          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 8"</t>
         </is>
       </c>
       <c r="F1611" t="inlineStr">
@@ -58678,7 +58678,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1611" t="inlineStr">
@@ -58710,7 +58710,7 @@
       </c>
       <c r="E1612" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 24"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
         </is>
       </c>
       <c r="F1612" t="inlineStr">
@@ -58752,7 +58752,7 @@
       </c>
       <c r="E1613" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8, 8"</t>
+          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
         </is>
       </c>
       <c r="F1613" t="inlineStr">
@@ -58762,7 +58762,7 @@
       </c>
       <c r="G1613" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1613" t="inlineStr">
@@ -58794,7 +58794,7 @@
       </c>
       <c r="E1614" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 1"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X4"</t>
         </is>
       </c>
       <c r="F1614" t="inlineStr">
@@ -58804,7 +58804,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1614" t="inlineStr">
@@ -58836,7 +58836,7 @@
       </c>
       <c r="E1615" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE COUPLING, CLASS 3000, SW, ASTM A-105, ASME B16.11 3/4"</t>
+          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X6"</t>
         </is>
       </c>
       <c r="F1615" t="inlineStr">
@@ -58846,7 +58846,7 @@
       </c>
       <c r="G1615" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1615" t="inlineStr">
@@ -58878,7 +58878,7 @@
       </c>
       <c r="E1616" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X4"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X8"</t>
         </is>
       </c>
       <c r="F1616" t="inlineStr">
@@ -58888,7 +58888,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1616" t="inlineStr">
@@ -58920,7 +58920,7 @@
       </c>
       <c r="E1617" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE CONC. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X2-1/2"</t>
         </is>
       </c>
       <c r="F1617" t="inlineStr">
@@ -58962,7 +58962,7 @@
       </c>
       <c r="E1618" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 20 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 12"X8"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X4"</t>
         </is>
       </c>
       <c r="F1618" t="inlineStr">
@@ -58972,7 +58972,7 @@
       </c>
       <c r="G1618" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1618" t="inlineStr">
@@ -59004,7 +59004,7 @@
       </c>
       <c r="E1619" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X2-1/2"</t>
+          <t>SUMINISTRO DE EXCEN. REDUCER, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"X14"</t>
         </is>
       </c>
       <c r="F1619" t="inlineStr">
@@ -59014,7 +59014,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1619" t="inlineStr">
@@ -59046,7 +59046,7 @@
       </c>
       <c r="E1620" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE EXCEN. REDUCER, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"X14"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 12"</t>
         </is>
       </c>
       <c r="F1620" t="inlineStr">
@@ -59056,7 +59056,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1620" t="inlineStr">
@@ -59088,7 +59088,7 @@
       </c>
       <c r="E1621" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 12"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 14"</t>
         </is>
       </c>
       <c r="F1621" t="inlineStr">
@@ -59098,7 +59098,7 @@
       </c>
       <c r="G1621" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1621" t="inlineStr">
@@ -59130,7 +59130,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 14"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 16"</t>
         </is>
       </c>
       <c r="F1622" t="inlineStr">
@@ -59140,7 +59140,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1622" t="inlineStr">
@@ -59172,7 +59172,7 @@
       </c>
       <c r="E1623" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 16"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2"</t>
         </is>
       </c>
       <c r="F1623" t="inlineStr">
@@ -59182,7 +59182,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1623" t="inlineStr">
@@ -59214,7 +59214,7 @@
       </c>
       <c r="E1624" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2"</t>
+          <t>SUMINISTRO DE NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF, 2-1/2"</t>
         </is>
       </c>
       <c r="F1624" t="inlineStr">
@@ -59224,7 +59224,7 @@
       </c>
       <c r="G1624" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1624" t="inlineStr">
@@ -59266,7 +59266,7 @@
       </c>
       <c r="G1625" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="H1625" t="inlineStr">
@@ -59308,7 +59308,7 @@
       </c>
       <c r="G1626" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="H1626" t="inlineStr">
@@ -59350,7 +59350,7 @@
       </c>
       <c r="G1627" t="inlineStr">
         <is>
-          <t>44,00</t>
+          <t>20,00</t>
         </is>
       </c>
       <c r="H1627" t="inlineStr">
@@ -59392,7 +59392,7 @@
       </c>
       <c r="G1628" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1628" t="inlineStr">
@@ -59434,7 +59434,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1629" t="inlineStr">
@@ -59466,7 +59466,7 @@
       </c>
       <c r="E1630" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 14"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 12"</t>
         </is>
       </c>
       <c r="F1630" t="inlineStr">
@@ -59476,7 +59476,7 @@
       </c>
       <c r="G1630" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1630" t="inlineStr">
@@ -59508,7 +59508,7 @@
       </c>
       <c r="E1631" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 16"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 14"</t>
         </is>
       </c>
       <c r="F1631" t="inlineStr">
@@ -59518,7 +59518,7 @@
       </c>
       <c r="G1631" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>17,00</t>
         </is>
       </c>
       <c r="H1631" t="inlineStr">
@@ -59550,7 +59550,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 24"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 16"</t>
         </is>
       </c>
       <c r="F1632" t="inlineStr">
@@ -59560,7 +59560,7 @@
       </c>
       <c r="G1632" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1632" t="inlineStr">
@@ -59592,7 +59592,7 @@
       </c>
       <c r="E1633" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 14"</t>
+          <t>SUMINISTRO DE SPIRAL WOUND GASKET ASME B16.20 _ 150 LB RAISED FACE _ 304 SS SPIRAL WOUND/GRAPHITE FILLER OUTER RING / FLEXITALLIC LS, 1/8" THK, 24"</t>
         </is>
       </c>
       <c r="F1633" t="inlineStr">
@@ -59602,7 +59602,7 @@
       </c>
       <c r="G1633" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="H1633" t="inlineStr">
@@ -59634,7 +59634,7 @@
       </c>
       <c r="E1634" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 16"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 14"</t>
         </is>
       </c>
       <c r="F1634" t="inlineStr">
@@ -59676,7 +59676,7 @@
       </c>
       <c r="E1635" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 3"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO, 16"</t>
         </is>
       </c>
       <c r="F1635" t="inlineStr">
@@ -59686,7 +59686,7 @@
       </c>
       <c r="G1635" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1635" t="inlineStr">
@@ -59718,7 +59718,7 @@
       </c>
       <c r="E1636" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 6"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 12"</t>
         </is>
       </c>
       <c r="F1636" t="inlineStr">
@@ -59728,7 +59728,7 @@
       </c>
       <c r="G1636" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1636" t="inlineStr">
@@ -59760,7 +59760,7 @@
       </c>
       <c r="E1637" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 8"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 3"</t>
         </is>
       </c>
       <c r="F1637" t="inlineStr">
@@ -59770,7 +59770,7 @@
       </c>
       <c r="G1637" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1637" t="inlineStr">
@@ -59802,7 +59802,7 @@
       </c>
       <c r="E1638" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 14"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 6"</t>
         </is>
       </c>
       <c r="F1638" t="inlineStr">
@@ -59812,7 +59812,7 @@
       </c>
       <c r="G1638" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1638" t="inlineStr">
@@ -59844,7 +59844,7 @@
       </c>
       <c r="E1639" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 16"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO, 8"</t>
         </is>
       </c>
       <c r="F1639" t="inlineStr">
@@ -59854,7 +59854,7 @@
       </c>
       <c r="G1639" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1639" t="inlineStr">
@@ -59886,7 +59886,7 @@
       </c>
       <c r="E1640" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 2"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 14"</t>
         </is>
       </c>
       <c r="F1640" t="inlineStr">
@@ -59896,7 +59896,7 @@
       </c>
       <c r="G1640" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1640" t="inlineStr">
@@ -59928,7 +59928,7 @@
       </c>
       <c r="E1641" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 3"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 16"</t>
         </is>
       </c>
       <c r="F1641" t="inlineStr">
@@ -59938,7 +59938,7 @@
       </c>
       <c r="G1641" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1641" t="inlineStr">
@@ -59970,7 +59970,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 2"</t>
         </is>
       </c>
       <c r="F1642" t="inlineStr">
@@ -59980,7 +59980,7 @@
       </c>
       <c r="G1642" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1642" t="inlineStr">
@@ -60012,7 +60012,7 @@
       </c>
       <c r="E1643" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 3"</t>
         </is>
       </c>
       <c r="F1643" t="inlineStr">
@@ -60022,7 +60022,7 @@
       </c>
       <c r="G1643" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1643" t="inlineStr">
@@ -60054,7 +60054,7 @@
       </c>
       <c r="E1644" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 BExTE SEAMLESS ASTM A53 GR. B, 2-1/2", S-160</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 6"</t>
         </is>
       </c>
       <c r="F1644" t="inlineStr">
@@ -60064,7 +60064,7 @@
       </c>
       <c r="G1644" t="inlineStr">
         <is>
-          <t>60,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1644" t="inlineStr">
@@ -60096,7 +60096,7 @@
       </c>
       <c r="E1645" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
+          <t>SUMINISTRO DE GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED, 8"</t>
         </is>
       </c>
       <c r="F1645" t="inlineStr">
@@ -60106,7 +60106,7 @@
       </c>
       <c r="G1645" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1645" t="inlineStr">
@@ -60138,7 +60138,7 @@
       </c>
       <c r="E1646" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
+          <t>SUMINISTRO DE HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
         </is>
       </c>
       <c r="F1646" t="inlineStr">
@@ -60148,7 +60148,7 @@
       </c>
       <c r="G1646" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1646" t="inlineStr">
@@ -60180,17 +60180,17 @@
       </c>
       <c r="E1647" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
+          <t>SUMINISTRO DE ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED, 2-1/2"</t>
         </is>
       </c>
       <c r="F1647" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1647" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1647" t="inlineStr">
@@ -60222,7 +60222,7 @@
       </c>
       <c r="E1648" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 6"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 BExTE SEAMLESS ASTM A53 GR. B, 2-1/2", S-160</t>
         </is>
       </c>
       <c r="F1648" t="inlineStr">
@@ -60232,7 +60232,7 @@
       </c>
       <c r="G1648" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>30,00</t>
         </is>
       </c>
       <c r="H1648" t="inlineStr">
@@ -60264,7 +60264,7 @@
       </c>
       <c r="E1649" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 14"X 8"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 1", S-80</t>
         </is>
       </c>
       <c r="F1649" t="inlineStr">
@@ -60274,7 +60274,7 @@
       </c>
       <c r="G1649" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1649" t="inlineStr">
@@ -60306,7 +60306,7 @@
       </c>
       <c r="E1650" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 3"</t>
+          <t>SUMINISTRO DE PIPE NIPPLE - LENGTH = 100 MM ASME B36.10 PE SEAMLESS ASTM A106 GR. B, 3/4", S-80</t>
         </is>
       </c>
       <c r="F1650" t="inlineStr">
@@ -60348,17 +60348,17 @@
       </c>
       <c r="E1651" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 14"X 12"</t>
+          <t>SUMINISTRO DE PIPE ASME B36.10 PE SEAMLESS ASTM A106 GR.  B, 1", S-80</t>
         </is>
       </c>
       <c r="F1651" t="inlineStr">
         <is>
-          <t>UN</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G1651" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1651" t="inlineStr">
@@ -60390,7 +60390,7 @@
       </c>
       <c r="E1652" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 14"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 20 X SCH 40, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 6"</t>
         </is>
       </c>
       <c r="F1652" t="inlineStr">
@@ -60400,7 +60400,7 @@
       </c>
       <c r="G1652" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1652" t="inlineStr">
@@ -60432,7 +60432,7 @@
       </c>
       <c r="E1653" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE REDUCER TEE, SCH20 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 4"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 30 X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 14"X 8"</t>
         </is>
       </c>
       <c r="F1653" t="inlineStr">
@@ -60442,7 +60442,7 @@
       </c>
       <c r="G1653" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1653" t="inlineStr">
@@ -60474,7 +60474,7 @@
       </c>
       <c r="E1654" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 24" X 3/4"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH 40 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 6"X 3"</t>
         </is>
       </c>
       <c r="F1654" t="inlineStr">
@@ -60484,7 +60484,7 @@
       </c>
       <c r="G1654" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1654" t="inlineStr">
@@ -60516,7 +60516,7 @@
       </c>
       <c r="E1655" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH STD X SCH 20, BW, ASTM A-234 GR WPB, ASME B16.9 14"X 12"</t>
         </is>
       </c>
       <c r="F1655" t="inlineStr">
@@ -60558,7 +60558,7 @@
       </c>
       <c r="E1656" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"X 14"</t>
         </is>
       </c>
       <c r="F1656" t="inlineStr">
@@ -60600,7 +60600,7 @@
       </c>
       <c r="E1657" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
+          <t>SUMINISTRO DE REDUCER TEE, SCH20 X SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 8"X 4"</t>
         </is>
       </c>
       <c r="F1657" t="inlineStr">
@@ -60610,7 +60610,7 @@
       </c>
       <c r="G1657" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1657" t="inlineStr">
@@ -60642,7 +60642,7 @@
       </c>
       <c r="E1658" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 2-1/2"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 24" X 3/4"</t>
         </is>
       </c>
       <c r="F1658" t="inlineStr">
@@ -60652,7 +60652,7 @@
       </c>
       <c r="G1658" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1658" t="inlineStr">
@@ -60684,7 +60684,7 @@
       </c>
       <c r="E1659" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 24"</t>
+          <t>SUMINISTRO DE SOCKOLET MSS SP-97 BW X SW 3000# FORGED ASTM A105, 8" X 3/4"</t>
         </is>
       </c>
       <c r="F1659" t="inlineStr">
@@ -60694,7 +60694,7 @@
       </c>
       <c r="G1659" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1659" t="inlineStr">
@@ -60726,7 +60726,7 @@
       </c>
       <c r="E1660" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 10"</t>
         </is>
       </c>
       <c r="F1660" t="inlineStr">
@@ -60736,7 +60736,7 @@
       </c>
       <c r="G1660" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1660" t="inlineStr">
@@ -60768,7 +60768,7 @@
       </c>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"</t>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
         </is>
       </c>
       <c r="F1661" t="inlineStr">
@@ -60778,7 +60778,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1661" t="inlineStr">
@@ -60810,7 +60810,7 @@
       </c>
       <c r="E1662" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 2-1/2"</t>
         </is>
       </c>
       <c r="F1662" t="inlineStr">
@@ -60820,7 +60820,7 @@
       </c>
       <c r="G1662" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="H1662" t="inlineStr">
@@ -60852,7 +60852,7 @@
       </c>
       <c r="E1663" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 14"</t>
+          <t>SUMINISTRO DE TEE, SCH 30, BW, ASTM A-234 GR WPB, ASME B16.9 24"</t>
         </is>
       </c>
       <c r="F1663" t="inlineStr">
@@ -60862,7 +60862,7 @@
       </c>
       <c r="G1663" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1663" t="inlineStr">
@@ -60894,7 +60894,7 @@
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 24"</t>
+          <t>SUMINISTRO DE TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 14"</t>
         </is>
       </c>
       <c r="F1664" t="inlineStr">
@@ -60904,7 +60904,7 @@
       </c>
       <c r="G1664" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1664" t="inlineStr">
@@ -60936,7 +60936,7 @@
       </c>
       <c r="E1665" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 40, RF, ASTM A-105, ASME B16.5 16"</t>
+          <t>SUMINISTRO DE TEE, SCH STD, BW, ASTM A-234 GR WPB, ASME B16.9 16"</t>
         </is>
       </c>
       <c r="F1665" t="inlineStr">
@@ -60946,7 +60946,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1665" t="inlineStr">
@@ -60978,7 +60978,7 @@
       </c>
       <c r="E1666" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 12", S-20</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 10"</t>
         </is>
       </c>
       <c r="F1666" t="inlineStr">
@@ -60988,7 +60988,7 @@
       </c>
       <c r="G1666" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1666" t="inlineStr">
@@ -61020,7 +61020,7 @@
       </c>
       <c r="E1667" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 14", S-STD</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 12"</t>
         </is>
       </c>
       <c r="F1667" t="inlineStr">
@@ -61030,7 +61030,7 @@
       </c>
       <c r="G1667" t="inlineStr">
         <is>
-          <t>50,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1667" t="inlineStr">
@@ -61062,7 +61062,7 @@
       </c>
       <c r="E1668" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 16", S-STD</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 14"</t>
         </is>
       </c>
       <c r="F1668" t="inlineStr">
@@ -61072,7 +61072,7 @@
       </c>
       <c r="G1668" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="H1668" t="inlineStr">
@@ -61104,7 +61104,7 @@
       </c>
       <c r="E1669" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 3", S-30</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 30, RF, ASTM A-105, ASME B16.5 24"</t>
         </is>
       </c>
       <c r="F1669" t="inlineStr">
@@ -61114,7 +61114,7 @@
       </c>
       <c r="G1669" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1669" t="inlineStr">
@@ -61146,7 +61146,7 @@
       </c>
       <c r="E1670" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-30</t>
+          <t>SUMINISTRO DE FLANGE WN, 150#, SCH 40, RF, ASTM A-105, ASME B16.5 16"</t>
         </is>
       </c>
       <c r="F1670" t="inlineStr">
@@ -61156,7 +61156,7 @@
       </c>
       <c r="G1670" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="H1670" t="inlineStr">
@@ -61188,7 +61188,7 @@
       </c>
       <c r="E1671" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-20</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 12", S-20</t>
         </is>
       </c>
       <c r="F1671" t="inlineStr">
@@ -61198,7 +61198,7 @@
       </c>
       <c r="G1671" t="inlineStr">
         <is>
-          <t>30,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="H1671" t="inlineStr">
@@ -61230,7 +61230,7 @@
       </c>
       <c r="E1672" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 14" X 2-1/2", S-STD X S-30</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 14", S-STD</t>
         </is>
       </c>
       <c r="F1672" t="inlineStr">
@@ -61240,7 +61240,7 @@
       </c>
       <c r="G1672" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="H1672" t="inlineStr">
@@ -61272,7 +61272,7 @@
       </c>
       <c r="E1673" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 10", S-30 X S-30</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 16", S-STD</t>
         </is>
       </c>
       <c r="F1673" t="inlineStr">
@@ -61282,7 +61282,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="H1673" t="inlineStr">
@@ -61314,7 +61314,7 @@
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 2", S-30 X S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 2-1/2", S-30</t>
         </is>
       </c>
       <c r="F1674" t="inlineStr">
@@ -61324,7 +61324,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1674" t="inlineStr">
@@ -61356,7 +61356,7 @@
       </c>
       <c r="E1675" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 3", S-30 X S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 3", S-30</t>
         </is>
       </c>
       <c r="F1675" t="inlineStr">
@@ -61366,7 +61366,7 @@
       </c>
       <c r="G1675" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1675" t="inlineStr">
@@ -61398,7 +61398,7 @@
       </c>
       <c r="E1676" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 4", S-30 X S-40</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 4", S-30</t>
         </is>
       </c>
       <c r="F1676" t="inlineStr">
@@ -61408,7 +61408,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>5,00</t>
         </is>
       </c>
       <c r="H1676" t="inlineStr">
@@ -61440,7 +61440,7 @@
       </c>
       <c r="E1677" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2", S-40 X S-30</t>
+          <t>SUMINISTRO DE WELDNECK FLANGE ASME B16.5 FLG X BW 150 LB FLAT FACE FORGED ASTM A105, 8", S-20</t>
         </is>
       </c>
       <c r="F1677" t="inlineStr">
@@ -61450,7 +61450,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>17,00</t>
         </is>
       </c>
       <c r="H1677" t="inlineStr">
@@ -61482,7 +61482,7 @@
       </c>
       <c r="E1678" t="inlineStr">
         <is>
-          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-20 X S-40</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 14" X 2-1/2", S-STD X S-30</t>
         </is>
       </c>
       <c r="F1678" t="inlineStr">
@@ -61492,7 +61492,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>17,00</t>
         </is>
       </c>
       <c r="H1678" t="inlineStr">
@@ -61524,17 +61524,17 @@
       </c>
       <c r="E1679" t="inlineStr">
         <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 14" X 6", S-STD X S-40</t>
         </is>
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>54,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="H1679" t="inlineStr">
@@ -61566,17 +61566,17 @@
       </c>
       <c r="E1680" t="inlineStr">
         <is>
-          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 10", S-30 X S-30</t>
         </is>
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1680" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="H1680" t="inlineStr">
@@ -61608,17 +61608,17 @@
       </c>
       <c r="E1681" t="inlineStr">
         <is>
-          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2" (SIN PREFABRICAR)</t>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 2", S-30 X S-40</t>
         </is>
       </c>
       <c r="F1681" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>136,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="H1681" t="inlineStr">
@@ -61650,20 +61650,314 @@
       </c>
       <c r="E1682" t="inlineStr">
         <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 3", S-30 X S-40</t>
+        </is>
+      </c>
+      <c r="F1682" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1682" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1682" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1683" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1683" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 24" X 4", S-30 X S-40</t>
+        </is>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1683" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="H1683" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1684" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 6" X 2-1/2", S-40 X S-30</t>
+        </is>
+      </c>
+      <c r="F1684" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1684" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="H1684" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1685" t="inlineStr">
+        <is>
+          <t>SUMINISTRO DE WELDOLET MSS SP-97 BW X BW FORGED ASTM A105, 8" X 2", S-20 X S-40</t>
+        </is>
+      </c>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="G1685" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="H1685" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES BRIDADAS ANSI 150 DE DIAMETRO 2-1/2"</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="H1686" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1687" t="inlineStr">
+        <is>
+          <t>PRUEBAS HIDROSTATICAS DE VÁLVULAS MANUALES SW 800# DE DIAMETRO MENORES 2"</t>
+        </is>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1687" t="inlineStr">
+        <is>
+          <t>5,00</t>
+        </is>
+      </c>
+      <c r="H1687" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1688" t="inlineStr">
+        <is>
+          <t>MONTAJE AÉREO DE TUBERÍA DE Ø 2-1/2" (SIN PREFABRICAR)</t>
+        </is>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1688" t="inlineStr">
+        <is>
+          <t>75,00</t>
+        </is>
+      </c>
+      <c r="H1688" t="inlineStr">
+        <is>
+          <t>NUEVO</t>
+        </is>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D1689" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E1689" t="inlineStr">
+        <is>
           <t>MONTAJE DE VÁLVULAS Y CHEQUES DIAMETRO DE 2-1/2"</t>
         </is>
       </c>
-      <c r="F1682" t="inlineStr">
+      <c r="F1689" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G1682" t="inlineStr">
-        <is>
-          <t>54,00</t>
-        </is>
-      </c>
-      <c r="H1682" t="inlineStr">
+      <c r="G1689" t="inlineStr">
+        <is>
+          <t>27,00</t>
+        </is>
+      </c>
+      <c r="H1689" t="inlineStr">
         <is>
           <t>NUEVO</t>
         </is>
